--- a/test_Data/NewLoan.xlsx
+++ b/test_Data/NewLoan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagaSaiSriharshaKara\Desktop\PRMG\test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96820635-4754-480E-B21F-722C3D631DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2C1AD9-CA7D-4C37-82B7-0B744632F2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{C1C90F5A-236F-411C-9C72-6F452735E766}"/>
   </bookViews>
@@ -659,7 +659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -680,14 +680,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1336,226 +1328,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="16">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <v>183934904</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="13">
         <v>92879</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
         <v>9232003</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="13" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="13" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="13">
         <v>839503944</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="16">
+      <c r="A14" s="12">
         <v>2</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="13">
         <v>210987654</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="13">
         <v>92879</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="13">
         <v>4091997</v>
       </c>
     </row>
@@ -1585,269 +1577,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="16">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12">
         <v>2</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <v>183934904</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="13">
         <v>210987654</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
         <v>839503944</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="13">
         <v>901234567</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="13">
         <v>183934904</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="13" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="13" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="13" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="13">
         <v>839503944</v>
       </c>
     </row>
@@ -1965,11 +1957,11 @@
   <dimension ref="A1:CL14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E19" sqref="E19"/>
       <selection pane="topRight" activeCell="E19" sqref="E19"/>
       <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
-      <selection pane="bottomRight" activeCell="AF4" sqref="AF4"/>
+      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2649,65 +2641,6 @@
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="12"/>
-      <c r="AX7" s="12"/>
-      <c r="AY7" s="12"/>
-      <c r="AZ7" s="12"/>
-      <c r="BA7" s="12"/>
-      <c r="BB7" s="12"/>
-      <c r="BC7" s="12"/>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="12"/>
-      <c r="BF7" s="12"/>
-      <c r="BG7" s="12"/>
-      <c r="BH7" s="12"/>
-      <c r="BI7" s="12"/>
       <c r="BJ7" s="7"/>
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.35">
@@ -2715,65 +2648,6 @@
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="12"/>
-      <c r="BB8" s="12"/>
-      <c r="BC8" s="12"/>
-      <c r="BD8" s="12"/>
-      <c r="BE8" s="12"/>
-      <c r="BF8" s="12"/>
-      <c r="BG8" s="12"/>
-      <c r="BH8" s="12"/>
-      <c r="BI8" s="12"/>
       <c r="BJ8" s="7"/>
     </row>
     <row r="9" spans="1:90" x14ac:dyDescent="0.35">
@@ -2849,181 +2723,181 @@
       <c r="B10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10">
         <v>210987654</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" t="s">
         <v>141</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10">
         <v>92879</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10">
         <v>6</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10">
         <v>7</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="6">
         <v>4091997</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="6">
         <v>8725378554</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="6">
         <v>6778901234</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="6">
         <v>8912345678</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="R10" t="s">
         <v>142</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="S10" t="s">
         <v>143</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10">
         <v>92879</v>
       </c>
-      <c r="U10" s="12" t="s">
+      <c r="U10" t="s">
         <v>144</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10">
         <v>8</v>
       </c>
-      <c r="W10" s="12">
+      <c r="W10">
         <v>15</v>
       </c>
-      <c r="X10" s="12">
+      <c r="X10">
         <v>34000</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Y10">
         <v>7122003</v>
       </c>
-      <c r="Z10" s="12" t="s">
+      <c r="Z10" t="s">
         <v>84</v>
       </c>
-      <c r="AA10" s="12" t="s">
+      <c r="AA10" t="s">
         <v>85</v>
       </c>
-      <c r="AB10" s="12" t="s">
+      <c r="AB10" t="s">
         <v>86</v>
       </c>
-      <c r="AC10" s="12" t="s">
+      <c r="AC10" t="s">
         <v>93</v>
       </c>
-      <c r="AD10" s="12" t="s">
+      <c r="AD10" t="s">
         <v>88</v>
       </c>
-      <c r="AE10" s="12" t="s">
+      <c r="AE10" t="s">
         <v>89</v>
       </c>
-      <c r="AF10" s="12" t="s">
+      <c r="AF10" t="s">
         <v>88</v>
       </c>
-      <c r="AG10" s="12" t="s">
+      <c r="AG10" t="s">
         <v>145</v>
       </c>
-      <c r="AH10" s="12" t="s">
+      <c r="AH10" t="s">
         <v>68</v>
       </c>
-      <c r="AI10" s="12" t="s">
+      <c r="AI10" t="s">
         <v>146</v>
       </c>
-      <c r="AJ10" s="12" t="s">
+      <c r="AJ10" t="s">
         <v>147</v>
       </c>
-      <c r="AK10" s="12">
+      <c r="AK10">
         <v>901234567</v>
       </c>
-      <c r="AL10" s="12" t="s">
+      <c r="AL10" t="s">
         <v>148</v>
       </c>
-      <c r="AM10" s="12">
+      <c r="AM10">
         <v>92879</v>
       </c>
-      <c r="AN10" s="12">
+      <c r="AN10">
         <v>2</v>
       </c>
-      <c r="AO10" s="12">
+      <c r="AO10">
         <v>4</v>
       </c>
-      <c r="AP10" s="13" t="s">
+      <c r="AP10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AQ10" s="13">
+      <c r="AQ10" s="6">
         <v>12122006</v>
       </c>
-      <c r="AR10" s="13" t="s">
+      <c r="AR10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AS10" s="13">
+      <c r="AS10" s="6">
         <v>7183829496</v>
       </c>
-      <c r="AT10" s="13">
+      <c r="AT10" s="6">
         <v>8902736475</v>
       </c>
-      <c r="AU10" s="13">
+      <c r="AU10" s="6">
         <v>4536789102</v>
       </c>
-      <c r="AV10" s="12" t="s">
+      <c r="AV10" t="s">
         <v>149</v>
       </c>
-      <c r="AW10" s="12" t="s">
+      <c r="AW10" t="s">
         <v>150</v>
       </c>
-      <c r="AX10" s="14">
+      <c r="AX10" s="9">
         <v>92879</v>
       </c>
-      <c r="AY10" s="13" t="s">
+      <c r="AY10" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AZ10" s="12">
+      <c r="AZ10">
         <v>7</v>
       </c>
-      <c r="BA10" s="13">
+      <c r="BA10" s="6">
         <v>9</v>
       </c>
-      <c r="BB10" s="13">
+      <c r="BB10" s="6">
         <v>29000</v>
       </c>
-      <c r="BC10" s="13">
+      <c r="BC10" s="6">
         <v>7282003</v>
       </c>
-      <c r="BD10" s="12" t="s">
+      <c r="BD10" t="s">
         <v>84</v>
       </c>
-      <c r="BE10" s="12" t="s">
+      <c r="BE10" t="s">
         <v>152</v>
       </c>
-      <c r="BF10" s="12" t="s">
+      <c r="BF10" t="s">
         <v>86</v>
       </c>
-      <c r="BG10" s="12" t="s">
+      <c r="BG10" t="s">
         <v>87</v>
       </c>
-      <c r="BH10" s="12" t="s">
+      <c r="BH10" t="s">
         <v>89</v>
       </c>
-      <c r="BI10" s="12" t="s">
+      <c r="BI10" t="s">
         <v>89</v>
       </c>
       <c r="BJ10" s="7" t="s">
@@ -3035,65 +2909,6 @@
       <c r="B11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="12"/>
-      <c r="AV11" s="12"/>
-      <c r="AW11" s="12"/>
-      <c r="AX11" s="12"/>
-      <c r="AY11" s="12"/>
-      <c r="AZ11" s="12"/>
-      <c r="BA11" s="12"/>
-      <c r="BB11" s="12"/>
-      <c r="BC11" s="12"/>
-      <c r="BD11" s="12"/>
-      <c r="BE11" s="12"/>
-      <c r="BF11" s="12"/>
-      <c r="BG11" s="12"/>
-      <c r="BH11" s="12"/>
-      <c r="BI11" s="12"/>
       <c r="BJ11" s="7"/>
     </row>
     <row r="12" spans="1:90" x14ac:dyDescent="0.35">
@@ -3166,7 +2981,7 @@
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3180,10 +2995,10 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH154:AH170" xr:uid="{A061D944-27EE-4761-9756-FB237FFB5D65}">
       <formula1 xml:space="preserve"> OR(AG153 = "", $C153 &lt;&gt; "")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG10:AI153 AG2:AI3 AJ2:BJ3 AJ10:BJ153" xr:uid="{FBFA18D1-13F0-4CF8-80E7-B93EEBFBFB8D}">
-      <formula1>$C2&lt;&gt;""</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ73:BJ153 AG73:AI153" xr:uid="{FBFA18D1-13F0-4CF8-80E7-B93EEBFBFB8D}">
+      <formula1>$C73&lt;&gt;""</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please fill Borrower First Name before entering Co-Borrower data." promptTitle="Invalid Input" prompt="Please fill Borrower First Name before entering Co-Borrower data." sqref="AG4:BJ9" xr:uid="{A7EC103B-3CBE-406E-B854-597AF703D205}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Enter borrower data before filling co-borrower fields" promptTitle="Invalid input" prompt="Enter borrower data before filling co-borrower fields" sqref="AG2:BJ72" xr:uid="{1654CCF2-4ECB-45A7-86F0-DAB18BF61777}">
       <formula1>$C2&lt;&gt;""</formula1>
     </dataValidation>
   </dataValidations>
@@ -3192,11 +3007,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f55b03ab-a17e-45ae-bce8-30e2886d64f3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3382,26 +3198,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f55b03ab-a17e-45ae-bce8-30e2886d64f3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49BEC817-B763-4B8D-BE16-B76A4BBC14A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2688610-0CFD-4DBB-91CE-6FA05FF6834E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f55b03ab-a17e-45ae-bce8-30e2886d64f3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3425,9 +3232,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2688610-0CFD-4DBB-91CE-6FA05FF6834E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49BEC817-B763-4B8D-BE16-B76A4BBC14A4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f55b03ab-a17e-45ae-bce8-30e2886d64f3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/test_Data/NewLoan.xlsx
+++ b/test_Data/NewLoan.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagaSaiSriharshaKara\Desktop\PRMG\test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FD4ED1-E46E-4517-B5BE-B31BAE9A1ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED71399E-6E98-4BA0-A634-299CB90FEAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{C1C90F5A-236F-411C-9C72-6F452735E766}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C1C90F5A-236F-411C-9C72-6F452735E766}"/>
   </bookViews>
   <sheets>
     <sheet name="Loans" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="7" r:id="rId2"/>
-    <sheet name="Borrower Pairs" sheetId="2" r:id="rId3"/>
+    <sheet name="Borrower Pairs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="162">
   <si>
     <t>Loan Number</t>
   </si>
@@ -520,6 +519,9 @@
   <si>
     <t>Henry</t>
   </si>
+  <si>
+    <t>No of Pairs</t>
+  </si>
 </sst>
 </file>
 
@@ -990,10 +992,10 @@
   <dimension ref="A1:BK4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" sqref="A1:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1297,290 +1299,272 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC299562-40F4-416C-878C-252C6276F44E}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:BH1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB934E1-CA74-450F-9B75-4F159BEE341D}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:CL527"/>
+  <dimension ref="A1:CM527"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E19" sqref="E19"/>
       <selection pane="topRight" activeCell="E19" sqref="E19"/>
       <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
-      <selection pane="bottomRight" activeCell="AL7" sqref="AL7"/>
+      <selection pane="bottomRight" activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="7.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.1796875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="BK1"/>
       <c r="BL1"/>
       <c r="BM1"/>
       <c r="BN1"/>
@@ -1608,393 +1592,395 @@
       <c r="CJ1"/>
       <c r="CK1"/>
       <c r="CL1"/>
-    </row>
-    <row r="2" spans="1:90" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="CM1"/>
+    </row>
+    <row r="2" spans="1:91" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>183934904</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>92879</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <v>5</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <v>3</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="6">
         <v>9232003</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="O2" s="8">
+      <c r="P2" s="8">
         <v>1638493959</v>
       </c>
-      <c r="P2" s="8">
+      <c r="Q2" s="8">
         <v>1727838499</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="R2" s="8">
         <v>2893930406</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="6">
+      <c r="U2" s="6">
         <v>92879</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="V2" s="6">
-        <v>7</v>
       </c>
       <c r="W2" s="6">
         <v>7</v>
       </c>
       <c r="X2" s="6">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="6">
         <v>25678</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Z2" s="8">
         <v>4091997</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>124</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>125</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AL2" s="4">
         <v>189309305</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>92879</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>6</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>2</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>128</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>12121992</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>78</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>1738299349</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>5273493596</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>7632874985</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>129</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>134</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>92879</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>135</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>8</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>9</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <v>20918</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <v>7182006</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>84</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>85</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>86</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>87</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>89</v>
       </c>
       <c r="BI2" t="s">
         <v>89</v>
       </c>
-      <c r="BJ2" s="5" t="s">
+      <c r="BJ2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:90" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+      <c r="BK2" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="BJ3" s="16"/>
-    </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.35">
+      <c r="BK3" s="16"/>
+    </row>
+    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <v>839503944</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>92879</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>10</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>1</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="7">
+      <c r="N4" s="7">
         <v>5081999</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="8">
+      <c r="P4" s="8">
         <v>1111111111</v>
       </c>
-      <c r="P4" s="8">
+      <c r="Q4" s="8">
         <v>2222222222</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="R4" s="8">
         <v>3333333333</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="T4" s="6">
+      <c r="U4" s="6">
         <v>92879</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="V4" s="6">
+      <c r="W4" s="6">
         <v>10</v>
       </c>
-      <c r="W4" s="6">
+      <c r="X4" s="6">
         <v>4</v>
       </c>
-      <c r="X4" s="6">
+      <c r="Y4" s="6">
         <v>50000</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Z4" s="6">
         <v>8092014</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AC4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AD4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AE4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AG4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>130</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>68</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>131</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>126</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>789123456</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>132</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>92879</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>9</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>5</v>
       </c>
-      <c r="AP4" s="4" t="s">
+      <c r="AQ4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AQ4" s="4">
+      <c r="AR4" s="4">
         <v>6091998</v>
       </c>
-      <c r="AR4" s="4" t="s">
+      <c r="AS4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AS4" s="15">
+      <c r="AT4" s="15">
         <v>9999999999</v>
       </c>
-      <c r="AT4" s="15">
+      <c r="AU4" s="15">
         <v>8888888888</v>
       </c>
-      <c r="AU4" s="15">
+      <c r="AV4" s="15">
         <v>7777777777</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>133</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>136</v>
       </c>
-      <c r="AX4" s="15">
+      <c r="AY4" s="15">
         <v>92879</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>137</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>6</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>8</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <v>26500</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <v>4062004</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>90</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>91</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>92</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>93</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>88</v>
       </c>
       <c r="BI4" t="s">
         <v>88</v>
       </c>
-      <c r="BJ4" s="5" t="s">
+      <c r="BJ4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.35">
+      <c r="BK4" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -2003,10 +1989,10 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="8"/>
+      <c r="O5" s="6"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="6"/>
+      <c r="R5" s="8"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
@@ -2021,22 +2007,23 @@
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
-    </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.35">
+      <c r="AG5" s="6"/>
+    </row>
+    <row r="6" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -2045,10 +2032,10 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="8"/>
+      <c r="O6" s="6"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="6"/>
+      <c r="R6" s="8"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
@@ -2063,25 +2050,28 @@
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
-    </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.35">
+      <c r="AG6" s="6"/>
+    </row>
+    <row r="7" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -2093,10 +2083,10 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="11"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
-      <c r="R9" s="9"/>
+      <c r="R9" s="11"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
@@ -2111,7 +2101,7 @@
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
-      <c r="AG9" s="1"/>
+      <c r="AG9" s="9"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
@@ -2140,208 +2130,210 @@
       <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
       <c r="BI9" s="1"/>
-      <c r="BJ9" s="12"/>
-    </row>
-    <row r="10" spans="1:90" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="12"/>
+    </row>
+    <row r="10" spans="1:91" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <v>210987654</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>92879</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <v>6</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="6">
         <v>7</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="7">
+      <c r="N10" s="7">
         <v>4091997</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="O10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="8">
+      <c r="P10" s="8">
         <v>8725378554</v>
       </c>
-      <c r="P10" s="8">
+      <c r="Q10" s="8">
         <v>6778901234</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="R10" s="8">
         <v>8912345678</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="S10" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="T10" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="T10" s="6">
+      <c r="U10" s="6">
         <v>92879</v>
       </c>
-      <c r="U10" s="6" t="s">
+      <c r="V10" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="V10" s="6">
+      <c r="W10" s="6">
         <v>8</v>
       </c>
-      <c r="W10" s="6">
+      <c r="X10" s="6">
         <v>7</v>
       </c>
-      <c r="X10" s="6">
+      <c r="Y10" s="6">
         <v>34000</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Z10" s="6">
         <v>7122003</v>
       </c>
-      <c r="Z10" s="6" t="s">
+      <c r="AA10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AA10" s="6" t="s">
+      <c r="AB10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AB10" s="6" t="s">
+      <c r="AC10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AC10" s="6" t="s">
+      <c r="AD10" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AD10" s="6" t="s">
+      <c r="AE10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AE10" s="6" t="s">
+      <c r="AF10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AF10" s="6" t="s">
+      <c r="AG10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>145</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>68</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>146</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>147</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>901234567</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>148</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>92879</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>2</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>4</v>
       </c>
-      <c r="AP10" s="4" t="s">
+      <c r="AQ10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AQ10" s="4">
+      <c r="AR10" s="4">
         <v>12122006</v>
       </c>
-      <c r="AR10" s="4" t="s">
+      <c r="AS10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AS10" s="4">
+      <c r="AT10" s="4">
         <v>7183829496</v>
       </c>
-      <c r="AT10" s="4">
+      <c r="AU10" s="4">
         <v>8902736475</v>
       </c>
-      <c r="AU10" s="4">
+      <c r="AV10" s="4">
         <v>4536789102</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AW10" t="s">
         <v>149</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AX10" t="s">
         <v>150</v>
       </c>
-      <c r="AX10" s="15">
+      <c r="AY10" s="15">
         <v>92879</v>
       </c>
-      <c r="AY10" s="4" t="s">
+      <c r="AZ10" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AZ10">
+      <c r="BA10">
         <v>7</v>
       </c>
-      <c r="BA10" s="4">
+      <c r="BB10" s="4">
         <v>9</v>
       </c>
-      <c r="BB10" s="4">
+      <c r="BC10" s="4">
         <v>29000</v>
       </c>
-      <c r="BC10" s="4">
+      <c r="BD10" s="4">
         <v>7282003</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BE10" t="s">
         <v>84</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BF10" t="s">
         <v>152</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BG10" t="s">
         <v>86</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BH10" t="s">
         <v>87</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>89</v>
       </c>
       <c r="BI10" t="s">
         <v>89</v>
       </c>
-      <c r="BJ10" s="5" t="s">
+      <c r="BJ10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.35">
+      <c r="BK10" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -2353,10 +2345,10 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="11"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="9"/>
+      <c r="R12" s="11"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
@@ -2371,7 +2363,7 @@
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
-      <c r="AG12" s="1"/>
+      <c r="AG12" s="9"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
@@ -2400,106 +2392,107 @@
       <c r="BG12" s="1"/>
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
-      <c r="BJ12" s="12"/>
-    </row>
-    <row r="13" spans="1:90" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="12"/>
+    </row>
+    <row r="13" spans="1:91" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13"/>
+      <c r="C13" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <v>839503945</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>92879</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <v>11</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <v>3</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="6">
+      <c r="N13" s="6">
         <v>5082000</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="O13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="O13" s="8">
+      <c r="P13" s="8">
         <v>7238248940</v>
       </c>
-      <c r="P13" s="8">
+      <c r="Q13" s="8">
         <v>6348385992</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="R13" s="8">
         <v>8239626348</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="S13" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="T13" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="T13" s="6">
+      <c r="U13" s="6">
         <v>92879</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="V13" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="V13" s="6">
+      <c r="W13" s="6">
         <v>6</v>
       </c>
-      <c r="W13" s="6">
+      <c r="X13" s="6">
         <v>8</v>
       </c>
-      <c r="X13" s="6">
+      <c r="Y13" s="6">
         <v>45908</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Z13" s="6">
         <v>7091997</v>
       </c>
-      <c r="Z13" s="6" t="s">
+      <c r="AA13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AA13" s="6" t="s">
+      <c r="AB13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AB13" s="6" t="s">
+      <c r="AC13" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AC13" s="6" t="s">
+      <c r="AD13" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="AE13" s="6" t="s">
         <v>88</v>
       </c>
       <c r="AF13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG13" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AH13"/>
       <c r="AI13"/>
       <c r="AJ13"/>
       <c r="AK13"/>
@@ -2527,10 +2520,10 @@
       <c r="BG13"/>
       <c r="BH13"/>
       <c r="BI13"/>
-      <c r="BJ13" s="5"/>
-    </row>
-    <row r="14" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="6"/>
+      <c r="BJ13"/>
+      <c r="BK13" s="5"/>
+    </row>
+    <row r="14" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -2542,10 +2535,10 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="8"/>
+      <c r="O14" s="6"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="6"/>
+      <c r="R14" s="8"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
@@ -2560,9 +2553,9 @@
       <c r="AD14" s="6"/>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
-    </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.35">
-      <c r="C15" s="6"/>
+      <c r="AG14" s="6"/>
+    </row>
+    <row r="15" spans="1:91" x14ac:dyDescent="0.35">
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -2574,10 +2567,10 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="8"/>
+      <c r="O15" s="6"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="6"/>
+      <c r="R15" s="8"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
@@ -2592,9 +2585,9 @@
       <c r="AD15" s="6"/>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6"/>
-    </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.35">
-      <c r="C16" s="6"/>
+      <c r="AG15" s="6"/>
+    </row>
+    <row r="16" spans="1:91" x14ac:dyDescent="0.35">
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -2606,10 +2599,10 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="8"/>
+      <c r="O16" s="6"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
-      <c r="R16" s="6"/>
+      <c r="R16" s="8"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -2624,9 +2617,9 @@
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
       <c r="AF16" s="6"/>
-    </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C17" s="6"/>
+      <c r="AG16" s="6"/>
+    </row>
+    <row r="17" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -2638,10 +2631,10 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="8"/>
+      <c r="O17" s="6"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-      <c r="R17" s="6"/>
+      <c r="R17" s="8"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -2656,9 +2649,9 @@
       <c r="AD17" s="6"/>
       <c r="AE17" s="6"/>
       <c r="AF17" s="6"/>
-    </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C18" s="6"/>
+      <c r="AG17" s="6"/>
+    </row>
+    <row r="18" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -2670,10 +2663,10 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="8"/>
+      <c r="O18" s="6"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="6"/>
+      <c r="R18" s="8"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
@@ -2688,9 +2681,9 @@
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
       <c r="AF18" s="6"/>
-    </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C19" s="6"/>
+      <c r="AG18" s="6"/>
+    </row>
+    <row r="19" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -2702,10 +2695,10 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="8"/>
+      <c r="O19" s="6"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="6"/>
+      <c r="R19" s="8"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
@@ -2720,9 +2713,9 @@
       <c r="AD19" s="6"/>
       <c r="AE19" s="6"/>
       <c r="AF19" s="6"/>
-    </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C20" s="6"/>
+      <c r="AG19" s="6"/>
+    </row>
+    <row r="20" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -2734,10 +2727,10 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="8"/>
+      <c r="O20" s="6"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
-      <c r="R20" s="6"/>
+      <c r="R20" s="8"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
@@ -2752,9 +2745,9 @@
       <c r="AD20" s="6"/>
       <c r="AE20" s="6"/>
       <c r="AF20" s="6"/>
-    </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C21" s="6"/>
+      <c r="AG20" s="6"/>
+    </row>
+    <row r="21" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -2766,10 +2759,10 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="8"/>
+      <c r="O21" s="6"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
-      <c r="R21" s="6"/>
+      <c r="R21" s="8"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
@@ -2784,9 +2777,9 @@
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6"/>
-    </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C22" s="6"/>
+      <c r="AG21" s="6"/>
+    </row>
+    <row r="22" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2798,10 +2791,10 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="8"/>
+      <c r="O22" s="6"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
-      <c r="R22" s="6"/>
+      <c r="R22" s="8"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
@@ -2816,9 +2809,9 @@
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
       <c r="AF22" s="6"/>
-    </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C23" s="6"/>
+      <c r="AG22" s="6"/>
+    </row>
+    <row r="23" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -2830,10 +2823,10 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="8"/>
+      <c r="O23" s="6"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
-      <c r="R23" s="6"/>
+      <c r="R23" s="8"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
@@ -2848,9 +2841,9 @@
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
       <c r="AF23" s="6"/>
-    </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C24" s="6"/>
+      <c r="AG23" s="6"/>
+    </row>
+    <row r="24" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -2862,10 +2855,10 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="8"/>
+      <c r="O24" s="6"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="6"/>
+      <c r="R24" s="8"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
@@ -2880,9 +2873,9 @@
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
       <c r="AF24" s="6"/>
-    </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C25" s="6"/>
+      <c r="AG24" s="6"/>
+    </row>
+    <row r="25" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -2894,10 +2887,10 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="8"/>
+      <c r="O25" s="6"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="6"/>
+      <c r="R25" s="8"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
@@ -2912,9 +2905,9 @@
       <c r="AD25" s="6"/>
       <c r="AE25" s="6"/>
       <c r="AF25" s="6"/>
-    </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C26" s="6"/>
+      <c r="AG25" s="6"/>
+    </row>
+    <row r="26" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -2926,10 +2919,10 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="8"/>
+      <c r="O26" s="6"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="6"/>
+      <c r="R26" s="8"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
@@ -2944,9 +2937,9 @@
       <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
       <c r="AF26" s="6"/>
-    </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C27" s="6"/>
+      <c r="AG26" s="6"/>
+    </row>
+    <row r="27" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -2958,10 +2951,10 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="8"/>
+      <c r="O27" s="6"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="6"/>
+      <c r="R27" s="8"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
@@ -2976,9 +2969,9 @@
       <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
       <c r="AF27" s="6"/>
-    </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C28" s="6"/>
+      <c r="AG27" s="6"/>
+    </row>
+    <row r="28" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2990,10 +2983,10 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="8"/>
+      <c r="O28" s="6"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
-      <c r="R28" s="6"/>
+      <c r="R28" s="8"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
@@ -3008,9 +3001,9 @@
       <c r="AD28" s="6"/>
       <c r="AE28" s="6"/>
       <c r="AF28" s="6"/>
-    </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C29" s="6"/>
+      <c r="AG28" s="6"/>
+    </row>
+    <row r="29" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -3022,10 +3015,10 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="8"/>
+      <c r="O29" s="6"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
-      <c r="R29" s="6"/>
+      <c r="R29" s="8"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
@@ -3040,9 +3033,9 @@
       <c r="AD29" s="6"/>
       <c r="AE29" s="6"/>
       <c r="AF29" s="6"/>
-    </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C30" s="6"/>
+      <c r="AG29" s="6"/>
+    </row>
+    <row r="30" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -3054,10 +3047,10 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="8"/>
+      <c r="O30" s="6"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="6"/>
+      <c r="R30" s="8"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
@@ -3072,9 +3065,9 @@
       <c r="AD30" s="6"/>
       <c r="AE30" s="6"/>
       <c r="AF30" s="6"/>
-    </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C31" s="6"/>
+      <c r="AG30" s="6"/>
+    </row>
+    <row r="31" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -3086,10 +3079,10 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="8"/>
+      <c r="O31" s="6"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
-      <c r="R31" s="6"/>
+      <c r="R31" s="8"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
@@ -3104,9 +3097,9 @@
       <c r="AD31" s="6"/>
       <c r="AE31" s="6"/>
       <c r="AF31" s="6"/>
-    </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C32" s="6"/>
+      <c r="AG31" s="6"/>
+    </row>
+    <row r="32" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -3118,10 +3111,10 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="8"/>
+      <c r="O32" s="6"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
-      <c r="R32" s="6"/>
+      <c r="R32" s="8"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
@@ -3136,9 +3129,9 @@
       <c r="AD32" s="6"/>
       <c r="AE32" s="6"/>
       <c r="AF32" s="6"/>
-    </row>
-    <row r="33" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C33" s="6"/>
+      <c r="AG32" s="6"/>
+    </row>
+    <row r="33" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -3150,10 +3143,10 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="8"/>
+      <c r="O33" s="6"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
-      <c r="R33" s="6"/>
+      <c r="R33" s="8"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
@@ -3168,9 +3161,9 @@
       <c r="AD33" s="6"/>
       <c r="AE33" s="6"/>
       <c r="AF33" s="6"/>
-    </row>
-    <row r="34" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C34" s="6"/>
+      <c r="AG33" s="6"/>
+    </row>
+    <row r="34" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -3182,10 +3175,10 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="8"/>
+      <c r="O34" s="6"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
-      <c r="R34" s="6"/>
+      <c r="R34" s="8"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
@@ -3200,9 +3193,9 @@
       <c r="AD34" s="6"/>
       <c r="AE34" s="6"/>
       <c r="AF34" s="6"/>
-    </row>
-    <row r="35" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C35" s="6"/>
+      <c r="AG34" s="6"/>
+    </row>
+    <row r="35" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -3214,10 +3207,10 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="8"/>
+      <c r="O35" s="6"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
-      <c r="R35" s="6"/>
+      <c r="R35" s="8"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
@@ -3232,9 +3225,9 @@
       <c r="AD35" s="6"/>
       <c r="AE35" s="6"/>
       <c r="AF35" s="6"/>
-    </row>
-    <row r="36" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C36" s="6"/>
+      <c r="AG35" s="6"/>
+    </row>
+    <row r="36" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -3246,10 +3239,10 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="8"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
@@ -3264,9 +3257,9 @@
       <c r="AD36" s="6"/>
       <c r="AE36" s="6"/>
       <c r="AF36" s="6"/>
-    </row>
-    <row r="37" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C37" s="6"/>
+      <c r="AG36" s="6"/>
+    </row>
+    <row r="37" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3278,10 +3271,10 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="8"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
@@ -3296,9 +3289,9 @@
       <c r="AD37" s="6"/>
       <c r="AE37" s="6"/>
       <c r="AF37" s="6"/>
-    </row>
-    <row r="38" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C38" s="6"/>
+      <c r="AG37" s="6"/>
+    </row>
+    <row r="38" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -3310,10 +3303,10 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="8"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
@@ -3328,9 +3321,9 @@
       <c r="AD38" s="6"/>
       <c r="AE38" s="6"/>
       <c r="AF38" s="6"/>
-    </row>
-    <row r="39" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C39" s="6"/>
+      <c r="AG38" s="6"/>
+    </row>
+    <row r="39" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -3342,10 +3335,10 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="8"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
@@ -3360,9 +3353,9 @@
       <c r="AD39" s="6"/>
       <c r="AE39" s="6"/>
       <c r="AF39" s="6"/>
-    </row>
-    <row r="40" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C40" s="6"/>
+      <c r="AG39" s="6"/>
+    </row>
+    <row r="40" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -3374,10 +3367,10 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="8"/>
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
@@ -3392,9 +3385,9 @@
       <c r="AD40" s="6"/>
       <c r="AE40" s="6"/>
       <c r="AF40" s="6"/>
-    </row>
-    <row r="41" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C41" s="6"/>
+      <c r="AG40" s="6"/>
+    </row>
+    <row r="41" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -3406,10 +3399,10 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="8"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
@@ -3424,9 +3417,9 @@
       <c r="AD41" s="6"/>
       <c r="AE41" s="6"/>
       <c r="AF41" s="6"/>
-    </row>
-    <row r="42" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C42" s="6"/>
+      <c r="AG41" s="6"/>
+    </row>
+    <row r="42" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -3438,10 +3431,10 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="8"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
@@ -3456,9 +3449,9 @@
       <c r="AD42" s="6"/>
       <c r="AE42" s="6"/>
       <c r="AF42" s="6"/>
-    </row>
-    <row r="43" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C43" s="6"/>
+      <c r="AG42" s="6"/>
+    </row>
+    <row r="43" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -3470,10 +3463,10 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="8"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
@@ -3488,9 +3481,9 @@
       <c r="AD43" s="6"/>
       <c r="AE43" s="6"/>
       <c r="AF43" s="6"/>
-    </row>
-    <row r="44" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C44" s="6"/>
+      <c r="AG43" s="6"/>
+    </row>
+    <row r="44" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -3502,10 +3495,10 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="8"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
@@ -3520,9 +3513,9 @@
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
       <c r="AF44" s="6"/>
-    </row>
-    <row r="45" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C45" s="6"/>
+      <c r="AG44" s="6"/>
+    </row>
+    <row r="45" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -3534,10 +3527,10 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="8"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
@@ -3552,9 +3545,9 @@
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
       <c r="AF45" s="6"/>
-    </row>
-    <row r="46" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C46" s="6"/>
+      <c r="AG45" s="6"/>
+    </row>
+    <row r="46" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -3566,10 +3559,10 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="8"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
@@ -3584,9 +3577,9 @@
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
       <c r="AF46" s="6"/>
-    </row>
-    <row r="47" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C47" s="6"/>
+      <c r="AG46" s="6"/>
+    </row>
+    <row r="47" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -3598,10 +3591,10 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="8"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
@@ -3616,9 +3609,9 @@
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
       <c r="AF47" s="6"/>
-    </row>
-    <row r="48" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C48" s="6"/>
+      <c r="AG47" s="6"/>
+    </row>
+    <row r="48" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -3630,10 +3623,10 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="8"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
@@ -3648,9 +3641,9 @@
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
       <c r="AF48" s="6"/>
-    </row>
-    <row r="49" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C49" s="6"/>
+      <c r="AG48" s="6"/>
+    </row>
+    <row r="49" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -3662,10 +3655,10 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="8"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
@@ -3680,9 +3673,9 @@
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
       <c r="AF49" s="6"/>
-    </row>
-    <row r="50" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C50" s="6"/>
+      <c r="AG49" s="6"/>
+    </row>
+    <row r="50" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -3694,10 +3687,10 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="8"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
@@ -3712,9 +3705,9 @@
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
       <c r="AF50" s="6"/>
-    </row>
-    <row r="51" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C51" s="6"/>
+      <c r="AG50" s="6"/>
+    </row>
+    <row r="51" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -3726,10 +3719,10 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="8"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
@@ -3744,9 +3737,9 @@
       <c r="AD51" s="6"/>
       <c r="AE51" s="6"/>
       <c r="AF51" s="6"/>
-    </row>
-    <row r="52" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C52" s="6"/>
+      <c r="AG51" s="6"/>
+    </row>
+    <row r="52" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -3758,10 +3751,10 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="8"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
@@ -3776,9 +3769,9 @@
       <c r="AD52" s="6"/>
       <c r="AE52" s="6"/>
       <c r="AF52" s="6"/>
-    </row>
-    <row r="53" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C53" s="6"/>
+      <c r="AG52" s="6"/>
+    </row>
+    <row r="53" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -3790,10 +3783,10 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="8"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
@@ -3808,9 +3801,9 @@
       <c r="AD53" s="6"/>
       <c r="AE53" s="6"/>
       <c r="AF53" s="6"/>
-    </row>
-    <row r="54" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C54" s="6"/>
+      <c r="AG53" s="6"/>
+    </row>
+    <row r="54" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -3822,10 +3815,10 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="8"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
@@ -3840,9 +3833,9 @@
       <c r="AD54" s="6"/>
       <c r="AE54" s="6"/>
       <c r="AF54" s="6"/>
-    </row>
-    <row r="55" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C55" s="6"/>
+      <c r="AG54" s="6"/>
+    </row>
+    <row r="55" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -3854,10 +3847,10 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="8"/>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
       <c r="U55" s="6"/>
@@ -3872,9 +3865,9 @@
       <c r="AD55" s="6"/>
       <c r="AE55" s="6"/>
       <c r="AF55" s="6"/>
-    </row>
-    <row r="56" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C56" s="6"/>
+      <c r="AG55" s="6"/>
+    </row>
+    <row r="56" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -3886,10 +3879,10 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="8"/>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
@@ -3904,9 +3897,9 @@
       <c r="AD56" s="6"/>
       <c r="AE56" s="6"/>
       <c r="AF56" s="6"/>
-    </row>
-    <row r="57" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C57" s="6"/>
+      <c r="AG56" s="6"/>
+    </row>
+    <row r="57" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -3918,10 +3911,10 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="8"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
@@ -3936,9 +3929,9 @@
       <c r="AD57" s="6"/>
       <c r="AE57" s="6"/>
       <c r="AF57" s="6"/>
-    </row>
-    <row r="58" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C58" s="6"/>
+      <c r="AG57" s="6"/>
+    </row>
+    <row r="58" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -3950,10 +3943,10 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="8"/>
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
@@ -3968,9 +3961,9 @@
       <c r="AD58" s="6"/>
       <c r="AE58" s="6"/>
       <c r="AF58" s="6"/>
-    </row>
-    <row r="59" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C59" s="6"/>
+      <c r="AG58" s="6"/>
+    </row>
+    <row r="59" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -3982,10 +3975,10 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="8"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
@@ -4000,9 +3993,9 @@
       <c r="AD59" s="6"/>
       <c r="AE59" s="6"/>
       <c r="AF59" s="6"/>
-    </row>
-    <row r="60" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C60" s="6"/>
+      <c r="AG59" s="6"/>
+    </row>
+    <row r="60" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -4014,10 +4007,10 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="8"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
@@ -4032,9 +4025,9 @@
       <c r="AD60" s="6"/>
       <c r="AE60" s="6"/>
       <c r="AF60" s="6"/>
-    </row>
-    <row r="61" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C61" s="6"/>
+      <c r="AG60" s="6"/>
+    </row>
+    <row r="61" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -4046,10 +4039,10 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="8"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
@@ -4064,9 +4057,9 @@
       <c r="AD61" s="6"/>
       <c r="AE61" s="6"/>
       <c r="AF61" s="6"/>
-    </row>
-    <row r="62" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C62" s="6"/>
+      <c r="AG61" s="6"/>
+    </row>
+    <row r="62" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -4078,10 +4071,10 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="8"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
@@ -4096,9 +4089,9 @@
       <c r="AD62" s="6"/>
       <c r="AE62" s="6"/>
       <c r="AF62" s="6"/>
-    </row>
-    <row r="63" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C63" s="6"/>
+      <c r="AG62" s="6"/>
+    </row>
+    <row r="63" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -4112,8 +4105,8 @@
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="8"/>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
@@ -4128,9 +4121,9 @@
       <c r="AD63" s="6"/>
       <c r="AE63" s="6"/>
       <c r="AF63" s="6"/>
-    </row>
-    <row r="64" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C64" s="6"/>
+      <c r="AG63" s="6"/>
+    </row>
+    <row r="64" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -4144,8 +4137,8 @@
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="8"/>
       <c r="S64" s="6"/>
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
@@ -4160,9 +4153,9 @@
       <c r="AD64" s="6"/>
       <c r="AE64" s="6"/>
       <c r="AF64" s="6"/>
-    </row>
-    <row r="65" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C65" s="6"/>
+      <c r="AG64" s="6"/>
+    </row>
+    <row r="65" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -4176,8 +4169,8 @@
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="8"/>
       <c r="S65" s="6"/>
       <c r="T65" s="6"/>
       <c r="U65" s="6"/>
@@ -4192,9 +4185,9 @@
       <c r="AD65" s="6"/>
       <c r="AE65" s="6"/>
       <c r="AF65" s="6"/>
-    </row>
-    <row r="66" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C66" s="6"/>
+      <c r="AG65" s="6"/>
+    </row>
+    <row r="66" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -4208,8 +4201,8 @@
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="8"/>
       <c r="S66" s="6"/>
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
@@ -4224,9 +4217,9 @@
       <c r="AD66" s="6"/>
       <c r="AE66" s="6"/>
       <c r="AF66" s="6"/>
-    </row>
-    <row r="67" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C67" s="6"/>
+      <c r="AG66" s="6"/>
+    </row>
+    <row r="67" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -4240,8 +4233,8 @@
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="8"/>
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
@@ -4256,9 +4249,9 @@
       <c r="AD67" s="6"/>
       <c r="AE67" s="6"/>
       <c r="AF67" s="6"/>
-    </row>
-    <row r="68" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C68" s="6"/>
+      <c r="AG67" s="6"/>
+    </row>
+    <row r="68" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -4272,8 +4265,8 @@
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="8"/>
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
       <c r="U68" s="6"/>
@@ -4288,9 +4281,9 @@
       <c r="AD68" s="6"/>
       <c r="AE68" s="6"/>
       <c r="AF68" s="6"/>
-    </row>
-    <row r="69" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C69" s="6"/>
+      <c r="AG68" s="6"/>
+    </row>
+    <row r="69" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -4304,8 +4297,8 @@
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="8"/>
       <c r="S69" s="6"/>
       <c r="T69" s="6"/>
       <c r="U69" s="6"/>
@@ -4320,9 +4313,9 @@
       <c r="AD69" s="6"/>
       <c r="AE69" s="6"/>
       <c r="AF69" s="6"/>
-    </row>
-    <row r="70" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C70" s="6"/>
+      <c r="AG69" s="6"/>
+    </row>
+    <row r="70" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -4336,8 +4329,8 @@
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="8"/>
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
@@ -4352,9 +4345,9 @@
       <c r="AD70" s="6"/>
       <c r="AE70" s="6"/>
       <c r="AF70" s="6"/>
-    </row>
-    <row r="71" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C71" s="6"/>
+      <c r="AG70" s="6"/>
+    </row>
+    <row r="71" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -4368,8 +4361,8 @@
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="8"/>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
       <c r="U71" s="6"/>
@@ -4384,9 +4377,9 @@
       <c r="AD71" s="6"/>
       <c r="AE71" s="6"/>
       <c r="AF71" s="6"/>
-    </row>
-    <row r="72" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C72" s="6"/>
+      <c r="AG71" s="6"/>
+    </row>
+    <row r="72" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -4400,8 +4393,8 @@
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="8"/>
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
@@ -4416,9 +4409,9 @@
       <c r="AD72" s="6"/>
       <c r="AE72" s="6"/>
       <c r="AF72" s="6"/>
-    </row>
-    <row r="73" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C73" s="6"/>
+      <c r="AG72" s="6"/>
+    </row>
+    <row r="73" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -4432,8 +4425,8 @@
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="8"/>
       <c r="S73" s="6"/>
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
@@ -4448,9 +4441,9 @@
       <c r="AD73" s="6"/>
       <c r="AE73" s="6"/>
       <c r="AF73" s="6"/>
-    </row>
-    <row r="74" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C74" s="6"/>
+      <c r="AG73" s="6"/>
+    </row>
+    <row r="74" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -4464,8 +4457,8 @@
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="8"/>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
@@ -4480,9 +4473,9 @@
       <c r="AD74" s="6"/>
       <c r="AE74" s="6"/>
       <c r="AF74" s="6"/>
-    </row>
-    <row r="75" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C75" s="6"/>
+      <c r="AG74" s="6"/>
+    </row>
+    <row r="75" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -4496,8 +4489,8 @@
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="8"/>
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
@@ -4512,9 +4505,9 @@
       <c r="AD75" s="6"/>
       <c r="AE75" s="6"/>
       <c r="AF75" s="6"/>
-    </row>
-    <row r="76" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C76" s="6"/>
+      <c r="AG75" s="6"/>
+    </row>
+    <row r="76" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -4528,8 +4521,8 @@
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="8"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
@@ -4544,9 +4537,9 @@
       <c r="AD76" s="6"/>
       <c r="AE76" s="6"/>
       <c r="AF76" s="6"/>
-    </row>
-    <row r="77" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C77" s="6"/>
+      <c r="AG76" s="6"/>
+    </row>
+    <row r="77" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -4560,8 +4553,8 @@
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="8"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
@@ -4576,9 +4569,9 @@
       <c r="AD77" s="6"/>
       <c r="AE77" s="6"/>
       <c r="AF77" s="6"/>
-    </row>
-    <row r="78" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C78" s="6"/>
+      <c r="AG77" s="6"/>
+    </row>
+    <row r="78" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -4592,8 +4585,8 @@
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="8"/>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
       <c r="U78" s="6"/>
@@ -4608,9 +4601,9 @@
       <c r="AD78" s="6"/>
       <c r="AE78" s="6"/>
       <c r="AF78" s="6"/>
-    </row>
-    <row r="79" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C79" s="6"/>
+      <c r="AG78" s="6"/>
+    </row>
+    <row r="79" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -4624,8 +4617,8 @@
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="8"/>
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
       <c r="U79" s="6"/>
@@ -4640,9 +4633,9 @@
       <c r="AD79" s="6"/>
       <c r="AE79" s="6"/>
       <c r="AF79" s="6"/>
-    </row>
-    <row r="80" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C80" s="6"/>
+      <c r="AG79" s="6"/>
+    </row>
+    <row r="80" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -4656,8 +4649,8 @@
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="8"/>
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
@@ -4672,9 +4665,9 @@
       <c r="AD80" s="6"/>
       <c r="AE80" s="6"/>
       <c r="AF80" s="6"/>
-    </row>
-    <row r="81" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C81" s="6"/>
+      <c r="AG80" s="6"/>
+    </row>
+    <row r="81" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -4688,8 +4681,8 @@
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="8"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
@@ -4704,9 +4697,9 @@
       <c r="AD81" s="6"/>
       <c r="AE81" s="6"/>
       <c r="AF81" s="6"/>
-    </row>
-    <row r="82" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C82" s="6"/>
+      <c r="AG81" s="6"/>
+    </row>
+    <row r="82" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -4720,8 +4713,8 @@
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="8"/>
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
@@ -4736,9 +4729,9 @@
       <c r="AD82" s="6"/>
       <c r="AE82" s="6"/>
       <c r="AF82" s="6"/>
-    </row>
-    <row r="83" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C83" s="6"/>
+      <c r="AG82" s="6"/>
+    </row>
+    <row r="83" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -4752,8 +4745,8 @@
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="8"/>
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
       <c r="U83" s="6"/>
@@ -4768,9 +4761,9 @@
       <c r="AD83" s="6"/>
       <c r="AE83" s="6"/>
       <c r="AF83" s="6"/>
-    </row>
-    <row r="84" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C84" s="6"/>
+      <c r="AG83" s="6"/>
+    </row>
+    <row r="84" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -4784,8 +4777,8 @@
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="8"/>
       <c r="S84" s="6"/>
       <c r="T84" s="6"/>
       <c r="U84" s="6"/>
@@ -4800,9 +4793,9 @@
       <c r="AD84" s="6"/>
       <c r="AE84" s="6"/>
       <c r="AF84" s="6"/>
-    </row>
-    <row r="85" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C85" s="6"/>
+      <c r="AG84" s="6"/>
+    </row>
+    <row r="85" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -4816,8 +4809,8 @@
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="8"/>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
@@ -4832,9 +4825,9 @@
       <c r="AD85" s="6"/>
       <c r="AE85" s="6"/>
       <c r="AF85" s="6"/>
-    </row>
-    <row r="86" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C86" s="6"/>
+      <c r="AG85" s="6"/>
+    </row>
+    <row r="86" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -4848,8 +4841,8 @@
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="8"/>
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
@@ -4864,9 +4857,9 @@
       <c r="AD86" s="6"/>
       <c r="AE86" s="6"/>
       <c r="AF86" s="6"/>
-    </row>
-    <row r="87" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C87" s="6"/>
+      <c r="AG86" s="6"/>
+    </row>
+    <row r="87" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -4880,8 +4873,8 @@
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="8"/>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
@@ -4896,9 +4889,9 @@
       <c r="AD87" s="6"/>
       <c r="AE87" s="6"/>
       <c r="AF87" s="6"/>
-    </row>
-    <row r="88" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C88" s="6"/>
+      <c r="AG87" s="6"/>
+    </row>
+    <row r="88" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -4912,8 +4905,8 @@
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
-      <c r="Q88" s="8"/>
-      <c r="R88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="8"/>
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
       <c r="U88" s="6"/>
@@ -4928,9 +4921,9 @@
       <c r="AD88" s="6"/>
       <c r="AE88" s="6"/>
       <c r="AF88" s="6"/>
-    </row>
-    <row r="89" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C89" s="6"/>
+      <c r="AG88" s="6"/>
+    </row>
+    <row r="89" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -4944,8 +4937,8 @@
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
       <c r="P89" s="6"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="8"/>
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
       <c r="U89" s="6"/>
@@ -4960,9 +4953,9 @@
       <c r="AD89" s="6"/>
       <c r="AE89" s="6"/>
       <c r="AF89" s="6"/>
-    </row>
-    <row r="90" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C90" s="6"/>
+      <c r="AG89" s="6"/>
+    </row>
+    <row r="90" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -4976,8 +4969,8 @@
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="8"/>
       <c r="S90" s="6"/>
       <c r="T90" s="6"/>
       <c r="U90" s="6"/>
@@ -4992,9 +4985,9 @@
       <c r="AD90" s="6"/>
       <c r="AE90" s="6"/>
       <c r="AF90" s="6"/>
-    </row>
-    <row r="91" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C91" s="6"/>
+      <c r="AG90" s="6"/>
+    </row>
+    <row r="91" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -5008,8 +5001,8 @@
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="8"/>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
@@ -5024,9 +5017,9 @@
       <c r="AD91" s="6"/>
       <c r="AE91" s="6"/>
       <c r="AF91" s="6"/>
-    </row>
-    <row r="92" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C92" s="6"/>
+      <c r="AG91" s="6"/>
+    </row>
+    <row r="92" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -5040,8 +5033,8 @@
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="8"/>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
@@ -5056,9 +5049,9 @@
       <c r="AD92" s="6"/>
       <c r="AE92" s="6"/>
       <c r="AF92" s="6"/>
-    </row>
-    <row r="93" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C93" s="6"/>
+      <c r="AG92" s="6"/>
+    </row>
+    <row r="93" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -5072,8 +5065,8 @@
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
-      <c r="Q93" s="8"/>
-      <c r="R93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="8"/>
       <c r="S93" s="6"/>
       <c r="T93" s="6"/>
       <c r="U93" s="6"/>
@@ -5088,9 +5081,9 @@
       <c r="AD93" s="6"/>
       <c r="AE93" s="6"/>
       <c r="AF93" s="6"/>
-    </row>
-    <row r="94" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C94" s="6"/>
+      <c r="AG93" s="6"/>
+    </row>
+    <row r="94" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -5104,8 +5097,8 @@
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
-      <c r="Q94" s="8"/>
-      <c r="R94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="8"/>
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
       <c r="U94" s="6"/>
@@ -5120,9 +5113,9 @@
       <c r="AD94" s="6"/>
       <c r="AE94" s="6"/>
       <c r="AF94" s="6"/>
-    </row>
-    <row r="95" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C95" s="6"/>
+      <c r="AG94" s="6"/>
+    </row>
+    <row r="95" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -5136,8 +5129,8 @@
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="8"/>
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
@@ -5152,9 +5145,9 @@
       <c r="AD95" s="6"/>
       <c r="AE95" s="6"/>
       <c r="AF95" s="6"/>
-    </row>
-    <row r="96" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C96" s="6"/>
+      <c r="AG95" s="6"/>
+    </row>
+    <row r="96" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -5168,8 +5161,8 @@
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
-      <c r="Q96" s="8"/>
-      <c r="R96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="8"/>
       <c r="S96" s="6"/>
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
@@ -5184,9 +5177,9 @@
       <c r="AD96" s="6"/>
       <c r="AE96" s="6"/>
       <c r="AF96" s="6"/>
-    </row>
-    <row r="97" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C97" s="6"/>
+      <c r="AG96" s="6"/>
+    </row>
+    <row r="97" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -5200,8 +5193,8 @@
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
-      <c r="Q97" s="8"/>
-      <c r="R97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="8"/>
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
@@ -5216,9 +5209,9 @@
       <c r="AD97" s="6"/>
       <c r="AE97" s="6"/>
       <c r="AF97" s="6"/>
-    </row>
-    <row r="98" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C98" s="6"/>
+      <c r="AG97" s="6"/>
+    </row>
+    <row r="98" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -5232,8 +5225,8 @@
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
-      <c r="Q98" s="8"/>
-      <c r="R98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="8"/>
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
       <c r="U98" s="6"/>
@@ -5248,9 +5241,9 @@
       <c r="AD98" s="6"/>
       <c r="AE98" s="6"/>
       <c r="AF98" s="6"/>
-    </row>
-    <row r="99" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C99" s="6"/>
+      <c r="AG98" s="6"/>
+    </row>
+    <row r="99" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -5264,8 +5257,8 @@
       <c r="N99" s="6"/>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
-      <c r="Q99" s="8"/>
-      <c r="R99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="8"/>
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
       <c r="U99" s="6"/>
@@ -5280,9 +5273,9 @@
       <c r="AD99" s="6"/>
       <c r="AE99" s="6"/>
       <c r="AF99" s="6"/>
-    </row>
-    <row r="100" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C100" s="6"/>
+      <c r="AG99" s="6"/>
+    </row>
+    <row r="100" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -5296,8 +5289,8 @@
       <c r="N100" s="6"/>
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
-      <c r="Q100" s="8"/>
-      <c r="R100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="8"/>
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
@@ -5312,9 +5305,9 @@
       <c r="AD100" s="6"/>
       <c r="AE100" s="6"/>
       <c r="AF100" s="6"/>
-    </row>
-    <row r="101" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C101" s="6"/>
+      <c r="AG100" s="6"/>
+    </row>
+    <row r="101" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -5328,8 +5321,8 @@
       <c r="N101" s="6"/>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
-      <c r="Q101" s="8"/>
-      <c r="R101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="8"/>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
@@ -5344,9 +5337,9 @@
       <c r="AD101" s="6"/>
       <c r="AE101" s="6"/>
       <c r="AF101" s="6"/>
-    </row>
-    <row r="102" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C102" s="6"/>
+      <c r="AG101" s="6"/>
+    </row>
+    <row r="102" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
@@ -5360,8 +5353,8 @@
       <c r="N102" s="6"/>
       <c r="O102" s="6"/>
       <c r="P102" s="6"/>
-      <c r="Q102" s="8"/>
-      <c r="R102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="8"/>
       <c r="S102" s="6"/>
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
@@ -5376,9 +5369,9 @@
       <c r="AD102" s="6"/>
       <c r="AE102" s="6"/>
       <c r="AF102" s="6"/>
-    </row>
-    <row r="103" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C103" s="6"/>
+      <c r="AG102" s="6"/>
+    </row>
+    <row r="103" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -5392,8 +5385,8 @@
       <c r="N103" s="6"/>
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="8"/>
       <c r="S103" s="6"/>
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
@@ -5408,9 +5401,9 @@
       <c r="AD103" s="6"/>
       <c r="AE103" s="6"/>
       <c r="AF103" s="6"/>
-    </row>
-    <row r="104" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C104" s="6"/>
+      <c r="AG103" s="6"/>
+    </row>
+    <row r="104" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
@@ -5424,8 +5417,8 @@
       <c r="N104" s="6"/>
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
-      <c r="Q104" s="8"/>
-      <c r="R104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="8"/>
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
@@ -5440,9 +5433,9 @@
       <c r="AD104" s="6"/>
       <c r="AE104" s="6"/>
       <c r="AF104" s="6"/>
-    </row>
-    <row r="105" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C105" s="6"/>
+      <c r="AG104" s="6"/>
+    </row>
+    <row r="105" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -5456,8 +5449,8 @@
       <c r="N105" s="6"/>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
-      <c r="Q105" s="8"/>
-      <c r="R105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="8"/>
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
       <c r="U105" s="6"/>
@@ -5472,9 +5465,9 @@
       <c r="AD105" s="6"/>
       <c r="AE105" s="6"/>
       <c r="AF105" s="6"/>
-    </row>
-    <row r="106" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C106" s="6"/>
+      <c r="AG105" s="6"/>
+    </row>
+    <row r="106" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -5488,8 +5481,8 @@
       <c r="N106" s="6"/>
       <c r="O106" s="6"/>
       <c r="P106" s="6"/>
-      <c r="Q106" s="8"/>
-      <c r="R106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="8"/>
       <c r="S106" s="6"/>
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
@@ -5504,9 +5497,9 @@
       <c r="AD106" s="6"/>
       <c r="AE106" s="6"/>
       <c r="AF106" s="6"/>
-    </row>
-    <row r="107" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C107" s="6"/>
+      <c r="AG106" s="6"/>
+    </row>
+    <row r="107" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -5520,8 +5513,8 @@
       <c r="N107" s="6"/>
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
-      <c r="Q107" s="8"/>
-      <c r="R107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="8"/>
       <c r="S107" s="6"/>
       <c r="T107" s="6"/>
       <c r="U107" s="6"/>
@@ -5536,9 +5529,9 @@
       <c r="AD107" s="6"/>
       <c r="AE107" s="6"/>
       <c r="AF107" s="6"/>
-    </row>
-    <row r="108" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C108" s="6"/>
+      <c r="AG107" s="6"/>
+    </row>
+    <row r="108" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -5552,8 +5545,8 @@
       <c r="N108" s="6"/>
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
-      <c r="Q108" s="8"/>
-      <c r="R108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="8"/>
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
@@ -5568,9 +5561,9 @@
       <c r="AD108" s="6"/>
       <c r="AE108" s="6"/>
       <c r="AF108" s="6"/>
-    </row>
-    <row r="109" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C109" s="6"/>
+      <c r="AG108" s="6"/>
+    </row>
+    <row r="109" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
@@ -5584,8 +5577,8 @@
       <c r="N109" s="6"/>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
-      <c r="Q109" s="8"/>
-      <c r="R109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="8"/>
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
@@ -5600,9 +5593,9 @@
       <c r="AD109" s="6"/>
       <c r="AE109" s="6"/>
       <c r="AF109" s="6"/>
-    </row>
-    <row r="110" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C110" s="6"/>
+      <c r="AG109" s="6"/>
+    </row>
+    <row r="110" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
@@ -5616,8 +5609,8 @@
       <c r="N110" s="6"/>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
-      <c r="Q110" s="8"/>
-      <c r="R110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="8"/>
       <c r="S110" s="6"/>
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
@@ -5632,9 +5625,9 @@
       <c r="AD110" s="6"/>
       <c r="AE110" s="6"/>
       <c r="AF110" s="6"/>
-    </row>
-    <row r="111" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C111" s="6"/>
+      <c r="AG110" s="6"/>
+    </row>
+    <row r="111" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
@@ -5648,8 +5641,8 @@
       <c r="N111" s="6"/>
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
-      <c r="Q111" s="8"/>
-      <c r="R111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="8"/>
       <c r="S111" s="6"/>
       <c r="T111" s="6"/>
       <c r="U111" s="6"/>
@@ -5664,9 +5657,9 @@
       <c r="AD111" s="6"/>
       <c r="AE111" s="6"/>
       <c r="AF111" s="6"/>
-    </row>
-    <row r="112" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C112" s="6"/>
+      <c r="AG111" s="6"/>
+    </row>
+    <row r="112" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
@@ -5680,8 +5673,8 @@
       <c r="N112" s="6"/>
       <c r="O112" s="6"/>
       <c r="P112" s="6"/>
-      <c r="Q112" s="8"/>
-      <c r="R112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="8"/>
       <c r="S112" s="6"/>
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
@@ -5696,9 +5689,9 @@
       <c r="AD112" s="6"/>
       <c r="AE112" s="6"/>
       <c r="AF112" s="6"/>
-    </row>
-    <row r="113" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C113" s="6"/>
+      <c r="AG112" s="6"/>
+    </row>
+    <row r="113" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
@@ -5712,8 +5705,8 @@
       <c r="N113" s="6"/>
       <c r="O113" s="6"/>
       <c r="P113" s="6"/>
-      <c r="Q113" s="8"/>
-      <c r="R113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="8"/>
       <c r="S113" s="6"/>
       <c r="T113" s="6"/>
       <c r="U113" s="6"/>
@@ -5728,9 +5721,9 @@
       <c r="AD113" s="6"/>
       <c r="AE113" s="6"/>
       <c r="AF113" s="6"/>
-    </row>
-    <row r="114" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C114" s="6"/>
+      <c r="AG113" s="6"/>
+    </row>
+    <row r="114" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
@@ -5744,8 +5737,8 @@
       <c r="N114" s="6"/>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
-      <c r="Q114" s="8"/>
-      <c r="R114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="8"/>
       <c r="S114" s="6"/>
       <c r="T114" s="6"/>
       <c r="U114" s="6"/>
@@ -5760,9 +5753,9 @@
       <c r="AD114" s="6"/>
       <c r="AE114" s="6"/>
       <c r="AF114" s="6"/>
-    </row>
-    <row r="115" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C115" s="6"/>
+      <c r="AG114" s="6"/>
+    </row>
+    <row r="115" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
@@ -5776,8 +5769,8 @@
       <c r="N115" s="6"/>
       <c r="O115" s="6"/>
       <c r="P115" s="6"/>
-      <c r="Q115" s="8"/>
-      <c r="R115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="8"/>
       <c r="S115" s="6"/>
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
@@ -5792,9 +5785,9 @@
       <c r="AD115" s="6"/>
       <c r="AE115" s="6"/>
       <c r="AF115" s="6"/>
-    </row>
-    <row r="116" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C116" s="6"/>
+      <c r="AG115" s="6"/>
+    </row>
+    <row r="116" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
@@ -5808,8 +5801,8 @@
       <c r="N116" s="6"/>
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
-      <c r="Q116" s="8"/>
-      <c r="R116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="8"/>
       <c r="S116" s="6"/>
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
@@ -5824,9 +5817,9 @@
       <c r="AD116" s="6"/>
       <c r="AE116" s="6"/>
       <c r="AF116" s="6"/>
-    </row>
-    <row r="117" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C117" s="6"/>
+      <c r="AG116" s="6"/>
+    </row>
+    <row r="117" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
@@ -5840,8 +5833,8 @@
       <c r="N117" s="6"/>
       <c r="O117" s="6"/>
       <c r="P117" s="6"/>
-      <c r="Q117" s="8"/>
-      <c r="R117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="8"/>
       <c r="S117" s="6"/>
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
@@ -5856,9 +5849,9 @@
       <c r="AD117" s="6"/>
       <c r="AE117" s="6"/>
       <c r="AF117" s="6"/>
-    </row>
-    <row r="118" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C118" s="6"/>
+      <c r="AG117" s="6"/>
+    </row>
+    <row r="118" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -5872,8 +5865,8 @@
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
-      <c r="Q118" s="8"/>
-      <c r="R118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="8"/>
       <c r="S118" s="6"/>
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
@@ -5888,9 +5881,9 @@
       <c r="AD118" s="6"/>
       <c r="AE118" s="6"/>
       <c r="AF118" s="6"/>
-    </row>
-    <row r="119" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C119" s="6"/>
+      <c r="AG118" s="6"/>
+    </row>
+    <row r="119" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -5904,8 +5897,8 @@
       <c r="N119" s="6"/>
       <c r="O119" s="6"/>
       <c r="P119" s="6"/>
-      <c r="Q119" s="8"/>
-      <c r="R119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="8"/>
       <c r="S119" s="6"/>
       <c r="T119" s="6"/>
       <c r="U119" s="6"/>
@@ -5920,9 +5913,9 @@
       <c r="AD119" s="6"/>
       <c r="AE119" s="6"/>
       <c r="AF119" s="6"/>
-    </row>
-    <row r="120" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C120" s="6"/>
+      <c r="AG119" s="6"/>
+    </row>
+    <row r="120" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -5936,8 +5929,8 @@
       <c r="N120" s="6"/>
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
-      <c r="Q120" s="8"/>
-      <c r="R120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="8"/>
       <c r="S120" s="6"/>
       <c r="T120" s="6"/>
       <c r="U120" s="6"/>
@@ -5952,9 +5945,9 @@
       <c r="AD120" s="6"/>
       <c r="AE120" s="6"/>
       <c r="AF120" s="6"/>
-    </row>
-    <row r="121" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C121" s="6"/>
+      <c r="AG120" s="6"/>
+    </row>
+    <row r="121" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
@@ -5968,8 +5961,8 @@
       <c r="N121" s="6"/>
       <c r="O121" s="6"/>
       <c r="P121" s="6"/>
-      <c r="Q121" s="8"/>
-      <c r="R121" s="6"/>
+      <c r="Q121" s="6"/>
+      <c r="R121" s="8"/>
       <c r="S121" s="6"/>
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
@@ -5984,9 +5977,9 @@
       <c r="AD121" s="6"/>
       <c r="AE121" s="6"/>
       <c r="AF121" s="6"/>
-    </row>
-    <row r="122" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C122" s="6"/>
+      <c r="AG121" s="6"/>
+    </row>
+    <row r="122" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
@@ -6000,8 +5993,8 @@
       <c r="N122" s="6"/>
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
-      <c r="Q122" s="8"/>
-      <c r="R122" s="6"/>
+      <c r="Q122" s="6"/>
+      <c r="R122" s="8"/>
       <c r="S122" s="6"/>
       <c r="T122" s="6"/>
       <c r="U122" s="6"/>
@@ -6016,9 +6009,9 @@
       <c r="AD122" s="6"/>
       <c r="AE122" s="6"/>
       <c r="AF122" s="6"/>
-    </row>
-    <row r="123" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C123" s="6"/>
+      <c r="AG122" s="6"/>
+    </row>
+    <row r="123" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
@@ -6032,8 +6025,8 @@
       <c r="N123" s="6"/>
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
-      <c r="Q123" s="8"/>
-      <c r="R123" s="6"/>
+      <c r="Q123" s="6"/>
+      <c r="R123" s="8"/>
       <c r="S123" s="6"/>
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
@@ -6048,9 +6041,9 @@
       <c r="AD123" s="6"/>
       <c r="AE123" s="6"/>
       <c r="AF123" s="6"/>
-    </row>
-    <row r="124" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C124" s="6"/>
+      <c r="AG123" s="6"/>
+    </row>
+    <row r="124" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
@@ -6064,8 +6057,8 @@
       <c r="N124" s="6"/>
       <c r="O124" s="6"/>
       <c r="P124" s="6"/>
-      <c r="Q124" s="8"/>
-      <c r="R124" s="6"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="8"/>
       <c r="S124" s="6"/>
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
@@ -6080,9 +6073,9 @@
       <c r="AD124" s="6"/>
       <c r="AE124" s="6"/>
       <c r="AF124" s="6"/>
-    </row>
-    <row r="125" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C125" s="6"/>
+      <c r="AG124" s="6"/>
+    </row>
+    <row r="125" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
@@ -6096,8 +6089,8 @@
       <c r="N125" s="6"/>
       <c r="O125" s="6"/>
       <c r="P125" s="6"/>
-      <c r="Q125" s="8"/>
-      <c r="R125" s="6"/>
+      <c r="Q125" s="6"/>
+      <c r="R125" s="8"/>
       <c r="S125" s="6"/>
       <c r="T125" s="6"/>
       <c r="U125" s="6"/>
@@ -6112,9 +6105,9 @@
       <c r="AD125" s="6"/>
       <c r="AE125" s="6"/>
       <c r="AF125" s="6"/>
-    </row>
-    <row r="126" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C126" s="6"/>
+      <c r="AG125" s="6"/>
+    </row>
+    <row r="126" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
@@ -6128,8 +6121,8 @@
       <c r="N126" s="6"/>
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
-      <c r="Q126" s="8"/>
-      <c r="R126" s="6"/>
+      <c r="Q126" s="6"/>
+      <c r="R126" s="8"/>
       <c r="S126" s="6"/>
       <c r="T126" s="6"/>
       <c r="U126" s="6"/>
@@ -6144,9 +6137,9 @@
       <c r="AD126" s="6"/>
       <c r="AE126" s="6"/>
       <c r="AF126" s="6"/>
-    </row>
-    <row r="127" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C127" s="6"/>
+      <c r="AG126" s="6"/>
+    </row>
+    <row r="127" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
@@ -6160,8 +6153,8 @@
       <c r="N127" s="6"/>
       <c r="O127" s="6"/>
       <c r="P127" s="6"/>
-      <c r="Q127" s="8"/>
-      <c r="R127" s="6"/>
+      <c r="Q127" s="6"/>
+      <c r="R127" s="8"/>
       <c r="S127" s="6"/>
       <c r="T127" s="6"/>
       <c r="U127" s="6"/>
@@ -6176,9 +6169,9 @@
       <c r="AD127" s="6"/>
       <c r="AE127" s="6"/>
       <c r="AF127" s="6"/>
-    </row>
-    <row r="128" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C128" s="6"/>
+      <c r="AG127" s="6"/>
+    </row>
+    <row r="128" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
@@ -6192,8 +6185,8 @@
       <c r="N128" s="6"/>
       <c r="O128" s="6"/>
       <c r="P128" s="6"/>
-      <c r="Q128" s="8"/>
-      <c r="R128" s="6"/>
+      <c r="Q128" s="6"/>
+      <c r="R128" s="8"/>
       <c r="S128" s="6"/>
       <c r="T128" s="6"/>
       <c r="U128" s="6"/>
@@ -6208,9 +6201,9 @@
       <c r="AD128" s="6"/>
       <c r="AE128" s="6"/>
       <c r="AF128" s="6"/>
-    </row>
-    <row r="129" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C129" s="6"/>
+      <c r="AG128" s="6"/>
+    </row>
+    <row r="129" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
@@ -6224,8 +6217,8 @@
       <c r="N129" s="6"/>
       <c r="O129" s="6"/>
       <c r="P129" s="6"/>
-      <c r="Q129" s="8"/>
-      <c r="R129" s="6"/>
+      <c r="Q129" s="6"/>
+      <c r="R129" s="8"/>
       <c r="S129" s="6"/>
       <c r="T129" s="6"/>
       <c r="U129" s="6"/>
@@ -6240,9 +6233,9 @@
       <c r="AD129" s="6"/>
       <c r="AE129" s="6"/>
       <c r="AF129" s="6"/>
-    </row>
-    <row r="130" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C130" s="6"/>
+      <c r="AG129" s="6"/>
+    </row>
+    <row r="130" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -6256,8 +6249,8 @@
       <c r="N130" s="6"/>
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
-      <c r="Q130" s="8"/>
-      <c r="R130" s="6"/>
+      <c r="Q130" s="6"/>
+      <c r="R130" s="8"/>
       <c r="S130" s="6"/>
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
@@ -6272,9 +6265,9 @@
       <c r="AD130" s="6"/>
       <c r="AE130" s="6"/>
       <c r="AF130" s="6"/>
-    </row>
-    <row r="131" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C131" s="6"/>
+      <c r="AG130" s="6"/>
+    </row>
+    <row r="131" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
@@ -6288,8 +6281,8 @@
       <c r="N131" s="6"/>
       <c r="O131" s="6"/>
       <c r="P131" s="6"/>
-      <c r="Q131" s="8"/>
-      <c r="R131" s="6"/>
+      <c r="Q131" s="6"/>
+      <c r="R131" s="8"/>
       <c r="S131" s="6"/>
       <c r="T131" s="6"/>
       <c r="U131" s="6"/>
@@ -6304,9 +6297,9 @@
       <c r="AD131" s="6"/>
       <c r="AE131" s="6"/>
       <c r="AF131" s="6"/>
-    </row>
-    <row r="132" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C132" s="6"/>
+      <c r="AG131" s="6"/>
+    </row>
+    <row r="132" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
@@ -6320,8 +6313,8 @@
       <c r="N132" s="6"/>
       <c r="O132" s="6"/>
       <c r="P132" s="6"/>
-      <c r="Q132" s="8"/>
-      <c r="R132" s="6"/>
+      <c r="Q132" s="6"/>
+      <c r="R132" s="8"/>
       <c r="S132" s="6"/>
       <c r="T132" s="6"/>
       <c r="U132" s="6"/>
@@ -6336,9 +6329,9 @@
       <c r="AD132" s="6"/>
       <c r="AE132" s="6"/>
       <c r="AF132" s="6"/>
-    </row>
-    <row r="133" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C133" s="6"/>
+      <c r="AG132" s="6"/>
+    </row>
+    <row r="133" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
@@ -6352,8 +6345,8 @@
       <c r="N133" s="6"/>
       <c r="O133" s="6"/>
       <c r="P133" s="6"/>
-      <c r="Q133" s="8"/>
-      <c r="R133" s="6"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="8"/>
       <c r="S133" s="6"/>
       <c r="T133" s="6"/>
       <c r="U133" s="6"/>
@@ -6368,9 +6361,9 @@
       <c r="AD133" s="6"/>
       <c r="AE133" s="6"/>
       <c r="AF133" s="6"/>
-    </row>
-    <row r="134" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C134" s="6"/>
+      <c r="AG133" s="6"/>
+    </row>
+    <row r="134" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
@@ -6384,8 +6377,8 @@
       <c r="N134" s="6"/>
       <c r="O134" s="6"/>
       <c r="P134" s="6"/>
-      <c r="Q134" s="8"/>
-      <c r="R134" s="6"/>
+      <c r="Q134" s="6"/>
+      <c r="R134" s="8"/>
       <c r="S134" s="6"/>
       <c r="T134" s="6"/>
       <c r="U134" s="6"/>
@@ -6400,9 +6393,9 @@
       <c r="AD134" s="6"/>
       <c r="AE134" s="6"/>
       <c r="AF134" s="6"/>
-    </row>
-    <row r="135" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C135" s="6"/>
+      <c r="AG134" s="6"/>
+    </row>
+    <row r="135" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -6416,8 +6409,8 @@
       <c r="N135" s="6"/>
       <c r="O135" s="6"/>
       <c r="P135" s="6"/>
-      <c r="Q135" s="8"/>
-      <c r="R135" s="6"/>
+      <c r="Q135" s="6"/>
+      <c r="R135" s="8"/>
       <c r="S135" s="6"/>
       <c r="T135" s="6"/>
       <c r="U135" s="6"/>
@@ -6432,9 +6425,9 @@
       <c r="AD135" s="6"/>
       <c r="AE135" s="6"/>
       <c r="AF135" s="6"/>
-    </row>
-    <row r="136" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C136" s="6"/>
+      <c r="AG135" s="6"/>
+    </row>
+    <row r="136" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -6448,8 +6441,8 @@
       <c r="N136" s="6"/>
       <c r="O136" s="6"/>
       <c r="P136" s="6"/>
-      <c r="Q136" s="8"/>
-      <c r="R136" s="6"/>
+      <c r="Q136" s="6"/>
+      <c r="R136" s="8"/>
       <c r="S136" s="6"/>
       <c r="T136" s="6"/>
       <c r="U136" s="6"/>
@@ -6464,9 +6457,9 @@
       <c r="AD136" s="6"/>
       <c r="AE136" s="6"/>
       <c r="AF136" s="6"/>
-    </row>
-    <row r="137" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C137" s="6"/>
+      <c r="AG136" s="6"/>
+    </row>
+    <row r="137" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
@@ -6480,8 +6473,8 @@
       <c r="N137" s="6"/>
       <c r="O137" s="6"/>
       <c r="P137" s="6"/>
-      <c r="Q137" s="8"/>
-      <c r="R137" s="6"/>
+      <c r="Q137" s="6"/>
+      <c r="R137" s="8"/>
       <c r="S137" s="6"/>
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
@@ -6496,9 +6489,9 @@
       <c r="AD137" s="6"/>
       <c r="AE137" s="6"/>
       <c r="AF137" s="6"/>
-    </row>
-    <row r="138" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C138" s="6"/>
+      <c r="AG137" s="6"/>
+    </row>
+    <row r="138" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -6512,8 +6505,8 @@
       <c r="N138" s="6"/>
       <c r="O138" s="6"/>
       <c r="P138" s="6"/>
-      <c r="Q138" s="8"/>
-      <c r="R138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="8"/>
       <c r="S138" s="6"/>
       <c r="T138" s="6"/>
       <c r="U138" s="6"/>
@@ -6528,9 +6521,9 @@
       <c r="AD138" s="6"/>
       <c r="AE138" s="6"/>
       <c r="AF138" s="6"/>
-    </row>
-    <row r="139" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C139" s="6"/>
+      <c r="AG138" s="6"/>
+    </row>
+    <row r="139" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
@@ -6544,8 +6537,8 @@
       <c r="N139" s="6"/>
       <c r="O139" s="6"/>
       <c r="P139" s="6"/>
-      <c r="Q139" s="8"/>
-      <c r="R139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="8"/>
       <c r="S139" s="6"/>
       <c r="T139" s="6"/>
       <c r="U139" s="6"/>
@@ -6560,9 +6553,9 @@
       <c r="AD139" s="6"/>
       <c r="AE139" s="6"/>
       <c r="AF139" s="6"/>
-    </row>
-    <row r="140" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C140" s="6"/>
+      <c r="AG139" s="6"/>
+    </row>
+    <row r="140" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
@@ -6576,8 +6569,8 @@
       <c r="N140" s="6"/>
       <c r="O140" s="6"/>
       <c r="P140" s="6"/>
-      <c r="Q140" s="8"/>
-      <c r="R140" s="6"/>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="8"/>
       <c r="S140" s="6"/>
       <c r="T140" s="6"/>
       <c r="U140" s="6"/>
@@ -6592,9 +6585,9 @@
       <c r="AD140" s="6"/>
       <c r="AE140" s="6"/>
       <c r="AF140" s="6"/>
-    </row>
-    <row r="141" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C141" s="6"/>
+      <c r="AG140" s="6"/>
+    </row>
+    <row r="141" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
@@ -6608,8 +6601,8 @@
       <c r="N141" s="6"/>
       <c r="O141" s="6"/>
       <c r="P141" s="6"/>
-      <c r="Q141" s="8"/>
-      <c r="R141" s="6"/>
+      <c r="Q141" s="6"/>
+      <c r="R141" s="8"/>
       <c r="S141" s="6"/>
       <c r="T141" s="6"/>
       <c r="U141" s="6"/>
@@ -6624,9 +6617,9 @@
       <c r="AD141" s="6"/>
       <c r="AE141" s="6"/>
       <c r="AF141" s="6"/>
-    </row>
-    <row r="142" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C142" s="6"/>
+      <c r="AG141" s="6"/>
+    </row>
+    <row r="142" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
@@ -6640,8 +6633,8 @@
       <c r="N142" s="6"/>
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
-      <c r="Q142" s="8"/>
-      <c r="R142" s="6"/>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="8"/>
       <c r="S142" s="6"/>
       <c r="T142" s="6"/>
       <c r="U142" s="6"/>
@@ -6656,9 +6649,9 @@
       <c r="AD142" s="6"/>
       <c r="AE142" s="6"/>
       <c r="AF142" s="6"/>
-    </row>
-    <row r="143" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C143" s="6"/>
+      <c r="AG142" s="6"/>
+    </row>
+    <row r="143" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
@@ -6672,8 +6665,8 @@
       <c r="N143" s="6"/>
       <c r="O143" s="6"/>
       <c r="P143" s="6"/>
-      <c r="Q143" s="8"/>
-      <c r="R143" s="6"/>
+      <c r="Q143" s="6"/>
+      <c r="R143" s="8"/>
       <c r="S143" s="6"/>
       <c r="T143" s="6"/>
       <c r="U143" s="6"/>
@@ -6688,9 +6681,9 @@
       <c r="AD143" s="6"/>
       <c r="AE143" s="6"/>
       <c r="AF143" s="6"/>
-    </row>
-    <row r="144" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C144" s="6"/>
+      <c r="AG143" s="6"/>
+    </row>
+    <row r="144" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
@@ -6720,9 +6713,9 @@
       <c r="AD144" s="6"/>
       <c r="AE144" s="6"/>
       <c r="AF144" s="6"/>
-    </row>
-    <row r="145" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C145" s="6"/>
+      <c r="AG144" s="6"/>
+    </row>
+    <row r="145" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
@@ -6752,9 +6745,9 @@
       <c r="AD145" s="6"/>
       <c r="AE145" s="6"/>
       <c r="AF145" s="6"/>
-    </row>
-    <row r="146" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C146" s="6"/>
+      <c r="AG145" s="6"/>
+    </row>
+    <row r="146" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
@@ -6784,9 +6777,9 @@
       <c r="AD146" s="6"/>
       <c r="AE146" s="6"/>
       <c r="AF146" s="6"/>
-    </row>
-    <row r="147" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C147" s="6"/>
+      <c r="AG146" s="6"/>
+    </row>
+    <row r="147" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
@@ -6816,9 +6809,9 @@
       <c r="AD147" s="6"/>
       <c r="AE147" s="6"/>
       <c r="AF147" s="6"/>
-    </row>
-    <row r="148" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C148" s="6"/>
+      <c r="AG147" s="6"/>
+    </row>
+    <row r="148" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
@@ -6848,9 +6841,9 @@
       <c r="AD148" s="6"/>
       <c r="AE148" s="6"/>
       <c r="AF148" s="6"/>
-    </row>
-    <row r="149" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C149" s="6"/>
+      <c r="AG148" s="6"/>
+    </row>
+    <row r="149" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
@@ -6880,9 +6873,9 @@
       <c r="AD149" s="6"/>
       <c r="AE149" s="6"/>
       <c r="AF149" s="6"/>
-    </row>
-    <row r="150" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C150" s="6"/>
+      <c r="AG149" s="6"/>
+    </row>
+    <row r="150" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
@@ -6912,9 +6905,9 @@
       <c r="AD150" s="6"/>
       <c r="AE150" s="6"/>
       <c r="AF150" s="6"/>
-    </row>
-    <row r="151" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C151" s="6"/>
+      <c r="AG150" s="6"/>
+    </row>
+    <row r="151" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
@@ -6944,9 +6937,9 @@
       <c r="AD151" s="6"/>
       <c r="AE151" s="6"/>
       <c r="AF151" s="6"/>
-    </row>
-    <row r="152" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C152" s="6"/>
+      <c r="AG151" s="6"/>
+    </row>
+    <row r="152" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
@@ -6976,9 +6969,9 @@
       <c r="AD152" s="6"/>
       <c r="AE152" s="6"/>
       <c r="AF152" s="6"/>
-    </row>
-    <row r="153" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C153" s="6"/>
+      <c r="AG152" s="6"/>
+    </row>
+    <row r="153" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
@@ -7008,9 +7001,9 @@
       <c r="AD153" s="6"/>
       <c r="AE153" s="6"/>
       <c r="AF153" s="6"/>
-    </row>
-    <row r="154" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C154" s="6"/>
+      <c r="AG153" s="6"/>
+    </row>
+    <row r="154" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -7040,9 +7033,9 @@
       <c r="AD154" s="6"/>
       <c r="AE154" s="6"/>
       <c r="AF154" s="6"/>
-    </row>
-    <row r="155" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C155" s="6"/>
+      <c r="AG154" s="6"/>
+    </row>
+    <row r="155" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -7072,9 +7065,9 @@
       <c r="AD155" s="6"/>
       <c r="AE155" s="6"/>
       <c r="AF155" s="6"/>
-    </row>
-    <row r="156" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C156" s="6"/>
+      <c r="AG155" s="6"/>
+    </row>
+    <row r="156" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
@@ -7104,9 +7097,9 @@
       <c r="AD156" s="6"/>
       <c r="AE156" s="6"/>
       <c r="AF156" s="6"/>
-    </row>
-    <row r="157" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C157" s="6"/>
+      <c r="AG156" s="6"/>
+    </row>
+    <row r="157" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
@@ -7136,9 +7129,9 @@
       <c r="AD157" s="6"/>
       <c r="AE157" s="6"/>
       <c r="AF157" s="6"/>
-    </row>
-    <row r="158" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C158" s="6"/>
+      <c r="AG157" s="6"/>
+    </row>
+    <row r="158" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
@@ -7168,9 +7161,9 @@
       <c r="AD158" s="6"/>
       <c r="AE158" s="6"/>
       <c r="AF158" s="6"/>
-    </row>
-    <row r="159" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C159" s="6"/>
+      <c r="AG158" s="6"/>
+    </row>
+    <row r="159" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
@@ -7200,9 +7193,9 @@
       <c r="AD159" s="6"/>
       <c r="AE159" s="6"/>
       <c r="AF159" s="6"/>
-    </row>
-    <row r="160" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C160" s="6"/>
+      <c r="AG159" s="6"/>
+    </row>
+    <row r="160" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
@@ -7232,9 +7225,9 @@
       <c r="AD160" s="6"/>
       <c r="AE160" s="6"/>
       <c r="AF160" s="6"/>
-    </row>
-    <row r="161" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C161" s="6"/>
+      <c r="AG160" s="6"/>
+    </row>
+    <row r="161" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
@@ -7264,9 +7257,9 @@
       <c r="AD161" s="6"/>
       <c r="AE161" s="6"/>
       <c r="AF161" s="6"/>
-    </row>
-    <row r="162" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C162" s="6"/>
+      <c r="AG161" s="6"/>
+    </row>
+    <row r="162" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
@@ -7296,9 +7289,9 @@
       <c r="AD162" s="6"/>
       <c r="AE162" s="6"/>
       <c r="AF162" s="6"/>
-    </row>
-    <row r="163" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C163" s="6"/>
+      <c r="AG162" s="6"/>
+    </row>
+    <row r="163" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
@@ -7328,9 +7321,9 @@
       <c r="AD163" s="6"/>
       <c r="AE163" s="6"/>
       <c r="AF163" s="6"/>
-    </row>
-    <row r="164" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C164" s="6"/>
+      <c r="AG163" s="6"/>
+    </row>
+    <row r="164" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
@@ -7360,9 +7353,9 @@
       <c r="AD164" s="6"/>
       <c r="AE164" s="6"/>
       <c r="AF164" s="6"/>
-    </row>
-    <row r="165" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C165" s="6"/>
+      <c r="AG164" s="6"/>
+    </row>
+    <row r="165" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
@@ -7392,9 +7385,9 @@
       <c r="AD165" s="6"/>
       <c r="AE165" s="6"/>
       <c r="AF165" s="6"/>
-    </row>
-    <row r="166" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C166" s="6"/>
+      <c r="AG165" s="6"/>
+    </row>
+    <row r="166" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
@@ -7424,9 +7417,9 @@
       <c r="AD166" s="6"/>
       <c r="AE166" s="6"/>
       <c r="AF166" s="6"/>
-    </row>
-    <row r="167" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C167" s="6"/>
+      <c r="AG166" s="6"/>
+    </row>
+    <row r="167" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
@@ -7456,9 +7449,9 @@
       <c r="AD167" s="6"/>
       <c r="AE167" s="6"/>
       <c r="AF167" s="6"/>
-    </row>
-    <row r="168" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C168" s="6"/>
+      <c r="AG167" s="6"/>
+    </row>
+    <row r="168" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
@@ -7488,9 +7481,9 @@
       <c r="AD168" s="6"/>
       <c r="AE168" s="6"/>
       <c r="AF168" s="6"/>
-    </row>
-    <row r="169" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C169" s="6"/>
+      <c r="AG168" s="6"/>
+    </row>
+    <row r="169" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
@@ -7520,9 +7513,9 @@
       <c r="AD169" s="6"/>
       <c r="AE169" s="6"/>
       <c r="AF169" s="6"/>
-    </row>
-    <row r="170" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C170" s="6"/>
+      <c r="AG169" s="6"/>
+    </row>
+    <row r="170" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -7552,9 +7545,9 @@
       <c r="AD170" s="6"/>
       <c r="AE170" s="6"/>
       <c r="AF170" s="6"/>
-    </row>
-    <row r="171" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C171" s="6"/>
+      <c r="AG170" s="6"/>
+    </row>
+    <row r="171" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
@@ -7584,9 +7577,9 @@
       <c r="AD171" s="6"/>
       <c r="AE171" s="6"/>
       <c r="AF171" s="6"/>
-    </row>
-    <row r="172" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C172" s="6"/>
+      <c r="AG171" s="6"/>
+    </row>
+    <row r="172" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
@@ -7616,9 +7609,9 @@
       <c r="AD172" s="6"/>
       <c r="AE172" s="6"/>
       <c r="AF172" s="6"/>
-    </row>
-    <row r="173" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C173" s="6"/>
+      <c r="AG172" s="6"/>
+    </row>
+    <row r="173" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -7648,9 +7641,9 @@
       <c r="AD173" s="6"/>
       <c r="AE173" s="6"/>
       <c r="AF173" s="6"/>
-    </row>
-    <row r="174" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C174" s="6"/>
+      <c r="AG173" s="6"/>
+    </row>
+    <row r="174" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
@@ -7680,9 +7673,9 @@
       <c r="AD174" s="6"/>
       <c r="AE174" s="6"/>
       <c r="AF174" s="6"/>
-    </row>
-    <row r="175" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C175" s="6"/>
+      <c r="AG174" s="6"/>
+    </row>
+    <row r="175" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
@@ -7712,9 +7705,9 @@
       <c r="AD175" s="6"/>
       <c r="AE175" s="6"/>
       <c r="AF175" s="6"/>
-    </row>
-    <row r="176" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C176" s="6"/>
+      <c r="AG175" s="6"/>
+    </row>
+    <row r="176" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
@@ -7744,9 +7737,9 @@
       <c r="AD176" s="6"/>
       <c r="AE176" s="6"/>
       <c r="AF176" s="6"/>
-    </row>
-    <row r="177" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C177" s="6"/>
+      <c r="AG176" s="6"/>
+    </row>
+    <row r="177" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
@@ -7776,9 +7769,9 @@
       <c r="AD177" s="6"/>
       <c r="AE177" s="6"/>
       <c r="AF177" s="6"/>
-    </row>
-    <row r="178" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C178" s="6"/>
+      <c r="AG177" s="6"/>
+    </row>
+    <row r="178" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
@@ -7808,9 +7801,9 @@
       <c r="AD178" s="6"/>
       <c r="AE178" s="6"/>
       <c r="AF178" s="6"/>
-    </row>
-    <row r="179" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C179" s="6"/>
+      <c r="AG178" s="6"/>
+    </row>
+    <row r="179" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
@@ -7840,9 +7833,9 @@
       <c r="AD179" s="6"/>
       <c r="AE179" s="6"/>
       <c r="AF179" s="6"/>
-    </row>
-    <row r="180" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C180" s="6"/>
+      <c r="AG179" s="6"/>
+    </row>
+    <row r="180" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
@@ -7872,9 +7865,9 @@
       <c r="AD180" s="6"/>
       <c r="AE180" s="6"/>
       <c r="AF180" s="6"/>
-    </row>
-    <row r="181" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C181" s="6"/>
+      <c r="AG180" s="6"/>
+    </row>
+    <row r="181" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
@@ -7904,9 +7897,9 @@
       <c r="AD181" s="6"/>
       <c r="AE181" s="6"/>
       <c r="AF181" s="6"/>
-    </row>
-    <row r="182" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C182" s="6"/>
+      <c r="AG181" s="6"/>
+    </row>
+    <row r="182" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
@@ -7936,9 +7929,9 @@
       <c r="AD182" s="6"/>
       <c r="AE182" s="6"/>
       <c r="AF182" s="6"/>
-    </row>
-    <row r="183" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C183" s="6"/>
+      <c r="AG182" s="6"/>
+    </row>
+    <row r="183" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
@@ -7968,9 +7961,9 @@
       <c r="AD183" s="6"/>
       <c r="AE183" s="6"/>
       <c r="AF183" s="6"/>
-    </row>
-    <row r="184" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C184" s="6"/>
+      <c r="AG183" s="6"/>
+    </row>
+    <row r="184" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
@@ -8000,9 +7993,9 @@
       <c r="AD184" s="6"/>
       <c r="AE184" s="6"/>
       <c r="AF184" s="6"/>
-    </row>
-    <row r="185" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C185" s="6"/>
+      <c r="AG184" s="6"/>
+    </row>
+    <row r="185" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
@@ -8032,9 +8025,9 @@
       <c r="AD185" s="6"/>
       <c r="AE185" s="6"/>
       <c r="AF185" s="6"/>
-    </row>
-    <row r="186" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C186" s="6"/>
+      <c r="AG185" s="6"/>
+    </row>
+    <row r="186" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
@@ -8064,9 +8057,9 @@
       <c r="AD186" s="6"/>
       <c r="AE186" s="6"/>
       <c r="AF186" s="6"/>
-    </row>
-    <row r="187" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C187" s="6"/>
+      <c r="AG186" s="6"/>
+    </row>
+    <row r="187" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
@@ -8096,9 +8089,9 @@
       <c r="AD187" s="6"/>
       <c r="AE187" s="6"/>
       <c r="AF187" s="6"/>
-    </row>
-    <row r="188" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C188" s="6"/>
+      <c r="AG187" s="6"/>
+    </row>
+    <row r="188" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
@@ -8128,9 +8121,9 @@
       <c r="AD188" s="6"/>
       <c r="AE188" s="6"/>
       <c r="AF188" s="6"/>
-    </row>
-    <row r="189" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C189" s="6"/>
+      <c r="AG188" s="6"/>
+    </row>
+    <row r="189" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
@@ -8160,9 +8153,9 @@
       <c r="AD189" s="6"/>
       <c r="AE189" s="6"/>
       <c r="AF189" s="6"/>
-    </row>
-    <row r="190" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C190" s="6"/>
+      <c r="AG189" s="6"/>
+    </row>
+    <row r="190" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
@@ -8192,9 +8185,9 @@
       <c r="AD190" s="6"/>
       <c r="AE190" s="6"/>
       <c r="AF190" s="6"/>
-    </row>
-    <row r="191" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C191" s="6"/>
+      <c r="AG190" s="6"/>
+    </row>
+    <row r="191" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
@@ -8224,9 +8217,9 @@
       <c r="AD191" s="6"/>
       <c r="AE191" s="6"/>
       <c r="AF191" s="6"/>
-    </row>
-    <row r="192" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C192" s="6"/>
+      <c r="AG191" s="6"/>
+    </row>
+    <row r="192" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
@@ -8256,9 +8249,9 @@
       <c r="AD192" s="6"/>
       <c r="AE192" s="6"/>
       <c r="AF192" s="6"/>
-    </row>
-    <row r="193" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C193" s="6"/>
+      <c r="AG192" s="6"/>
+    </row>
+    <row r="193" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
@@ -8288,9 +8281,9 @@
       <c r="AD193" s="6"/>
       <c r="AE193" s="6"/>
       <c r="AF193" s="6"/>
-    </row>
-    <row r="194" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C194" s="6"/>
+      <c r="AG193" s="6"/>
+    </row>
+    <row r="194" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
@@ -8320,9 +8313,9 @@
       <c r="AD194" s="6"/>
       <c r="AE194" s="6"/>
       <c r="AF194" s="6"/>
-    </row>
-    <row r="195" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C195" s="6"/>
+      <c r="AG194" s="6"/>
+    </row>
+    <row r="195" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
@@ -8352,9 +8345,9 @@
       <c r="AD195" s="6"/>
       <c r="AE195" s="6"/>
       <c r="AF195" s="6"/>
-    </row>
-    <row r="196" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C196" s="6"/>
+      <c r="AG195" s="6"/>
+    </row>
+    <row r="196" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
@@ -8384,9 +8377,9 @@
       <c r="AD196" s="6"/>
       <c r="AE196" s="6"/>
       <c r="AF196" s="6"/>
-    </row>
-    <row r="197" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C197" s="6"/>
+      <c r="AG196" s="6"/>
+    </row>
+    <row r="197" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
@@ -8416,9 +8409,9 @@
       <c r="AD197" s="6"/>
       <c r="AE197" s="6"/>
       <c r="AF197" s="6"/>
-    </row>
-    <row r="198" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C198" s="6"/>
+      <c r="AG197" s="6"/>
+    </row>
+    <row r="198" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
@@ -8448,9 +8441,9 @@
       <c r="AD198" s="6"/>
       <c r="AE198" s="6"/>
       <c r="AF198" s="6"/>
-    </row>
-    <row r="199" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C199" s="6"/>
+      <c r="AG198" s="6"/>
+    </row>
+    <row r="199" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
@@ -8480,9 +8473,9 @@
       <c r="AD199" s="6"/>
       <c r="AE199" s="6"/>
       <c r="AF199" s="6"/>
-    </row>
-    <row r="200" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C200" s="6"/>
+      <c r="AG199" s="6"/>
+    </row>
+    <row r="200" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
@@ -8512,9 +8505,9 @@
       <c r="AD200" s="6"/>
       <c r="AE200" s="6"/>
       <c r="AF200" s="6"/>
-    </row>
-    <row r="201" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C201" s="6"/>
+      <c r="AG200" s="6"/>
+    </row>
+    <row r="201" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
@@ -8544,9 +8537,9 @@
       <c r="AD201" s="6"/>
       <c r="AE201" s="6"/>
       <c r="AF201" s="6"/>
-    </row>
-    <row r="202" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C202" s="6"/>
+      <c r="AG201" s="6"/>
+    </row>
+    <row r="202" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
@@ -8576,9 +8569,9 @@
       <c r="AD202" s="6"/>
       <c r="AE202" s="6"/>
       <c r="AF202" s="6"/>
-    </row>
-    <row r="203" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C203" s="6"/>
+      <c r="AG202" s="6"/>
+    </row>
+    <row r="203" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
@@ -8608,9 +8601,9 @@
       <c r="AD203" s="6"/>
       <c r="AE203" s="6"/>
       <c r="AF203" s="6"/>
-    </row>
-    <row r="204" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C204" s="6"/>
+      <c r="AG203" s="6"/>
+    </row>
+    <row r="204" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
@@ -8640,9 +8633,9 @@
       <c r="AD204" s="6"/>
       <c r="AE204" s="6"/>
       <c r="AF204" s="6"/>
-    </row>
-    <row r="205" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C205" s="6"/>
+      <c r="AG204" s="6"/>
+    </row>
+    <row r="205" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
@@ -8672,9 +8665,9 @@
       <c r="AD205" s="6"/>
       <c r="AE205" s="6"/>
       <c r="AF205" s="6"/>
-    </row>
-    <row r="206" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C206" s="6"/>
+      <c r="AG205" s="6"/>
+    </row>
+    <row r="206" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
@@ -8704,9 +8697,9 @@
       <c r="AD206" s="6"/>
       <c r="AE206" s="6"/>
       <c r="AF206" s="6"/>
-    </row>
-    <row r="207" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C207" s="6"/>
+      <c r="AG206" s="6"/>
+    </row>
+    <row r="207" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
@@ -8736,9 +8729,9 @@
       <c r="AD207" s="6"/>
       <c r="AE207" s="6"/>
       <c r="AF207" s="6"/>
-    </row>
-    <row r="208" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C208" s="6"/>
+      <c r="AG207" s="6"/>
+    </row>
+    <row r="208" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
@@ -8768,9 +8761,9 @@
       <c r="AD208" s="6"/>
       <c r="AE208" s="6"/>
       <c r="AF208" s="6"/>
-    </row>
-    <row r="209" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C209" s="6"/>
+      <c r="AG208" s="6"/>
+    </row>
+    <row r="209" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
@@ -8800,9 +8793,9 @@
       <c r="AD209" s="6"/>
       <c r="AE209" s="6"/>
       <c r="AF209" s="6"/>
-    </row>
-    <row r="210" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C210" s="6"/>
+      <c r="AG209" s="6"/>
+    </row>
+    <row r="210" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
@@ -8832,9 +8825,9 @@
       <c r="AD210" s="6"/>
       <c r="AE210" s="6"/>
       <c r="AF210" s="6"/>
-    </row>
-    <row r="211" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C211" s="6"/>
+      <c r="AG210" s="6"/>
+    </row>
+    <row r="211" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
@@ -8864,9 +8857,9 @@
       <c r="AD211" s="6"/>
       <c r="AE211" s="6"/>
       <c r="AF211" s="6"/>
-    </row>
-    <row r="212" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C212" s="6"/>
+      <c r="AG211" s="6"/>
+    </row>
+    <row r="212" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
@@ -8896,9 +8889,9 @@
       <c r="AD212" s="6"/>
       <c r="AE212" s="6"/>
       <c r="AF212" s="6"/>
-    </row>
-    <row r="213" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C213" s="6"/>
+      <c r="AG212" s="6"/>
+    </row>
+    <row r="213" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
@@ -8928,9 +8921,9 @@
       <c r="AD213" s="6"/>
       <c r="AE213" s="6"/>
       <c r="AF213" s="6"/>
-    </row>
-    <row r="214" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C214" s="6"/>
+      <c r="AG213" s="6"/>
+    </row>
+    <row r="214" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
@@ -8960,9 +8953,9 @@
       <c r="AD214" s="6"/>
       <c r="AE214" s="6"/>
       <c r="AF214" s="6"/>
-    </row>
-    <row r="215" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C215" s="6"/>
+      <c r="AG214" s="6"/>
+    </row>
+    <row r="215" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
@@ -8992,9 +8985,9 @@
       <c r="AD215" s="6"/>
       <c r="AE215" s="6"/>
       <c r="AF215" s="6"/>
-    </row>
-    <row r="216" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C216" s="6"/>
+      <c r="AG215" s="6"/>
+    </row>
+    <row r="216" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
@@ -9024,9 +9017,9 @@
       <c r="AD216" s="6"/>
       <c r="AE216" s="6"/>
       <c r="AF216" s="6"/>
-    </row>
-    <row r="217" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C217" s="6"/>
+      <c r="AG216" s="6"/>
+    </row>
+    <row r="217" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
@@ -9056,9 +9049,9 @@
       <c r="AD217" s="6"/>
       <c r="AE217" s="6"/>
       <c r="AF217" s="6"/>
-    </row>
-    <row r="218" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C218" s="6"/>
+      <c r="AG217" s="6"/>
+    </row>
+    <row r="218" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
@@ -9088,9 +9081,9 @@
       <c r="AD218" s="6"/>
       <c r="AE218" s="6"/>
       <c r="AF218" s="6"/>
-    </row>
-    <row r="219" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C219" s="6"/>
+      <c r="AG218" s="6"/>
+    </row>
+    <row r="219" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
@@ -9120,9 +9113,9 @@
       <c r="AD219" s="6"/>
       <c r="AE219" s="6"/>
       <c r="AF219" s="6"/>
-    </row>
-    <row r="220" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C220" s="6"/>
+      <c r="AG219" s="6"/>
+    </row>
+    <row r="220" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
@@ -9152,9 +9145,9 @@
       <c r="AD220" s="6"/>
       <c r="AE220" s="6"/>
       <c r="AF220" s="6"/>
-    </row>
-    <row r="221" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C221" s="6"/>
+      <c r="AG220" s="6"/>
+    </row>
+    <row r="221" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
@@ -9184,9 +9177,9 @@
       <c r="AD221" s="6"/>
       <c r="AE221" s="6"/>
       <c r="AF221" s="6"/>
-    </row>
-    <row r="222" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C222" s="6"/>
+      <c r="AG221" s="6"/>
+    </row>
+    <row r="222" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
@@ -9216,9 +9209,9 @@
       <c r="AD222" s="6"/>
       <c r="AE222" s="6"/>
       <c r="AF222" s="6"/>
-    </row>
-    <row r="223" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C223" s="6"/>
+      <c r="AG222" s="6"/>
+    </row>
+    <row r="223" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
@@ -9248,9 +9241,9 @@
       <c r="AD223" s="6"/>
       <c r="AE223" s="6"/>
       <c r="AF223" s="6"/>
-    </row>
-    <row r="224" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C224" s="6"/>
+      <c r="AG223" s="6"/>
+    </row>
+    <row r="224" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
@@ -9280,9 +9273,9 @@
       <c r="AD224" s="6"/>
       <c r="AE224" s="6"/>
       <c r="AF224" s="6"/>
-    </row>
-    <row r="225" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C225" s="6"/>
+      <c r="AG224" s="6"/>
+    </row>
+    <row r="225" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
@@ -9312,9 +9305,9 @@
       <c r="AD225" s="6"/>
       <c r="AE225" s="6"/>
       <c r="AF225" s="6"/>
-    </row>
-    <row r="226" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C226" s="6"/>
+      <c r="AG225" s="6"/>
+    </row>
+    <row r="226" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D226" s="6"/>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
@@ -9344,9 +9337,9 @@
       <c r="AD226" s="6"/>
       <c r="AE226" s="6"/>
       <c r="AF226" s="6"/>
-    </row>
-    <row r="227" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C227" s="6"/>
+      <c r="AG226" s="6"/>
+    </row>
+    <row r="227" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
@@ -9376,9 +9369,9 @@
       <c r="AD227" s="6"/>
       <c r="AE227" s="6"/>
       <c r="AF227" s="6"/>
-    </row>
-    <row r="228" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C228" s="6"/>
+      <c r="AG227" s="6"/>
+    </row>
+    <row r="228" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D228" s="6"/>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
@@ -9408,9 +9401,9 @@
       <c r="AD228" s="6"/>
       <c r="AE228" s="6"/>
       <c r="AF228" s="6"/>
-    </row>
-    <row r="229" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C229" s="6"/>
+      <c r="AG228" s="6"/>
+    </row>
+    <row r="229" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
@@ -9440,9 +9433,9 @@
       <c r="AD229" s="6"/>
       <c r="AE229" s="6"/>
       <c r="AF229" s="6"/>
-    </row>
-    <row r="230" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C230" s="6"/>
+      <c r="AG229" s="6"/>
+    </row>
+    <row r="230" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
@@ -9472,9 +9465,9 @@
       <c r="AD230" s="6"/>
       <c r="AE230" s="6"/>
       <c r="AF230" s="6"/>
-    </row>
-    <row r="231" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C231" s="6"/>
+      <c r="AG230" s="6"/>
+    </row>
+    <row r="231" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
@@ -9504,9 +9497,9 @@
       <c r="AD231" s="6"/>
       <c r="AE231" s="6"/>
       <c r="AF231" s="6"/>
-    </row>
-    <row r="232" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C232" s="6"/>
+      <c r="AG231" s="6"/>
+    </row>
+    <row r="232" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
@@ -9536,9 +9529,9 @@
       <c r="AD232" s="6"/>
       <c r="AE232" s="6"/>
       <c r="AF232" s="6"/>
-    </row>
-    <row r="233" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C233" s="6"/>
+      <c r="AG232" s="6"/>
+    </row>
+    <row r="233" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
@@ -9568,9 +9561,9 @@
       <c r="AD233" s="6"/>
       <c r="AE233" s="6"/>
       <c r="AF233" s="6"/>
-    </row>
-    <row r="234" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C234" s="6"/>
+      <c r="AG233" s="6"/>
+    </row>
+    <row r="234" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
@@ -9600,9 +9593,9 @@
       <c r="AD234" s="6"/>
       <c r="AE234" s="6"/>
       <c r="AF234" s="6"/>
-    </row>
-    <row r="235" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C235" s="6"/>
+      <c r="AG234" s="6"/>
+    </row>
+    <row r="235" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
@@ -9632,9 +9625,9 @@
       <c r="AD235" s="6"/>
       <c r="AE235" s="6"/>
       <c r="AF235" s="6"/>
-    </row>
-    <row r="236" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C236" s="6"/>
+      <c r="AG235" s="6"/>
+    </row>
+    <row r="236" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
@@ -9664,9 +9657,9 @@
       <c r="AD236" s="6"/>
       <c r="AE236" s="6"/>
       <c r="AF236" s="6"/>
-    </row>
-    <row r="237" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C237" s="6"/>
+      <c r="AG236" s="6"/>
+    </row>
+    <row r="237" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
@@ -9696,9 +9689,9 @@
       <c r="AD237" s="6"/>
       <c r="AE237" s="6"/>
       <c r="AF237" s="6"/>
-    </row>
-    <row r="238" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C238" s="6"/>
+      <c r="AG237" s="6"/>
+    </row>
+    <row r="238" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
@@ -9728,9 +9721,9 @@
       <c r="AD238" s="6"/>
       <c r="AE238" s="6"/>
       <c r="AF238" s="6"/>
-    </row>
-    <row r="239" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C239" s="6"/>
+      <c r="AG238" s="6"/>
+    </row>
+    <row r="239" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
@@ -9760,9 +9753,9 @@
       <c r="AD239" s="6"/>
       <c r="AE239" s="6"/>
       <c r="AF239" s="6"/>
-    </row>
-    <row r="240" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C240" s="6"/>
+      <c r="AG239" s="6"/>
+    </row>
+    <row r="240" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
@@ -9792,9 +9785,9 @@
       <c r="AD240" s="6"/>
       <c r="AE240" s="6"/>
       <c r="AF240" s="6"/>
-    </row>
-    <row r="241" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C241" s="6"/>
+      <c r="AG240" s="6"/>
+    </row>
+    <row r="241" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
@@ -9824,9 +9817,9 @@
       <c r="AD241" s="6"/>
       <c r="AE241" s="6"/>
       <c r="AF241" s="6"/>
-    </row>
-    <row r="242" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C242" s="6"/>
+      <c r="AG241" s="6"/>
+    </row>
+    <row r="242" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
@@ -9856,9 +9849,9 @@
       <c r="AD242" s="6"/>
       <c r="AE242" s="6"/>
       <c r="AF242" s="6"/>
-    </row>
-    <row r="243" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C243" s="6"/>
+      <c r="AG242" s="6"/>
+    </row>
+    <row r="243" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
@@ -9888,9 +9881,9 @@
       <c r="AD243" s="6"/>
       <c r="AE243" s="6"/>
       <c r="AF243" s="6"/>
-    </row>
-    <row r="244" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C244" s="6"/>
+      <c r="AG243" s="6"/>
+    </row>
+    <row r="244" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
@@ -9920,9 +9913,9 @@
       <c r="AD244" s="6"/>
       <c r="AE244" s="6"/>
       <c r="AF244" s="6"/>
-    </row>
-    <row r="245" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C245" s="6"/>
+      <c r="AG244" s="6"/>
+    </row>
+    <row r="245" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
@@ -9952,9 +9945,9 @@
       <c r="AD245" s="6"/>
       <c r="AE245" s="6"/>
       <c r="AF245" s="6"/>
-    </row>
-    <row r="246" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C246" s="6"/>
+      <c r="AG245" s="6"/>
+    </row>
+    <row r="246" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
@@ -9984,9 +9977,9 @@
       <c r="AD246" s="6"/>
       <c r="AE246" s="6"/>
       <c r="AF246" s="6"/>
-    </row>
-    <row r="247" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C247" s="6"/>
+      <c r="AG246" s="6"/>
+    </row>
+    <row r="247" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
@@ -10016,9 +10009,9 @@
       <c r="AD247" s="6"/>
       <c r="AE247" s="6"/>
       <c r="AF247" s="6"/>
-    </row>
-    <row r="248" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C248" s="6"/>
+      <c r="AG247" s="6"/>
+    </row>
+    <row r="248" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
@@ -10048,9 +10041,9 @@
       <c r="AD248" s="6"/>
       <c r="AE248" s="6"/>
       <c r="AF248" s="6"/>
-    </row>
-    <row r="249" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C249" s="6"/>
+      <c r="AG248" s="6"/>
+    </row>
+    <row r="249" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D249" s="6"/>
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
@@ -10080,9 +10073,9 @@
       <c r="AD249" s="6"/>
       <c r="AE249" s="6"/>
       <c r="AF249" s="6"/>
-    </row>
-    <row r="250" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C250" s="6"/>
+      <c r="AG249" s="6"/>
+    </row>
+    <row r="250" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D250" s="6"/>
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
@@ -10112,9 +10105,9 @@
       <c r="AD250" s="6"/>
       <c r="AE250" s="6"/>
       <c r="AF250" s="6"/>
-    </row>
-    <row r="251" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C251" s="6"/>
+      <c r="AG250" s="6"/>
+    </row>
+    <row r="251" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
@@ -10144,9 +10137,9 @@
       <c r="AD251" s="6"/>
       <c r="AE251" s="6"/>
       <c r="AF251" s="6"/>
-    </row>
-    <row r="252" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C252" s="6"/>
+      <c r="AG251" s="6"/>
+    </row>
+    <row r="252" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
@@ -10176,9 +10169,9 @@
       <c r="AD252" s="6"/>
       <c r="AE252" s="6"/>
       <c r="AF252" s="6"/>
-    </row>
-    <row r="253" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C253" s="6"/>
+      <c r="AG252" s="6"/>
+    </row>
+    <row r="253" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
@@ -10208,9 +10201,9 @@
       <c r="AD253" s="6"/>
       <c r="AE253" s="6"/>
       <c r="AF253" s="6"/>
-    </row>
-    <row r="254" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C254" s="6"/>
+      <c r="AG253" s="6"/>
+    </row>
+    <row r="254" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
@@ -10240,9 +10233,9 @@
       <c r="AD254" s="6"/>
       <c r="AE254" s="6"/>
       <c r="AF254" s="6"/>
-    </row>
-    <row r="255" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C255" s="6"/>
+      <c r="AG254" s="6"/>
+    </row>
+    <row r="255" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
@@ -10272,9 +10265,9 @@
       <c r="AD255" s="6"/>
       <c r="AE255" s="6"/>
       <c r="AF255" s="6"/>
-    </row>
-    <row r="256" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C256" s="6"/>
+      <c r="AG255" s="6"/>
+    </row>
+    <row r="256" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
@@ -10304,9 +10297,9 @@
       <c r="AD256" s="6"/>
       <c r="AE256" s="6"/>
       <c r="AF256" s="6"/>
-    </row>
-    <row r="257" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C257" s="6"/>
+      <c r="AG256" s="6"/>
+    </row>
+    <row r="257" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
@@ -10336,9 +10329,9 @@
       <c r="AD257" s="6"/>
       <c r="AE257" s="6"/>
       <c r="AF257" s="6"/>
-    </row>
-    <row r="258" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C258" s="6"/>
+      <c r="AG257" s="6"/>
+    </row>
+    <row r="258" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
@@ -10368,9 +10361,9 @@
       <c r="AD258" s="6"/>
       <c r="AE258" s="6"/>
       <c r="AF258" s="6"/>
-    </row>
-    <row r="259" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C259" s="6"/>
+      <c r="AG258" s="6"/>
+    </row>
+    <row r="259" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
@@ -10400,9 +10393,9 @@
       <c r="AD259" s="6"/>
       <c r="AE259" s="6"/>
       <c r="AF259" s="6"/>
-    </row>
-    <row r="260" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C260" s="6"/>
+      <c r="AG259" s="6"/>
+    </row>
+    <row r="260" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
@@ -10432,9 +10425,9 @@
       <c r="AD260" s="6"/>
       <c r="AE260" s="6"/>
       <c r="AF260" s="6"/>
-    </row>
-    <row r="261" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C261" s="6"/>
+      <c r="AG260" s="6"/>
+    </row>
+    <row r="261" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
@@ -10464,9 +10457,9 @@
       <c r="AD261" s="6"/>
       <c r="AE261" s="6"/>
       <c r="AF261" s="6"/>
-    </row>
-    <row r="262" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C262" s="6"/>
+      <c r="AG261" s="6"/>
+    </row>
+    <row r="262" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
@@ -10496,9 +10489,9 @@
       <c r="AD262" s="6"/>
       <c r="AE262" s="6"/>
       <c r="AF262" s="6"/>
-    </row>
-    <row r="263" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C263" s="6"/>
+      <c r="AG262" s="6"/>
+    </row>
+    <row r="263" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
@@ -10528,9 +10521,9 @@
       <c r="AD263" s="6"/>
       <c r="AE263" s="6"/>
       <c r="AF263" s="6"/>
-    </row>
-    <row r="264" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C264" s="6"/>
+      <c r="AG263" s="6"/>
+    </row>
+    <row r="264" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
@@ -10560,9 +10553,9 @@
       <c r="AD264" s="6"/>
       <c r="AE264" s="6"/>
       <c r="AF264" s="6"/>
-    </row>
-    <row r="265" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C265" s="6"/>
+      <c r="AG264" s="6"/>
+    </row>
+    <row r="265" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
@@ -10592,9 +10585,9 @@
       <c r="AD265" s="6"/>
       <c r="AE265" s="6"/>
       <c r="AF265" s="6"/>
-    </row>
-    <row r="266" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C266" s="6"/>
+      <c r="AG265" s="6"/>
+    </row>
+    <row r="266" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
@@ -10624,9 +10617,9 @@
       <c r="AD266" s="6"/>
       <c r="AE266" s="6"/>
       <c r="AF266" s="6"/>
-    </row>
-    <row r="267" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C267" s="6"/>
+      <c r="AG266" s="6"/>
+    </row>
+    <row r="267" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
@@ -10656,9 +10649,9 @@
       <c r="AD267" s="6"/>
       <c r="AE267" s="6"/>
       <c r="AF267" s="6"/>
-    </row>
-    <row r="268" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C268" s="6"/>
+      <c r="AG267" s="6"/>
+    </row>
+    <row r="268" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D268" s="6"/>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
@@ -10688,9 +10681,9 @@
       <c r="AD268" s="6"/>
       <c r="AE268" s="6"/>
       <c r="AF268" s="6"/>
-    </row>
-    <row r="269" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C269" s="6"/>
+      <c r="AG268" s="6"/>
+    </row>
+    <row r="269" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
@@ -10720,9 +10713,9 @@
       <c r="AD269" s="6"/>
       <c r="AE269" s="6"/>
       <c r="AF269" s="6"/>
-    </row>
-    <row r="270" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C270" s="6"/>
+      <c r="AG269" s="6"/>
+    </row>
+    <row r="270" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D270" s="6"/>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
@@ -10752,9 +10745,9 @@
       <c r="AD270" s="6"/>
       <c r="AE270" s="6"/>
       <c r="AF270" s="6"/>
-    </row>
-    <row r="271" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C271" s="6"/>
+      <c r="AG270" s="6"/>
+    </row>
+    <row r="271" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D271" s="6"/>
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
@@ -10784,9 +10777,9 @@
       <c r="AD271" s="6"/>
       <c r="AE271" s="6"/>
       <c r="AF271" s="6"/>
-    </row>
-    <row r="272" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C272" s="6"/>
+      <c r="AG271" s="6"/>
+    </row>
+    <row r="272" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
@@ -10816,9 +10809,9 @@
       <c r="AD272" s="6"/>
       <c r="AE272" s="6"/>
       <c r="AF272" s="6"/>
-    </row>
-    <row r="273" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C273" s="6"/>
+      <c r="AG272" s="6"/>
+    </row>
+    <row r="273" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
@@ -10848,9 +10841,9 @@
       <c r="AD273" s="6"/>
       <c r="AE273" s="6"/>
       <c r="AF273" s="6"/>
-    </row>
-    <row r="274" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C274" s="6"/>
+      <c r="AG273" s="6"/>
+    </row>
+    <row r="274" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D274" s="6"/>
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
@@ -10880,9 +10873,9 @@
       <c r="AD274" s="6"/>
       <c r="AE274" s="6"/>
       <c r="AF274" s="6"/>
-    </row>
-    <row r="275" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C275" s="6"/>
+      <c r="AG274" s="6"/>
+    </row>
+    <row r="275" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
@@ -10912,9 +10905,9 @@
       <c r="AD275" s="6"/>
       <c r="AE275" s="6"/>
       <c r="AF275" s="6"/>
-    </row>
-    <row r="276" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C276" s="6"/>
+      <c r="AG275" s="6"/>
+    </row>
+    <row r="276" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
@@ -10944,9 +10937,9 @@
       <c r="AD276" s="6"/>
       <c r="AE276" s="6"/>
       <c r="AF276" s="6"/>
-    </row>
-    <row r="277" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C277" s="6"/>
+      <c r="AG276" s="6"/>
+    </row>
+    <row r="277" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
@@ -10976,9 +10969,9 @@
       <c r="AD277" s="6"/>
       <c r="AE277" s="6"/>
       <c r="AF277" s="6"/>
-    </row>
-    <row r="278" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C278" s="6"/>
+      <c r="AG277" s="6"/>
+    </row>
+    <row r="278" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
@@ -11008,9 +11001,9 @@
       <c r="AD278" s="6"/>
       <c r="AE278" s="6"/>
       <c r="AF278" s="6"/>
-    </row>
-    <row r="279" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C279" s="6"/>
+      <c r="AG278" s="6"/>
+    </row>
+    <row r="279" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
@@ -11040,9 +11033,9 @@
       <c r="AD279" s="6"/>
       <c r="AE279" s="6"/>
       <c r="AF279" s="6"/>
-    </row>
-    <row r="280" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C280" s="6"/>
+      <c r="AG279" s="6"/>
+    </row>
+    <row r="280" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
@@ -11072,9 +11065,9 @@
       <c r="AD280" s="6"/>
       <c r="AE280" s="6"/>
       <c r="AF280" s="6"/>
-    </row>
-    <row r="281" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C281" s="6"/>
+      <c r="AG280" s="6"/>
+    </row>
+    <row r="281" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
@@ -11104,9 +11097,9 @@
       <c r="AD281" s="6"/>
       <c r="AE281" s="6"/>
       <c r="AF281" s="6"/>
-    </row>
-    <row r="282" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C282" s="6"/>
+      <c r="AG281" s="6"/>
+    </row>
+    <row r="282" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
@@ -11136,9 +11129,9 @@
       <c r="AD282" s="6"/>
       <c r="AE282" s="6"/>
       <c r="AF282" s="6"/>
-    </row>
-    <row r="283" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C283" s="6"/>
+      <c r="AG282" s="6"/>
+    </row>
+    <row r="283" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
@@ -11168,9 +11161,9 @@
       <c r="AD283" s="6"/>
       <c r="AE283" s="6"/>
       <c r="AF283" s="6"/>
-    </row>
-    <row r="284" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C284" s="6"/>
+      <c r="AG283" s="6"/>
+    </row>
+    <row r="284" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
@@ -11200,9 +11193,9 @@
       <c r="AD284" s="6"/>
       <c r="AE284" s="6"/>
       <c r="AF284" s="6"/>
-    </row>
-    <row r="285" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C285" s="6"/>
+      <c r="AG284" s="6"/>
+    </row>
+    <row r="285" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
@@ -11232,9 +11225,9 @@
       <c r="AD285" s="6"/>
       <c r="AE285" s="6"/>
       <c r="AF285" s="6"/>
-    </row>
-    <row r="286" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C286" s="6"/>
+      <c r="AG285" s="6"/>
+    </row>
+    <row r="286" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
@@ -11264,9 +11257,9 @@
       <c r="AD286" s="6"/>
       <c r="AE286" s="6"/>
       <c r="AF286" s="6"/>
-    </row>
-    <row r="287" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C287" s="6"/>
+      <c r="AG286" s="6"/>
+    </row>
+    <row r="287" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
@@ -11296,9 +11289,9 @@
       <c r="AD287" s="6"/>
       <c r="AE287" s="6"/>
       <c r="AF287" s="6"/>
-    </row>
-    <row r="288" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C288" s="6"/>
+      <c r="AG287" s="6"/>
+    </row>
+    <row r="288" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
@@ -11328,9 +11321,9 @@
       <c r="AD288" s="6"/>
       <c r="AE288" s="6"/>
       <c r="AF288" s="6"/>
-    </row>
-    <row r="289" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C289" s="6"/>
+      <c r="AG288" s="6"/>
+    </row>
+    <row r="289" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
@@ -11360,9 +11353,9 @@
       <c r="AD289" s="6"/>
       <c r="AE289" s="6"/>
       <c r="AF289" s="6"/>
-    </row>
-    <row r="290" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C290" s="6"/>
+      <c r="AG289" s="6"/>
+    </row>
+    <row r="290" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
@@ -11392,9 +11385,9 @@
       <c r="AD290" s="6"/>
       <c r="AE290" s="6"/>
       <c r="AF290" s="6"/>
-    </row>
-    <row r="291" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C291" s="6"/>
+      <c r="AG290" s="6"/>
+    </row>
+    <row r="291" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
@@ -11424,9 +11417,9 @@
       <c r="AD291" s="6"/>
       <c r="AE291" s="6"/>
       <c r="AF291" s="6"/>
-    </row>
-    <row r="292" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C292" s="6"/>
+      <c r="AG291" s="6"/>
+    </row>
+    <row r="292" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
@@ -11456,9 +11449,9 @@
       <c r="AD292" s="6"/>
       <c r="AE292" s="6"/>
       <c r="AF292" s="6"/>
-    </row>
-    <row r="293" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C293" s="6"/>
+      <c r="AG292" s="6"/>
+    </row>
+    <row r="293" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
@@ -11488,9 +11481,9 @@
       <c r="AD293" s="6"/>
       <c r="AE293" s="6"/>
       <c r="AF293" s="6"/>
-    </row>
-    <row r="294" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C294" s="6"/>
+      <c r="AG293" s="6"/>
+    </row>
+    <row r="294" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
@@ -11520,9 +11513,9 @@
       <c r="AD294" s="6"/>
       <c r="AE294" s="6"/>
       <c r="AF294" s="6"/>
-    </row>
-    <row r="295" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C295" s="6"/>
+      <c r="AG294" s="6"/>
+    </row>
+    <row r="295" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
@@ -11552,9 +11545,9 @@
       <c r="AD295" s="6"/>
       <c r="AE295" s="6"/>
       <c r="AF295" s="6"/>
-    </row>
-    <row r="296" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C296" s="6"/>
+      <c r="AG295" s="6"/>
+    </row>
+    <row r="296" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D296" s="6"/>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
@@ -11584,9 +11577,9 @@
       <c r="AD296" s="6"/>
       <c r="AE296" s="6"/>
       <c r="AF296" s="6"/>
-    </row>
-    <row r="297" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C297" s="6"/>
+      <c r="AG296" s="6"/>
+    </row>
+    <row r="297" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
@@ -11616,9 +11609,9 @@
       <c r="AD297" s="6"/>
       <c r="AE297" s="6"/>
       <c r="AF297" s="6"/>
-    </row>
-    <row r="298" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C298" s="6"/>
+      <c r="AG297" s="6"/>
+    </row>
+    <row r="298" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D298" s="6"/>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
@@ -11648,9 +11641,9 @@
       <c r="AD298" s="6"/>
       <c r="AE298" s="6"/>
       <c r="AF298" s="6"/>
-    </row>
-    <row r="299" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C299" s="6"/>
+      <c r="AG298" s="6"/>
+    </row>
+    <row r="299" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
@@ -11680,9 +11673,9 @@
       <c r="AD299" s="6"/>
       <c r="AE299" s="6"/>
       <c r="AF299" s="6"/>
-    </row>
-    <row r="300" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C300" s="6"/>
+      <c r="AG299" s="6"/>
+    </row>
+    <row r="300" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
@@ -11712,9 +11705,9 @@
       <c r="AD300" s="6"/>
       <c r="AE300" s="6"/>
       <c r="AF300" s="6"/>
-    </row>
-    <row r="301" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C301" s="6"/>
+      <c r="AG300" s="6"/>
+    </row>
+    <row r="301" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
@@ -11744,9 +11737,9 @@
       <c r="AD301" s="6"/>
       <c r="AE301" s="6"/>
       <c r="AF301" s="6"/>
-    </row>
-    <row r="302" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C302" s="6"/>
+      <c r="AG301" s="6"/>
+    </row>
+    <row r="302" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
@@ -11776,9 +11769,9 @@
       <c r="AD302" s="6"/>
       <c r="AE302" s="6"/>
       <c r="AF302" s="6"/>
-    </row>
-    <row r="303" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C303" s="6"/>
+      <c r="AG302" s="6"/>
+    </row>
+    <row r="303" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D303" s="6"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
@@ -11808,9 +11801,9 @@
       <c r="AD303" s="6"/>
       <c r="AE303" s="6"/>
       <c r="AF303" s="6"/>
-    </row>
-    <row r="304" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C304" s="6"/>
+      <c r="AG303" s="6"/>
+    </row>
+    <row r="304" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
@@ -11840,9 +11833,9 @@
       <c r="AD304" s="6"/>
       <c r="AE304" s="6"/>
       <c r="AF304" s="6"/>
-    </row>
-    <row r="305" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C305" s="6"/>
+      <c r="AG304" s="6"/>
+    </row>
+    <row r="305" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D305" s="6"/>
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
@@ -11872,9 +11865,9 @@
       <c r="AD305" s="6"/>
       <c r="AE305" s="6"/>
       <c r="AF305" s="6"/>
-    </row>
-    <row r="306" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C306" s="6"/>
+      <c r="AG305" s="6"/>
+    </row>
+    <row r="306" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D306" s="6"/>
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
@@ -11904,9 +11897,9 @@
       <c r="AD306" s="6"/>
       <c r="AE306" s="6"/>
       <c r="AF306" s="6"/>
-    </row>
-    <row r="307" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C307" s="6"/>
+      <c r="AG306" s="6"/>
+    </row>
+    <row r="307" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
@@ -11936,9 +11929,9 @@
       <c r="AD307" s="6"/>
       <c r="AE307" s="6"/>
       <c r="AF307" s="6"/>
-    </row>
-    <row r="308" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C308" s="6"/>
+      <c r="AG307" s="6"/>
+    </row>
+    <row r="308" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D308" s="6"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
@@ -11968,9 +11961,9 @@
       <c r="AD308" s="6"/>
       <c r="AE308" s="6"/>
       <c r="AF308" s="6"/>
-    </row>
-    <row r="309" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C309" s="6"/>
+      <c r="AG308" s="6"/>
+    </row>
+    <row r="309" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
@@ -12000,9 +11993,9 @@
       <c r="AD309" s="6"/>
       <c r="AE309" s="6"/>
       <c r="AF309" s="6"/>
-    </row>
-    <row r="310" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C310" s="6"/>
+      <c r="AG309" s="6"/>
+    </row>
+    <row r="310" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
@@ -12032,9 +12025,9 @@
       <c r="AD310" s="6"/>
       <c r="AE310" s="6"/>
       <c r="AF310" s="6"/>
-    </row>
-    <row r="311" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C311" s="6"/>
+      <c r="AG310" s="6"/>
+    </row>
+    <row r="311" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D311" s="6"/>
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
@@ -12064,9 +12057,9 @@
       <c r="AD311" s="6"/>
       <c r="AE311" s="6"/>
       <c r="AF311" s="6"/>
-    </row>
-    <row r="312" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C312" s="6"/>
+      <c r="AG311" s="6"/>
+    </row>
+    <row r="312" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
@@ -12096,9 +12089,9 @@
       <c r="AD312" s="6"/>
       <c r="AE312" s="6"/>
       <c r="AF312" s="6"/>
-    </row>
-    <row r="313" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C313" s="6"/>
+      <c r="AG312" s="6"/>
+    </row>
+    <row r="313" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
@@ -12128,9 +12121,9 @@
       <c r="AD313" s="6"/>
       <c r="AE313" s="6"/>
       <c r="AF313" s="6"/>
-    </row>
-    <row r="314" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C314" s="6"/>
+      <c r="AG313" s="6"/>
+    </row>
+    <row r="314" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D314" s="6"/>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
@@ -12160,9 +12153,9 @@
       <c r="AD314" s="6"/>
       <c r="AE314" s="6"/>
       <c r="AF314" s="6"/>
-    </row>
-    <row r="315" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C315" s="6"/>
+      <c r="AG314" s="6"/>
+    </row>
+    <row r="315" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
@@ -12192,9 +12185,9 @@
       <c r="AD315" s="6"/>
       <c r="AE315" s="6"/>
       <c r="AF315" s="6"/>
-    </row>
-    <row r="316" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C316" s="6"/>
+      <c r="AG315" s="6"/>
+    </row>
+    <row r="316" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
@@ -12224,9 +12217,9 @@
       <c r="AD316" s="6"/>
       <c r="AE316" s="6"/>
       <c r="AF316" s="6"/>
-    </row>
-    <row r="317" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C317" s="6"/>
+      <c r="AG316" s="6"/>
+    </row>
+    <row r="317" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
@@ -12256,9 +12249,9 @@
       <c r="AD317" s="6"/>
       <c r="AE317" s="6"/>
       <c r="AF317" s="6"/>
-    </row>
-    <row r="318" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C318" s="6"/>
+      <c r="AG317" s="6"/>
+    </row>
+    <row r="318" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
@@ -12288,9 +12281,9 @@
       <c r="AD318" s="6"/>
       <c r="AE318" s="6"/>
       <c r="AF318" s="6"/>
-    </row>
-    <row r="319" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C319" s="6"/>
+      <c r="AG318" s="6"/>
+    </row>
+    <row r="319" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
@@ -12320,9 +12313,9 @@
       <c r="AD319" s="6"/>
       <c r="AE319" s="6"/>
       <c r="AF319" s="6"/>
-    </row>
-    <row r="320" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C320" s="6"/>
+      <c r="AG319" s="6"/>
+    </row>
+    <row r="320" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
@@ -12352,9 +12345,9 @@
       <c r="AD320" s="6"/>
       <c r="AE320" s="6"/>
       <c r="AF320" s="6"/>
-    </row>
-    <row r="321" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C321" s="6"/>
+      <c r="AG320" s="6"/>
+    </row>
+    <row r="321" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D321" s="6"/>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
@@ -12384,9 +12377,9 @@
       <c r="AD321" s="6"/>
       <c r="AE321" s="6"/>
       <c r="AF321" s="6"/>
-    </row>
-    <row r="322" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C322" s="6"/>
+      <c r="AG321" s="6"/>
+    </row>
+    <row r="322" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
@@ -12416,9 +12409,9 @@
       <c r="AD322" s="6"/>
       <c r="AE322" s="6"/>
       <c r="AF322" s="6"/>
-    </row>
-    <row r="323" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C323" s="6"/>
+      <c r="AG322" s="6"/>
+    </row>
+    <row r="323" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
@@ -12448,9 +12441,9 @@
       <c r="AD323" s="6"/>
       <c r="AE323" s="6"/>
       <c r="AF323" s="6"/>
-    </row>
-    <row r="324" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C324" s="6"/>
+      <c r="AG323" s="6"/>
+    </row>
+    <row r="324" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
@@ -12480,9 +12473,9 @@
       <c r="AD324" s="6"/>
       <c r="AE324" s="6"/>
       <c r="AF324" s="6"/>
-    </row>
-    <row r="325" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C325" s="6"/>
+      <c r="AG324" s="6"/>
+    </row>
+    <row r="325" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
@@ -12512,9 +12505,9 @@
       <c r="AD325" s="6"/>
       <c r="AE325" s="6"/>
       <c r="AF325" s="6"/>
-    </row>
-    <row r="326" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C326" s="6"/>
+      <c r="AG325" s="6"/>
+    </row>
+    <row r="326" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
@@ -12544,9 +12537,9 @@
       <c r="AD326" s="6"/>
       <c r="AE326" s="6"/>
       <c r="AF326" s="6"/>
-    </row>
-    <row r="327" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C327" s="6"/>
+      <c r="AG326" s="6"/>
+    </row>
+    <row r="327" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
@@ -12576,9 +12569,9 @@
       <c r="AD327" s="6"/>
       <c r="AE327" s="6"/>
       <c r="AF327" s="6"/>
-    </row>
-    <row r="328" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C328" s="6"/>
+      <c r="AG327" s="6"/>
+    </row>
+    <row r="328" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
@@ -12608,9 +12601,9 @@
       <c r="AD328" s="6"/>
       <c r="AE328" s="6"/>
       <c r="AF328" s="6"/>
-    </row>
-    <row r="329" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C329" s="6"/>
+      <c r="AG328" s="6"/>
+    </row>
+    <row r="329" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
@@ -12640,9 +12633,9 @@
       <c r="AD329" s="6"/>
       <c r="AE329" s="6"/>
       <c r="AF329" s="6"/>
-    </row>
-    <row r="330" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C330" s="6"/>
+      <c r="AG329" s="6"/>
+    </row>
+    <row r="330" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
@@ -12672,9 +12665,9 @@
       <c r="AD330" s="6"/>
       <c r="AE330" s="6"/>
       <c r="AF330" s="6"/>
-    </row>
-    <row r="331" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C331" s="6"/>
+      <c r="AG330" s="6"/>
+    </row>
+    <row r="331" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
@@ -12704,9 +12697,9 @@
       <c r="AD331" s="6"/>
       <c r="AE331" s="6"/>
       <c r="AF331" s="6"/>
-    </row>
-    <row r="332" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C332" s="6"/>
+      <c r="AG331" s="6"/>
+    </row>
+    <row r="332" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
@@ -12736,9 +12729,9 @@
       <c r="AD332" s="6"/>
       <c r="AE332" s="6"/>
       <c r="AF332" s="6"/>
-    </row>
-    <row r="333" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C333" s="6"/>
+      <c r="AG332" s="6"/>
+    </row>
+    <row r="333" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D333" s="6"/>
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
@@ -12768,9 +12761,9 @@
       <c r="AD333" s="6"/>
       <c r="AE333" s="6"/>
       <c r="AF333" s="6"/>
-    </row>
-    <row r="334" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C334" s="6"/>
+      <c r="AG333" s="6"/>
+    </row>
+    <row r="334" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
@@ -12800,9 +12793,9 @@
       <c r="AD334" s="6"/>
       <c r="AE334" s="6"/>
       <c r="AF334" s="6"/>
-    </row>
-    <row r="335" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C335" s="6"/>
+      <c r="AG334" s="6"/>
+    </row>
+    <row r="335" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
@@ -12832,9 +12825,9 @@
       <c r="AD335" s="6"/>
       <c r="AE335" s="6"/>
       <c r="AF335" s="6"/>
-    </row>
-    <row r="336" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C336" s="6"/>
+      <c r="AG335" s="6"/>
+    </row>
+    <row r="336" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
@@ -12864,9 +12857,9 @@
       <c r="AD336" s="6"/>
       <c r="AE336" s="6"/>
       <c r="AF336" s="6"/>
-    </row>
-    <row r="337" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C337" s="6"/>
+      <c r="AG336" s="6"/>
+    </row>
+    <row r="337" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D337" s="6"/>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
@@ -12896,9 +12889,9 @@
       <c r="AD337" s="6"/>
       <c r="AE337" s="6"/>
       <c r="AF337" s="6"/>
-    </row>
-    <row r="338" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C338" s="6"/>
+      <c r="AG337" s="6"/>
+    </row>
+    <row r="338" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D338" s="6"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
@@ -12928,9 +12921,9 @@
       <c r="AD338" s="6"/>
       <c r="AE338" s="6"/>
       <c r="AF338" s="6"/>
-    </row>
-    <row r="339" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C339" s="6"/>
+      <c r="AG338" s="6"/>
+    </row>
+    <row r="339" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D339" s="6"/>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
@@ -12960,9 +12953,9 @@
       <c r="AD339" s="6"/>
       <c r="AE339" s="6"/>
       <c r="AF339" s="6"/>
-    </row>
-    <row r="340" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C340" s="6"/>
+      <c r="AG339" s="6"/>
+    </row>
+    <row r="340" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D340" s="6"/>
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
@@ -12992,9 +12985,9 @@
       <c r="AD340" s="6"/>
       <c r="AE340" s="6"/>
       <c r="AF340" s="6"/>
-    </row>
-    <row r="341" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C341" s="6"/>
+      <c r="AG340" s="6"/>
+    </row>
+    <row r="341" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D341" s="6"/>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
@@ -13024,9 +13017,9 @@
       <c r="AD341" s="6"/>
       <c r="AE341" s="6"/>
       <c r="AF341" s="6"/>
-    </row>
-    <row r="342" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C342" s="6"/>
+      <c r="AG341" s="6"/>
+    </row>
+    <row r="342" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
@@ -13056,9 +13049,9 @@
       <c r="AD342" s="6"/>
       <c r="AE342" s="6"/>
       <c r="AF342" s="6"/>
-    </row>
-    <row r="343" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C343" s="6"/>
+      <c r="AG342" s="6"/>
+    </row>
+    <row r="343" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
@@ -13088,9 +13081,9 @@
       <c r="AD343" s="6"/>
       <c r="AE343" s="6"/>
       <c r="AF343" s="6"/>
-    </row>
-    <row r="344" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C344" s="6"/>
+      <c r="AG343" s="6"/>
+    </row>
+    <row r="344" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
@@ -13120,9 +13113,9 @@
       <c r="AD344" s="6"/>
       <c r="AE344" s="6"/>
       <c r="AF344" s="6"/>
-    </row>
-    <row r="345" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C345" s="6"/>
+      <c r="AG344" s="6"/>
+    </row>
+    <row r="345" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
@@ -13152,9 +13145,9 @@
       <c r="AD345" s="6"/>
       <c r="AE345" s="6"/>
       <c r="AF345" s="6"/>
-    </row>
-    <row r="346" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C346" s="6"/>
+      <c r="AG345" s="6"/>
+    </row>
+    <row r="346" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
@@ -13184,9 +13177,9 @@
       <c r="AD346" s="6"/>
       <c r="AE346" s="6"/>
       <c r="AF346" s="6"/>
-    </row>
-    <row r="347" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C347" s="6"/>
+      <c r="AG346" s="6"/>
+    </row>
+    <row r="347" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
@@ -13216,9 +13209,9 @@
       <c r="AD347" s="6"/>
       <c r="AE347" s="6"/>
       <c r="AF347" s="6"/>
-    </row>
-    <row r="348" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C348" s="6"/>
+      <c r="AG347" s="6"/>
+    </row>
+    <row r="348" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
@@ -13248,9 +13241,9 @@
       <c r="AD348" s="6"/>
       <c r="AE348" s="6"/>
       <c r="AF348" s="6"/>
-    </row>
-    <row r="349" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C349" s="6"/>
+      <c r="AG348" s="6"/>
+    </row>
+    <row r="349" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
@@ -13280,9 +13273,9 @@
       <c r="AD349" s="6"/>
       <c r="AE349" s="6"/>
       <c r="AF349" s="6"/>
-    </row>
-    <row r="350" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C350" s="6"/>
+      <c r="AG349" s="6"/>
+    </row>
+    <row r="350" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D350" s="6"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
@@ -13312,9 +13305,9 @@
       <c r="AD350" s="6"/>
       <c r="AE350" s="6"/>
       <c r="AF350" s="6"/>
-    </row>
-    <row r="351" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C351" s="6"/>
+      <c r="AG350" s="6"/>
+    </row>
+    <row r="351" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
@@ -13344,9 +13337,9 @@
       <c r="AD351" s="6"/>
       <c r="AE351" s="6"/>
       <c r="AF351" s="6"/>
-    </row>
-    <row r="352" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C352" s="6"/>
+      <c r="AG351" s="6"/>
+    </row>
+    <row r="352" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
@@ -13376,9 +13369,9 @@
       <c r="AD352" s="6"/>
       <c r="AE352" s="6"/>
       <c r="AF352" s="6"/>
-    </row>
-    <row r="353" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C353" s="6"/>
+      <c r="AG352" s="6"/>
+    </row>
+    <row r="353" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D353" s="6"/>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
@@ -13408,9 +13401,9 @@
       <c r="AD353" s="6"/>
       <c r="AE353" s="6"/>
       <c r="AF353" s="6"/>
-    </row>
-    <row r="354" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C354" s="6"/>
+      <c r="AG353" s="6"/>
+    </row>
+    <row r="354" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
@@ -13440,9 +13433,9 @@
       <c r="AD354" s="6"/>
       <c r="AE354" s="6"/>
       <c r="AF354" s="6"/>
-    </row>
-    <row r="355" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C355" s="6"/>
+      <c r="AG354" s="6"/>
+    </row>
+    <row r="355" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
@@ -13472,9 +13465,9 @@
       <c r="AD355" s="6"/>
       <c r="AE355" s="6"/>
       <c r="AF355" s="6"/>
-    </row>
-    <row r="356" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C356" s="6"/>
+      <c r="AG355" s="6"/>
+    </row>
+    <row r="356" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D356" s="6"/>
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
@@ -13504,9 +13497,9 @@
       <c r="AD356" s="6"/>
       <c r="AE356" s="6"/>
       <c r="AF356" s="6"/>
-    </row>
-    <row r="357" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C357" s="6"/>
+      <c r="AG356" s="6"/>
+    </row>
+    <row r="357" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D357" s="6"/>
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
@@ -13536,9 +13529,9 @@
       <c r="AD357" s="6"/>
       <c r="AE357" s="6"/>
       <c r="AF357" s="6"/>
-    </row>
-    <row r="358" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C358" s="6"/>
+      <c r="AG357" s="6"/>
+    </row>
+    <row r="358" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D358" s="6"/>
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
@@ -13568,9 +13561,9 @@
       <c r="AD358" s="6"/>
       <c r="AE358" s="6"/>
       <c r="AF358" s="6"/>
-    </row>
-    <row r="359" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C359" s="6"/>
+      <c r="AG358" s="6"/>
+    </row>
+    <row r="359" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D359" s="6"/>
       <c r="E359" s="6"/>
       <c r="F359" s="6"/>
@@ -13600,9 +13593,9 @@
       <c r="AD359" s="6"/>
       <c r="AE359" s="6"/>
       <c r="AF359" s="6"/>
-    </row>
-    <row r="360" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C360" s="6"/>
+      <c r="AG359" s="6"/>
+    </row>
+    <row r="360" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D360" s="6"/>
       <c r="E360" s="6"/>
       <c r="F360" s="6"/>
@@ -13632,9 +13625,9 @@
       <c r="AD360" s="6"/>
       <c r="AE360" s="6"/>
       <c r="AF360" s="6"/>
-    </row>
-    <row r="361" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C361" s="6"/>
+      <c r="AG360" s="6"/>
+    </row>
+    <row r="361" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D361" s="6"/>
       <c r="E361" s="6"/>
       <c r="F361" s="6"/>
@@ -13664,9 +13657,9 @@
       <c r="AD361" s="6"/>
       <c r="AE361" s="6"/>
       <c r="AF361" s="6"/>
-    </row>
-    <row r="362" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C362" s="6"/>
+      <c r="AG361" s="6"/>
+    </row>
+    <row r="362" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D362" s="6"/>
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
@@ -13696,9 +13689,9 @@
       <c r="AD362" s="6"/>
       <c r="AE362" s="6"/>
       <c r="AF362" s="6"/>
-    </row>
-    <row r="363" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C363" s="6"/>
+      <c r="AG362" s="6"/>
+    </row>
+    <row r="363" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D363" s="6"/>
       <c r="E363" s="6"/>
       <c r="F363" s="6"/>
@@ -13728,9 +13721,9 @@
       <c r="AD363" s="6"/>
       <c r="AE363" s="6"/>
       <c r="AF363" s="6"/>
-    </row>
-    <row r="364" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C364" s="6"/>
+      <c r="AG363" s="6"/>
+    </row>
+    <row r="364" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D364" s="6"/>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
@@ -13760,9 +13753,9 @@
       <c r="AD364" s="6"/>
       <c r="AE364" s="6"/>
       <c r="AF364" s="6"/>
-    </row>
-    <row r="365" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C365" s="6"/>
+      <c r="AG364" s="6"/>
+    </row>
+    <row r="365" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D365" s="6"/>
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
@@ -13792,9 +13785,9 @@
       <c r="AD365" s="6"/>
       <c r="AE365" s="6"/>
       <c r="AF365" s="6"/>
-    </row>
-    <row r="366" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C366" s="6"/>
+      <c r="AG365" s="6"/>
+    </row>
+    <row r="366" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
       <c r="F366" s="6"/>
@@ -13824,9 +13817,9 @@
       <c r="AD366" s="6"/>
       <c r="AE366" s="6"/>
       <c r="AF366" s="6"/>
-    </row>
-    <row r="367" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C367" s="6"/>
+      <c r="AG366" s="6"/>
+    </row>
+    <row r="367" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D367" s="6"/>
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
@@ -13856,9 +13849,9 @@
       <c r="AD367" s="6"/>
       <c r="AE367" s="6"/>
       <c r="AF367" s="6"/>
-    </row>
-    <row r="368" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C368" s="6"/>
+      <c r="AG367" s="6"/>
+    </row>
+    <row r="368" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D368" s="6"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
@@ -13888,9 +13881,9 @@
       <c r="AD368" s="6"/>
       <c r="AE368" s="6"/>
       <c r="AF368" s="6"/>
-    </row>
-    <row r="369" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C369" s="6"/>
+      <c r="AG368" s="6"/>
+    </row>
+    <row r="369" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D369" s="6"/>
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
@@ -13920,9 +13913,9 @@
       <c r="AD369" s="6"/>
       <c r="AE369" s="6"/>
       <c r="AF369" s="6"/>
-    </row>
-    <row r="370" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C370" s="6"/>
+      <c r="AG369" s="6"/>
+    </row>
+    <row r="370" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D370" s="6"/>
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
@@ -13952,9 +13945,9 @@
       <c r="AD370" s="6"/>
       <c r="AE370" s="6"/>
       <c r="AF370" s="6"/>
-    </row>
-    <row r="371" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C371" s="6"/>
+      <c r="AG370" s="6"/>
+    </row>
+    <row r="371" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D371" s="6"/>
       <c r="E371" s="6"/>
       <c r="F371" s="6"/>
@@ -13984,9 +13977,9 @@
       <c r="AD371" s="6"/>
       <c r="AE371" s="6"/>
       <c r="AF371" s="6"/>
-    </row>
-    <row r="372" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C372" s="6"/>
+      <c r="AG371" s="6"/>
+    </row>
+    <row r="372" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D372" s="6"/>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
@@ -14016,9 +14009,9 @@
       <c r="AD372" s="6"/>
       <c r="AE372" s="6"/>
       <c r="AF372" s="6"/>
-    </row>
-    <row r="373" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C373" s="6"/>
+      <c r="AG372" s="6"/>
+    </row>
+    <row r="373" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D373" s="6"/>
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
@@ -14048,9 +14041,9 @@
       <c r="AD373" s="6"/>
       <c r="AE373" s="6"/>
       <c r="AF373" s="6"/>
-    </row>
-    <row r="374" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C374" s="6"/>
+      <c r="AG373" s="6"/>
+    </row>
+    <row r="374" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D374" s="6"/>
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
@@ -14080,9 +14073,9 @@
       <c r="AD374" s="6"/>
       <c r="AE374" s="6"/>
       <c r="AF374" s="6"/>
-    </row>
-    <row r="375" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C375" s="6"/>
+      <c r="AG374" s="6"/>
+    </row>
+    <row r="375" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D375" s="6"/>
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
@@ -14112,9 +14105,9 @@
       <c r="AD375" s="6"/>
       <c r="AE375" s="6"/>
       <c r="AF375" s="6"/>
-    </row>
-    <row r="376" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C376" s="6"/>
+      <c r="AG375" s="6"/>
+    </row>
+    <row r="376" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D376" s="6"/>
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
@@ -14144,9 +14137,9 @@
       <c r="AD376" s="6"/>
       <c r="AE376" s="6"/>
       <c r="AF376" s="6"/>
-    </row>
-    <row r="377" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C377" s="6"/>
+      <c r="AG376" s="6"/>
+    </row>
+    <row r="377" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D377" s="6"/>
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
@@ -14176,9 +14169,9 @@
       <c r="AD377" s="6"/>
       <c r="AE377" s="6"/>
       <c r="AF377" s="6"/>
-    </row>
-    <row r="378" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C378" s="6"/>
+      <c r="AG377" s="6"/>
+    </row>
+    <row r="378" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D378" s="6"/>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
@@ -14208,9 +14201,9 @@
       <c r="AD378" s="6"/>
       <c r="AE378" s="6"/>
       <c r="AF378" s="6"/>
-    </row>
-    <row r="379" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C379" s="6"/>
+      <c r="AG378" s="6"/>
+    </row>
+    <row r="379" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D379" s="6"/>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
@@ -14240,9 +14233,9 @@
       <c r="AD379" s="6"/>
       <c r="AE379" s="6"/>
       <c r="AF379" s="6"/>
-    </row>
-    <row r="380" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C380" s="6"/>
+      <c r="AG379" s="6"/>
+    </row>
+    <row r="380" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D380" s="6"/>
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
@@ -14272,9 +14265,9 @@
       <c r="AD380" s="6"/>
       <c r="AE380" s="6"/>
       <c r="AF380" s="6"/>
-    </row>
-    <row r="381" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C381" s="6"/>
+      <c r="AG380" s="6"/>
+    </row>
+    <row r="381" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D381" s="6"/>
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
@@ -14304,9 +14297,9 @@
       <c r="AD381" s="6"/>
       <c r="AE381" s="6"/>
       <c r="AF381" s="6"/>
-    </row>
-    <row r="382" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C382" s="6"/>
+      <c r="AG381" s="6"/>
+    </row>
+    <row r="382" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D382" s="6"/>
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
@@ -14336,9 +14329,9 @@
       <c r="AD382" s="6"/>
       <c r="AE382" s="6"/>
       <c r="AF382" s="6"/>
-    </row>
-    <row r="383" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C383" s="6"/>
+      <c r="AG382" s="6"/>
+    </row>
+    <row r="383" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D383" s="6"/>
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
@@ -14368,9 +14361,9 @@
       <c r="AD383" s="6"/>
       <c r="AE383" s="6"/>
       <c r="AF383" s="6"/>
-    </row>
-    <row r="384" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C384" s="6"/>
+      <c r="AG383" s="6"/>
+    </row>
+    <row r="384" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D384" s="6"/>
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
@@ -14400,9 +14393,9 @@
       <c r="AD384" s="6"/>
       <c r="AE384" s="6"/>
       <c r="AF384" s="6"/>
-    </row>
-    <row r="385" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C385" s="6"/>
+      <c r="AG384" s="6"/>
+    </row>
+    <row r="385" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D385" s="6"/>
       <c r="E385" s="6"/>
       <c r="F385" s="6"/>
@@ -14432,9 +14425,9 @@
       <c r="AD385" s="6"/>
       <c r="AE385" s="6"/>
       <c r="AF385" s="6"/>
-    </row>
-    <row r="386" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C386" s="6"/>
+      <c r="AG385" s="6"/>
+    </row>
+    <row r="386" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D386" s="6"/>
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
@@ -14464,9 +14457,9 @@
       <c r="AD386" s="6"/>
       <c r="AE386" s="6"/>
       <c r="AF386" s="6"/>
-    </row>
-    <row r="387" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C387" s="6"/>
+      <c r="AG386" s="6"/>
+    </row>
+    <row r="387" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D387" s="6"/>
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
@@ -14496,9 +14489,9 @@
       <c r="AD387" s="6"/>
       <c r="AE387" s="6"/>
       <c r="AF387" s="6"/>
-    </row>
-    <row r="388" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C388" s="6"/>
+      <c r="AG387" s="6"/>
+    </row>
+    <row r="388" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D388" s="6"/>
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
@@ -14528,9 +14521,9 @@
       <c r="AD388" s="6"/>
       <c r="AE388" s="6"/>
       <c r="AF388" s="6"/>
-    </row>
-    <row r="389" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C389" s="6"/>
+      <c r="AG388" s="6"/>
+    </row>
+    <row r="389" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D389" s="6"/>
       <c r="E389" s="6"/>
       <c r="F389" s="6"/>
@@ -14560,9 +14553,9 @@
       <c r="AD389" s="6"/>
       <c r="AE389" s="6"/>
       <c r="AF389" s="6"/>
-    </row>
-    <row r="390" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C390" s="6"/>
+      <c r="AG389" s="6"/>
+    </row>
+    <row r="390" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D390" s="6"/>
       <c r="E390" s="6"/>
       <c r="F390" s="6"/>
@@ -14592,9 +14585,9 @@
       <c r="AD390" s="6"/>
       <c r="AE390" s="6"/>
       <c r="AF390" s="6"/>
-    </row>
-    <row r="391" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C391" s="6"/>
+      <c r="AG390" s="6"/>
+    </row>
+    <row r="391" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D391" s="6"/>
       <c r="E391" s="6"/>
       <c r="F391" s="6"/>
@@ -14624,9 +14617,9 @@
       <c r="AD391" s="6"/>
       <c r="AE391" s="6"/>
       <c r="AF391" s="6"/>
-    </row>
-    <row r="392" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C392" s="6"/>
+      <c r="AG391" s="6"/>
+    </row>
+    <row r="392" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D392" s="6"/>
       <c r="E392" s="6"/>
       <c r="F392" s="6"/>
@@ -14656,9 +14649,9 @@
       <c r="AD392" s="6"/>
       <c r="AE392" s="6"/>
       <c r="AF392" s="6"/>
-    </row>
-    <row r="393" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C393" s="6"/>
+      <c r="AG392" s="6"/>
+    </row>
+    <row r="393" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D393" s="6"/>
       <c r="E393" s="6"/>
       <c r="F393" s="6"/>
@@ -14688,9 +14681,9 @@
       <c r="AD393" s="6"/>
       <c r="AE393" s="6"/>
       <c r="AF393" s="6"/>
-    </row>
-    <row r="394" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C394" s="6"/>
+      <c r="AG393" s="6"/>
+    </row>
+    <row r="394" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D394" s="6"/>
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
@@ -14720,9 +14713,9 @@
       <c r="AD394" s="6"/>
       <c r="AE394" s="6"/>
       <c r="AF394" s="6"/>
-    </row>
-    <row r="395" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C395" s="6"/>
+      <c r="AG394" s="6"/>
+    </row>
+    <row r="395" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D395" s="6"/>
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
@@ -14752,9 +14745,9 @@
       <c r="AD395" s="6"/>
       <c r="AE395" s="6"/>
       <c r="AF395" s="6"/>
-    </row>
-    <row r="396" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C396" s="6"/>
+      <c r="AG395" s="6"/>
+    </row>
+    <row r="396" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D396" s="6"/>
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
@@ -14784,9 +14777,9 @@
       <c r="AD396" s="6"/>
       <c r="AE396" s="6"/>
       <c r="AF396" s="6"/>
-    </row>
-    <row r="397" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C397" s="6"/>
+      <c r="AG396" s="6"/>
+    </row>
+    <row r="397" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D397" s="6"/>
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
@@ -14816,9 +14809,9 @@
       <c r="AD397" s="6"/>
       <c r="AE397" s="6"/>
       <c r="AF397" s="6"/>
-    </row>
-    <row r="398" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C398" s="6"/>
+      <c r="AG397" s="6"/>
+    </row>
+    <row r="398" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D398" s="6"/>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
@@ -14848,9 +14841,9 @@
       <c r="AD398" s="6"/>
       <c r="AE398" s="6"/>
       <c r="AF398" s="6"/>
-    </row>
-    <row r="399" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C399" s="6"/>
+      <c r="AG398" s="6"/>
+    </row>
+    <row r="399" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D399" s="6"/>
       <c r="E399" s="6"/>
       <c r="F399" s="6"/>
@@ -14880,9 +14873,9 @@
       <c r="AD399" s="6"/>
       <c r="AE399" s="6"/>
       <c r="AF399" s="6"/>
-    </row>
-    <row r="400" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C400" s="6"/>
+      <c r="AG399" s="6"/>
+    </row>
+    <row r="400" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D400" s="6"/>
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
@@ -14912,9 +14905,9 @@
       <c r="AD400" s="6"/>
       <c r="AE400" s="6"/>
       <c r="AF400" s="6"/>
-    </row>
-    <row r="401" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C401" s="6"/>
+      <c r="AG400" s="6"/>
+    </row>
+    <row r="401" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D401" s="6"/>
       <c r="E401" s="6"/>
       <c r="F401" s="6"/>
@@ -14944,9 +14937,9 @@
       <c r="AD401" s="6"/>
       <c r="AE401" s="6"/>
       <c r="AF401" s="6"/>
-    </row>
-    <row r="402" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C402" s="6"/>
+      <c r="AG401" s="6"/>
+    </row>
+    <row r="402" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D402" s="6"/>
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
@@ -14976,9 +14969,9 @@
       <c r="AD402" s="6"/>
       <c r="AE402" s="6"/>
       <c r="AF402" s="6"/>
-    </row>
-    <row r="403" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C403" s="6"/>
+      <c r="AG402" s="6"/>
+    </row>
+    <row r="403" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D403" s="6"/>
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
@@ -15008,9 +15001,9 @@
       <c r="AD403" s="6"/>
       <c r="AE403" s="6"/>
       <c r="AF403" s="6"/>
-    </row>
-    <row r="404" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C404" s="6"/>
+      <c r="AG403" s="6"/>
+    </row>
+    <row r="404" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D404" s="6"/>
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
@@ -15040,9 +15033,9 @@
       <c r="AD404" s="6"/>
       <c r="AE404" s="6"/>
       <c r="AF404" s="6"/>
-    </row>
-    <row r="405" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C405" s="6"/>
+      <c r="AG404" s="6"/>
+    </row>
+    <row r="405" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D405" s="6"/>
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
@@ -15072,9 +15065,9 @@
       <c r="AD405" s="6"/>
       <c r="AE405" s="6"/>
       <c r="AF405" s="6"/>
-    </row>
-    <row r="406" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C406" s="6"/>
+      <c r="AG405" s="6"/>
+    </row>
+    <row r="406" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D406" s="6"/>
       <c r="E406" s="6"/>
       <c r="F406" s="6"/>
@@ -15104,9 +15097,9 @@
       <c r="AD406" s="6"/>
       <c r="AE406" s="6"/>
       <c r="AF406" s="6"/>
-    </row>
-    <row r="407" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C407" s="6"/>
+      <c r="AG406" s="6"/>
+    </row>
+    <row r="407" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D407" s="6"/>
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
@@ -15136,9 +15129,9 @@
       <c r="AD407" s="6"/>
       <c r="AE407" s="6"/>
       <c r="AF407" s="6"/>
-    </row>
-    <row r="408" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C408" s="6"/>
+      <c r="AG407" s="6"/>
+    </row>
+    <row r="408" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D408" s="6"/>
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
@@ -15168,9 +15161,9 @@
       <c r="AD408" s="6"/>
       <c r="AE408" s="6"/>
       <c r="AF408" s="6"/>
-    </row>
-    <row r="409" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C409" s="6"/>
+      <c r="AG408" s="6"/>
+    </row>
+    <row r="409" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D409" s="6"/>
       <c r="E409" s="6"/>
       <c r="F409" s="6"/>
@@ -15200,9 +15193,9 @@
       <c r="AD409" s="6"/>
       <c r="AE409" s="6"/>
       <c r="AF409" s="6"/>
-    </row>
-    <row r="410" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C410" s="6"/>
+      <c r="AG409" s="6"/>
+    </row>
+    <row r="410" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D410" s="6"/>
       <c r="E410" s="6"/>
       <c r="F410" s="6"/>
@@ -15232,9 +15225,9 @@
       <c r="AD410" s="6"/>
       <c r="AE410" s="6"/>
       <c r="AF410" s="6"/>
-    </row>
-    <row r="411" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C411" s="6"/>
+      <c r="AG410" s="6"/>
+    </row>
+    <row r="411" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D411" s="6"/>
       <c r="E411" s="6"/>
       <c r="F411" s="6"/>
@@ -15264,9 +15257,9 @@
       <c r="AD411" s="6"/>
       <c r="AE411" s="6"/>
       <c r="AF411" s="6"/>
-    </row>
-    <row r="412" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C412" s="6"/>
+      <c r="AG411" s="6"/>
+    </row>
+    <row r="412" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D412" s="6"/>
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
@@ -15296,9 +15289,9 @@
       <c r="AD412" s="6"/>
       <c r="AE412" s="6"/>
       <c r="AF412" s="6"/>
-    </row>
-    <row r="413" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C413" s="6"/>
+      <c r="AG412" s="6"/>
+    </row>
+    <row r="413" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D413" s="6"/>
       <c r="E413" s="6"/>
       <c r="F413" s="6"/>
@@ -15328,9 +15321,9 @@
       <c r="AD413" s="6"/>
       <c r="AE413" s="6"/>
       <c r="AF413" s="6"/>
-    </row>
-    <row r="414" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C414" s="6"/>
+      <c r="AG413" s="6"/>
+    </row>
+    <row r="414" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D414" s="6"/>
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
@@ -15360,9 +15353,9 @@
       <c r="AD414" s="6"/>
       <c r="AE414" s="6"/>
       <c r="AF414" s="6"/>
-    </row>
-    <row r="415" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C415" s="6"/>
+      <c r="AG414" s="6"/>
+    </row>
+    <row r="415" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
       <c r="F415" s="6"/>
@@ -15392,9 +15385,9 @@
       <c r="AD415" s="6"/>
       <c r="AE415" s="6"/>
       <c r="AF415" s="6"/>
-    </row>
-    <row r="416" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C416" s="6"/>
+      <c r="AG415" s="6"/>
+    </row>
+    <row r="416" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D416" s="6"/>
       <c r="E416" s="6"/>
       <c r="F416" s="6"/>
@@ -15424,9 +15417,9 @@
       <c r="AD416" s="6"/>
       <c r="AE416" s="6"/>
       <c r="AF416" s="6"/>
-    </row>
-    <row r="417" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C417" s="6"/>
+      <c r="AG416" s="6"/>
+    </row>
+    <row r="417" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D417" s="6"/>
       <c r="E417" s="6"/>
       <c r="F417" s="6"/>
@@ -15456,9 +15449,9 @@
       <c r="AD417" s="6"/>
       <c r="AE417" s="6"/>
       <c r="AF417" s="6"/>
-    </row>
-    <row r="418" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C418" s="6"/>
+      <c r="AG417" s="6"/>
+    </row>
+    <row r="418" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D418" s="6"/>
       <c r="E418" s="6"/>
       <c r="F418" s="6"/>
@@ -15488,9 +15481,9 @@
       <c r="AD418" s="6"/>
       <c r="AE418" s="6"/>
       <c r="AF418" s="6"/>
-    </row>
-    <row r="419" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C419" s="6"/>
+      <c r="AG418" s="6"/>
+    </row>
+    <row r="419" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D419" s="6"/>
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
@@ -15520,9 +15513,9 @@
       <c r="AD419" s="6"/>
       <c r="AE419" s="6"/>
       <c r="AF419" s="6"/>
-    </row>
-    <row r="420" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C420" s="6"/>
+      <c r="AG419" s="6"/>
+    </row>
+    <row r="420" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D420" s="6"/>
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
@@ -15552,9 +15545,9 @@
       <c r="AD420" s="6"/>
       <c r="AE420" s="6"/>
       <c r="AF420" s="6"/>
-    </row>
-    <row r="421" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C421" s="6"/>
+      <c r="AG420" s="6"/>
+    </row>
+    <row r="421" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D421" s="6"/>
       <c r="E421" s="6"/>
       <c r="F421" s="6"/>
@@ -15584,9 +15577,9 @@
       <c r="AD421" s="6"/>
       <c r="AE421" s="6"/>
       <c r="AF421" s="6"/>
-    </row>
-    <row r="422" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C422" s="6"/>
+      <c r="AG421" s="6"/>
+    </row>
+    <row r="422" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D422" s="6"/>
       <c r="E422" s="6"/>
       <c r="F422" s="6"/>
@@ -15616,9 +15609,9 @@
       <c r="AD422" s="6"/>
       <c r="AE422" s="6"/>
       <c r="AF422" s="6"/>
-    </row>
-    <row r="423" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C423" s="6"/>
+      <c r="AG422" s="6"/>
+    </row>
+    <row r="423" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D423" s="6"/>
       <c r="E423" s="6"/>
       <c r="F423" s="6"/>
@@ -15648,9 +15641,9 @@
       <c r="AD423" s="6"/>
       <c r="AE423" s="6"/>
       <c r="AF423" s="6"/>
-    </row>
-    <row r="424" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C424" s="6"/>
+      <c r="AG423" s="6"/>
+    </row>
+    <row r="424" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D424" s="6"/>
       <c r="E424" s="6"/>
       <c r="F424" s="6"/>
@@ -15680,9 +15673,9 @@
       <c r="AD424" s="6"/>
       <c r="AE424" s="6"/>
       <c r="AF424" s="6"/>
-    </row>
-    <row r="425" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C425" s="6"/>
+      <c r="AG424" s="6"/>
+    </row>
+    <row r="425" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D425" s="6"/>
       <c r="E425" s="6"/>
       <c r="F425" s="6"/>
@@ -15712,9 +15705,9 @@
       <c r="AD425" s="6"/>
       <c r="AE425" s="6"/>
       <c r="AF425" s="6"/>
-    </row>
-    <row r="426" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C426" s="6"/>
+      <c r="AG425" s="6"/>
+    </row>
+    <row r="426" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D426" s="6"/>
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
@@ -15744,9 +15737,9 @@
       <c r="AD426" s="6"/>
       <c r="AE426" s="6"/>
       <c r="AF426" s="6"/>
-    </row>
-    <row r="427" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C427" s="6"/>
+      <c r="AG426" s="6"/>
+    </row>
+    <row r="427" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D427" s="6"/>
       <c r="E427" s="6"/>
       <c r="F427" s="6"/>
@@ -15776,9 +15769,9 @@
       <c r="AD427" s="6"/>
       <c r="AE427" s="6"/>
       <c r="AF427" s="6"/>
-    </row>
-    <row r="428" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C428" s="6"/>
+      <c r="AG427" s="6"/>
+    </row>
+    <row r="428" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D428" s="6"/>
       <c r="E428" s="6"/>
       <c r="F428" s="6"/>
@@ -15808,9 +15801,9 @@
       <c r="AD428" s="6"/>
       <c r="AE428" s="6"/>
       <c r="AF428" s="6"/>
-    </row>
-    <row r="429" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C429" s="6"/>
+      <c r="AG428" s="6"/>
+    </row>
+    <row r="429" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D429" s="6"/>
       <c r="E429" s="6"/>
       <c r="F429" s="6"/>
@@ -15840,9 +15833,9 @@
       <c r="AD429" s="6"/>
       <c r="AE429" s="6"/>
       <c r="AF429" s="6"/>
-    </row>
-    <row r="430" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C430" s="6"/>
+      <c r="AG429" s="6"/>
+    </row>
+    <row r="430" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D430" s="6"/>
       <c r="E430" s="6"/>
       <c r="F430" s="6"/>
@@ -15872,9 +15865,9 @@
       <c r="AD430" s="6"/>
       <c r="AE430" s="6"/>
       <c r="AF430" s="6"/>
-    </row>
-    <row r="431" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C431" s="6"/>
+      <c r="AG430" s="6"/>
+    </row>
+    <row r="431" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D431" s="6"/>
       <c r="E431" s="6"/>
       <c r="F431" s="6"/>
@@ -15904,9 +15897,9 @@
       <c r="AD431" s="6"/>
       <c r="AE431" s="6"/>
       <c r="AF431" s="6"/>
-    </row>
-    <row r="432" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C432" s="6"/>
+      <c r="AG431" s="6"/>
+    </row>
+    <row r="432" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D432" s="6"/>
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
@@ -15936,9 +15929,9 @@
       <c r="AD432" s="6"/>
       <c r="AE432" s="6"/>
       <c r="AF432" s="6"/>
-    </row>
-    <row r="433" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C433" s="6"/>
+      <c r="AG432" s="6"/>
+    </row>
+    <row r="433" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D433" s="6"/>
       <c r="E433" s="6"/>
       <c r="F433" s="6"/>
@@ -15968,9 +15961,9 @@
       <c r="AD433" s="6"/>
       <c r="AE433" s="6"/>
       <c r="AF433" s="6"/>
-    </row>
-    <row r="434" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C434" s="6"/>
+      <c r="AG433" s="6"/>
+    </row>
+    <row r="434" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D434" s="6"/>
       <c r="E434" s="6"/>
       <c r="F434" s="6"/>
@@ -16000,9 +15993,9 @@
       <c r="AD434" s="6"/>
       <c r="AE434" s="6"/>
       <c r="AF434" s="6"/>
-    </row>
-    <row r="435" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C435" s="6"/>
+      <c r="AG434" s="6"/>
+    </row>
+    <row r="435" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D435" s="6"/>
       <c r="E435" s="6"/>
       <c r="F435" s="6"/>
@@ -16032,9 +16025,9 @@
       <c r="AD435" s="6"/>
       <c r="AE435" s="6"/>
       <c r="AF435" s="6"/>
-    </row>
-    <row r="436" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C436" s="6"/>
+      <c r="AG435" s="6"/>
+    </row>
+    <row r="436" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D436" s="6"/>
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
@@ -16064,9 +16057,9 @@
       <c r="AD436" s="6"/>
       <c r="AE436" s="6"/>
       <c r="AF436" s="6"/>
-    </row>
-    <row r="437" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C437" s="6"/>
+      <c r="AG436" s="6"/>
+    </row>
+    <row r="437" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D437" s="6"/>
       <c r="E437" s="6"/>
       <c r="F437" s="6"/>
@@ -16096,9 +16089,9 @@
       <c r="AD437" s="6"/>
       <c r="AE437" s="6"/>
       <c r="AF437" s="6"/>
-    </row>
-    <row r="438" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C438" s="6"/>
+      <c r="AG437" s="6"/>
+    </row>
+    <row r="438" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D438" s="6"/>
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
@@ -16128,9 +16121,9 @@
       <c r="AD438" s="6"/>
       <c r="AE438" s="6"/>
       <c r="AF438" s="6"/>
-    </row>
-    <row r="439" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C439" s="6"/>
+      <c r="AG438" s="6"/>
+    </row>
+    <row r="439" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D439" s="6"/>
       <c r="E439" s="6"/>
       <c r="F439" s="6"/>
@@ -16160,9 +16153,9 @@
       <c r="AD439" s="6"/>
       <c r="AE439" s="6"/>
       <c r="AF439" s="6"/>
-    </row>
-    <row r="440" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C440" s="6"/>
+      <c r="AG439" s="6"/>
+    </row>
+    <row r="440" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D440" s="6"/>
       <c r="E440" s="6"/>
       <c r="F440" s="6"/>
@@ -16192,9 +16185,9 @@
       <c r="AD440" s="6"/>
       <c r="AE440" s="6"/>
       <c r="AF440" s="6"/>
-    </row>
-    <row r="441" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C441" s="6"/>
+      <c r="AG440" s="6"/>
+    </row>
+    <row r="441" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D441" s="6"/>
       <c r="E441" s="6"/>
       <c r="F441" s="6"/>
@@ -16224,9 +16217,9 @@
       <c r="AD441" s="6"/>
       <c r="AE441" s="6"/>
       <c r="AF441" s="6"/>
-    </row>
-    <row r="442" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C442" s="6"/>
+      <c r="AG441" s="6"/>
+    </row>
+    <row r="442" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D442" s="6"/>
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
@@ -16256,9 +16249,9 @@
       <c r="AD442" s="6"/>
       <c r="AE442" s="6"/>
       <c r="AF442" s="6"/>
-    </row>
-    <row r="443" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C443" s="6"/>
+      <c r="AG442" s="6"/>
+    </row>
+    <row r="443" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D443" s="6"/>
       <c r="E443" s="6"/>
       <c r="F443" s="6"/>
@@ -16288,9 +16281,9 @@
       <c r="AD443" s="6"/>
       <c r="AE443" s="6"/>
       <c r="AF443" s="6"/>
-    </row>
-    <row r="444" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C444" s="6"/>
+      <c r="AG443" s="6"/>
+    </row>
+    <row r="444" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D444" s="6"/>
       <c r="E444" s="6"/>
       <c r="F444" s="6"/>
@@ -16320,9 +16313,9 @@
       <c r="AD444" s="6"/>
       <c r="AE444" s="6"/>
       <c r="AF444" s="6"/>
-    </row>
-    <row r="445" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C445" s="6"/>
+      <c r="AG444" s="6"/>
+    </row>
+    <row r="445" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D445" s="6"/>
       <c r="E445" s="6"/>
       <c r="F445" s="6"/>
@@ -16352,9 +16345,9 @@
       <c r="AD445" s="6"/>
       <c r="AE445" s="6"/>
       <c r="AF445" s="6"/>
-    </row>
-    <row r="446" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C446" s="6"/>
+      <c r="AG445" s="6"/>
+    </row>
+    <row r="446" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D446" s="6"/>
       <c r="E446" s="6"/>
       <c r="F446" s="6"/>
@@ -16384,9 +16377,9 @@
       <c r="AD446" s="6"/>
       <c r="AE446" s="6"/>
       <c r="AF446" s="6"/>
-    </row>
-    <row r="447" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C447" s="6"/>
+      <c r="AG446" s="6"/>
+    </row>
+    <row r="447" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D447" s="6"/>
       <c r="E447" s="6"/>
       <c r="F447" s="6"/>
@@ -16416,9 +16409,9 @@
       <c r="AD447" s="6"/>
       <c r="AE447" s="6"/>
       <c r="AF447" s="6"/>
-    </row>
-    <row r="448" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C448" s="6"/>
+      <c r="AG447" s="6"/>
+    </row>
+    <row r="448" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D448" s="6"/>
       <c r="E448" s="6"/>
       <c r="F448" s="6"/>
@@ -16448,9 +16441,9 @@
       <c r="AD448" s="6"/>
       <c r="AE448" s="6"/>
       <c r="AF448" s="6"/>
-    </row>
-    <row r="449" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C449" s="6"/>
+      <c r="AG448" s="6"/>
+    </row>
+    <row r="449" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D449" s="6"/>
       <c r="E449" s="6"/>
       <c r="F449" s="6"/>
@@ -16480,9 +16473,9 @@
       <c r="AD449" s="6"/>
       <c r="AE449" s="6"/>
       <c r="AF449" s="6"/>
-    </row>
-    <row r="450" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C450" s="6"/>
+      <c r="AG449" s="6"/>
+    </row>
+    <row r="450" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D450" s="6"/>
       <c r="E450" s="6"/>
       <c r="F450" s="6"/>
@@ -16512,9 +16505,9 @@
       <c r="AD450" s="6"/>
       <c r="AE450" s="6"/>
       <c r="AF450" s="6"/>
-    </row>
-    <row r="451" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C451" s="6"/>
+      <c r="AG450" s="6"/>
+    </row>
+    <row r="451" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D451" s="6"/>
       <c r="E451" s="6"/>
       <c r="F451" s="6"/>
@@ -16544,9 +16537,9 @@
       <c r="AD451" s="6"/>
       <c r="AE451" s="6"/>
       <c r="AF451" s="6"/>
-    </row>
-    <row r="452" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C452" s="6"/>
+      <c r="AG451" s="6"/>
+    </row>
+    <row r="452" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D452" s="6"/>
       <c r="E452" s="6"/>
       <c r="F452" s="6"/>
@@ -16576,9 +16569,9 @@
       <c r="AD452" s="6"/>
       <c r="AE452" s="6"/>
       <c r="AF452" s="6"/>
-    </row>
-    <row r="453" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C453" s="6"/>
+      <c r="AG452" s="6"/>
+    </row>
+    <row r="453" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D453" s="6"/>
       <c r="E453" s="6"/>
       <c r="F453" s="6"/>
@@ -16608,9 +16601,9 @@
       <c r="AD453" s="6"/>
       <c r="AE453" s="6"/>
       <c r="AF453" s="6"/>
-    </row>
-    <row r="454" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C454" s="6"/>
+      <c r="AG453" s="6"/>
+    </row>
+    <row r="454" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D454" s="6"/>
       <c r="E454" s="6"/>
       <c r="F454" s="6"/>
@@ -16640,9 +16633,9 @@
       <c r="AD454" s="6"/>
       <c r="AE454" s="6"/>
       <c r="AF454" s="6"/>
-    </row>
-    <row r="455" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C455" s="6"/>
+      <c r="AG454" s="6"/>
+    </row>
+    <row r="455" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D455" s="6"/>
       <c r="E455" s="6"/>
       <c r="F455" s="6"/>
@@ -16672,9 +16665,9 @@
       <c r="AD455" s="6"/>
       <c r="AE455" s="6"/>
       <c r="AF455" s="6"/>
-    </row>
-    <row r="456" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C456" s="6"/>
+      <c r="AG455" s="6"/>
+    </row>
+    <row r="456" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D456" s="6"/>
       <c r="E456" s="6"/>
       <c r="F456" s="6"/>
@@ -16704,9 +16697,9 @@
       <c r="AD456" s="6"/>
       <c r="AE456" s="6"/>
       <c r="AF456" s="6"/>
-    </row>
-    <row r="457" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C457" s="6"/>
+      <c r="AG456" s="6"/>
+    </row>
+    <row r="457" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D457" s="6"/>
       <c r="E457" s="6"/>
       <c r="F457" s="6"/>
@@ -16736,9 +16729,9 @@
       <c r="AD457" s="6"/>
       <c r="AE457" s="6"/>
       <c r="AF457" s="6"/>
-    </row>
-    <row r="458" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C458" s="6"/>
+      <c r="AG457" s="6"/>
+    </row>
+    <row r="458" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D458" s="6"/>
       <c r="E458" s="6"/>
       <c r="F458" s="6"/>
@@ -16768,9 +16761,9 @@
       <c r="AD458" s="6"/>
       <c r="AE458" s="6"/>
       <c r="AF458" s="6"/>
-    </row>
-    <row r="459" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C459" s="6"/>
+      <c r="AG458" s="6"/>
+    </row>
+    <row r="459" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D459" s="6"/>
       <c r="E459" s="6"/>
       <c r="F459" s="6"/>
@@ -16800,9 +16793,9 @@
       <c r="AD459" s="6"/>
       <c r="AE459" s="6"/>
       <c r="AF459" s="6"/>
-    </row>
-    <row r="460" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C460" s="6"/>
+      <c r="AG459" s="6"/>
+    </row>
+    <row r="460" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D460" s="6"/>
       <c r="E460" s="6"/>
       <c r="F460" s="6"/>
@@ -16832,9 +16825,9 @@
       <c r="AD460" s="6"/>
       <c r="AE460" s="6"/>
       <c r="AF460" s="6"/>
-    </row>
-    <row r="461" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C461" s="6"/>
+      <c r="AG460" s="6"/>
+    </row>
+    <row r="461" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D461" s="6"/>
       <c r="E461" s="6"/>
       <c r="F461" s="6"/>
@@ -16864,9 +16857,9 @@
       <c r="AD461" s="6"/>
       <c r="AE461" s="6"/>
       <c r="AF461" s="6"/>
-    </row>
-    <row r="462" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C462" s="6"/>
+      <c r="AG461" s="6"/>
+    </row>
+    <row r="462" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D462" s="6"/>
       <c r="E462" s="6"/>
       <c r="F462" s="6"/>
@@ -16896,9 +16889,9 @@
       <c r="AD462" s="6"/>
       <c r="AE462" s="6"/>
       <c r="AF462" s="6"/>
-    </row>
-    <row r="463" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C463" s="6"/>
+      <c r="AG462" s="6"/>
+    </row>
+    <row r="463" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D463" s="6"/>
       <c r="E463" s="6"/>
       <c r="F463" s="6"/>
@@ -16928,9 +16921,9 @@
       <c r="AD463" s="6"/>
       <c r="AE463" s="6"/>
       <c r="AF463" s="6"/>
-    </row>
-    <row r="464" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C464" s="6"/>
+      <c r="AG463" s="6"/>
+    </row>
+    <row r="464" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D464" s="6"/>
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
@@ -16960,9 +16953,9 @@
       <c r="AD464" s="6"/>
       <c r="AE464" s="6"/>
       <c r="AF464" s="6"/>
-    </row>
-    <row r="465" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C465" s="6"/>
+      <c r="AG464" s="6"/>
+    </row>
+    <row r="465" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D465" s="6"/>
       <c r="E465" s="6"/>
       <c r="F465" s="6"/>
@@ -16992,9 +16985,9 @@
       <c r="AD465" s="6"/>
       <c r="AE465" s="6"/>
       <c r="AF465" s="6"/>
-    </row>
-    <row r="466" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C466" s="6"/>
+      <c r="AG465" s="6"/>
+    </row>
+    <row r="466" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D466" s="6"/>
       <c r="E466" s="6"/>
       <c r="F466" s="6"/>
@@ -17024,9 +17017,9 @@
       <c r="AD466" s="6"/>
       <c r="AE466" s="6"/>
       <c r="AF466" s="6"/>
-    </row>
-    <row r="467" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C467" s="6"/>
+      <c r="AG466" s="6"/>
+    </row>
+    <row r="467" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D467" s="6"/>
       <c r="E467" s="6"/>
       <c r="F467" s="6"/>
@@ -17056,9 +17049,9 @@
       <c r="AD467" s="6"/>
       <c r="AE467" s="6"/>
       <c r="AF467" s="6"/>
-    </row>
-    <row r="468" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C468" s="6"/>
+      <c r="AG467" s="6"/>
+    </row>
+    <row r="468" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D468" s="6"/>
       <c r="E468" s="6"/>
       <c r="F468" s="6"/>
@@ -17088,9 +17081,9 @@
       <c r="AD468" s="6"/>
       <c r="AE468" s="6"/>
       <c r="AF468" s="6"/>
-    </row>
-    <row r="469" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C469" s="6"/>
+      <c r="AG468" s="6"/>
+    </row>
+    <row r="469" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D469" s="6"/>
       <c r="E469" s="6"/>
       <c r="F469" s="6"/>
@@ -17120,9 +17113,9 @@
       <c r="AD469" s="6"/>
       <c r="AE469" s="6"/>
       <c r="AF469" s="6"/>
-    </row>
-    <row r="470" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C470" s="6"/>
+      <c r="AG469" s="6"/>
+    </row>
+    <row r="470" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D470" s="6"/>
       <c r="E470" s="6"/>
       <c r="F470" s="6"/>
@@ -17152,9 +17145,9 @@
       <c r="AD470" s="6"/>
       <c r="AE470" s="6"/>
       <c r="AF470" s="6"/>
-    </row>
-    <row r="471" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C471" s="6"/>
+      <c r="AG470" s="6"/>
+    </row>
+    <row r="471" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D471" s="6"/>
       <c r="E471" s="6"/>
       <c r="F471" s="6"/>
@@ -17184,9 +17177,9 @@
       <c r="AD471" s="6"/>
       <c r="AE471" s="6"/>
       <c r="AF471" s="6"/>
-    </row>
-    <row r="472" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C472" s="6"/>
+      <c r="AG471" s="6"/>
+    </row>
+    <row r="472" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D472" s="6"/>
       <c r="E472" s="6"/>
       <c r="F472" s="6"/>
@@ -17216,9 +17209,9 @@
       <c r="AD472" s="6"/>
       <c r="AE472" s="6"/>
       <c r="AF472" s="6"/>
-    </row>
-    <row r="473" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C473" s="6"/>
+      <c r="AG472" s="6"/>
+    </row>
+    <row r="473" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D473" s="6"/>
       <c r="E473" s="6"/>
       <c r="F473" s="6"/>
@@ -17248,9 +17241,9 @@
       <c r="AD473" s="6"/>
       <c r="AE473" s="6"/>
       <c r="AF473" s="6"/>
-    </row>
-    <row r="474" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C474" s="6"/>
+      <c r="AG473" s="6"/>
+    </row>
+    <row r="474" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D474" s="6"/>
       <c r="E474" s="6"/>
       <c r="F474" s="6"/>
@@ -17280,9 +17273,9 @@
       <c r="AD474" s="6"/>
       <c r="AE474" s="6"/>
       <c r="AF474" s="6"/>
-    </row>
-    <row r="475" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C475" s="6"/>
+      <c r="AG474" s="6"/>
+    </row>
+    <row r="475" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D475" s="6"/>
       <c r="E475" s="6"/>
       <c r="F475" s="6"/>
@@ -17312,9 +17305,9 @@
       <c r="AD475" s="6"/>
       <c r="AE475" s="6"/>
       <c r="AF475" s="6"/>
-    </row>
-    <row r="476" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C476" s="6"/>
+      <c r="AG475" s="6"/>
+    </row>
+    <row r="476" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D476" s="6"/>
       <c r="E476" s="6"/>
       <c r="F476" s="6"/>
@@ -17344,9 +17337,9 @@
       <c r="AD476" s="6"/>
       <c r="AE476" s="6"/>
       <c r="AF476" s="6"/>
-    </row>
-    <row r="477" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C477" s="6"/>
+      <c r="AG476" s="6"/>
+    </row>
+    <row r="477" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D477" s="6"/>
       <c r="E477" s="6"/>
       <c r="F477" s="6"/>
@@ -17376,9 +17369,9 @@
       <c r="AD477" s="6"/>
       <c r="AE477" s="6"/>
       <c r="AF477" s="6"/>
-    </row>
-    <row r="478" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C478" s="6"/>
+      <c r="AG477" s="6"/>
+    </row>
+    <row r="478" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D478" s="6"/>
       <c r="E478" s="6"/>
       <c r="F478" s="6"/>
@@ -17408,9 +17401,9 @@
       <c r="AD478" s="6"/>
       <c r="AE478" s="6"/>
       <c r="AF478" s="6"/>
-    </row>
-    <row r="479" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C479" s="6"/>
+      <c r="AG478" s="6"/>
+    </row>
+    <row r="479" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D479" s="6"/>
       <c r="E479" s="6"/>
       <c r="F479" s="6"/>
@@ -17440,9 +17433,9 @@
       <c r="AD479" s="6"/>
       <c r="AE479" s="6"/>
       <c r="AF479" s="6"/>
-    </row>
-    <row r="480" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C480" s="6"/>
+      <c r="AG479" s="6"/>
+    </row>
+    <row r="480" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D480" s="6"/>
       <c r="E480" s="6"/>
       <c r="F480" s="6"/>
@@ -17472,9 +17465,9 @@
       <c r="AD480" s="6"/>
       <c r="AE480" s="6"/>
       <c r="AF480" s="6"/>
-    </row>
-    <row r="481" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C481" s="6"/>
+      <c r="AG480" s="6"/>
+    </row>
+    <row r="481" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D481" s="6"/>
       <c r="E481" s="6"/>
       <c r="F481" s="6"/>
@@ -17504,9 +17497,9 @@
       <c r="AD481" s="6"/>
       <c r="AE481" s="6"/>
       <c r="AF481" s="6"/>
-    </row>
-    <row r="482" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C482" s="6"/>
+      <c r="AG481" s="6"/>
+    </row>
+    <row r="482" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D482" s="6"/>
       <c r="E482" s="6"/>
       <c r="F482" s="6"/>
@@ -17536,9 +17529,9 @@
       <c r="AD482" s="6"/>
       <c r="AE482" s="6"/>
       <c r="AF482" s="6"/>
-    </row>
-    <row r="483" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C483" s="6"/>
+      <c r="AG482" s="6"/>
+    </row>
+    <row r="483" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D483" s="6"/>
       <c r="E483" s="6"/>
       <c r="F483" s="6"/>
@@ -17568,9 +17561,9 @@
       <c r="AD483" s="6"/>
       <c r="AE483" s="6"/>
       <c r="AF483" s="6"/>
-    </row>
-    <row r="484" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C484" s="6"/>
+      <c r="AG483" s="6"/>
+    </row>
+    <row r="484" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D484" s="6"/>
       <c r="E484" s="6"/>
       <c r="F484" s="6"/>
@@ -17600,9 +17593,9 @@
       <c r="AD484" s="6"/>
       <c r="AE484" s="6"/>
       <c r="AF484" s="6"/>
-    </row>
-    <row r="485" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C485" s="6"/>
+      <c r="AG484" s="6"/>
+    </row>
+    <row r="485" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D485" s="6"/>
       <c r="E485" s="6"/>
       <c r="F485" s="6"/>
@@ -17632,9 +17625,9 @@
       <c r="AD485" s="6"/>
       <c r="AE485" s="6"/>
       <c r="AF485" s="6"/>
-    </row>
-    <row r="486" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C486" s="6"/>
+      <c r="AG485" s="6"/>
+    </row>
+    <row r="486" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D486" s="6"/>
       <c r="E486" s="6"/>
       <c r="F486" s="6"/>
@@ -17664,9 +17657,9 @@
       <c r="AD486" s="6"/>
       <c r="AE486" s="6"/>
       <c r="AF486" s="6"/>
-    </row>
-    <row r="487" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C487" s="6"/>
+      <c r="AG486" s="6"/>
+    </row>
+    <row r="487" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D487" s="6"/>
       <c r="E487" s="6"/>
       <c r="F487" s="6"/>
@@ -17696,9 +17689,9 @@
       <c r="AD487" s="6"/>
       <c r="AE487" s="6"/>
       <c r="AF487" s="6"/>
-    </row>
-    <row r="488" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C488" s="6"/>
+      <c r="AG487" s="6"/>
+    </row>
+    <row r="488" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D488" s="6"/>
       <c r="E488" s="6"/>
       <c r="F488" s="6"/>
@@ -17728,9 +17721,9 @@
       <c r="AD488" s="6"/>
       <c r="AE488" s="6"/>
       <c r="AF488" s="6"/>
-    </row>
-    <row r="489" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C489" s="6"/>
+      <c r="AG488" s="6"/>
+    </row>
+    <row r="489" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D489" s="6"/>
       <c r="E489" s="6"/>
       <c r="F489" s="6"/>
@@ -17760,9 +17753,9 @@
       <c r="AD489" s="6"/>
       <c r="AE489" s="6"/>
       <c r="AF489" s="6"/>
-    </row>
-    <row r="490" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C490" s="6"/>
+      <c r="AG489" s="6"/>
+    </row>
+    <row r="490" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D490" s="6"/>
       <c r="E490" s="6"/>
       <c r="F490" s="6"/>
@@ -17792,9 +17785,9 @@
       <c r="AD490" s="6"/>
       <c r="AE490" s="6"/>
       <c r="AF490" s="6"/>
-    </row>
-    <row r="491" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C491" s="6"/>
+      <c r="AG490" s="6"/>
+    </row>
+    <row r="491" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D491" s="6"/>
       <c r="E491" s="6"/>
       <c r="F491" s="6"/>
@@ -17824,9 +17817,9 @@
       <c r="AD491" s="6"/>
       <c r="AE491" s="6"/>
       <c r="AF491" s="6"/>
-    </row>
-    <row r="492" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C492" s="6"/>
+      <c r="AG491" s="6"/>
+    </row>
+    <row r="492" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D492" s="6"/>
       <c r="E492" s="6"/>
       <c r="F492" s="6"/>
@@ -17856,9 +17849,9 @@
       <c r="AD492" s="6"/>
       <c r="AE492" s="6"/>
       <c r="AF492" s="6"/>
-    </row>
-    <row r="493" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C493" s="6"/>
+      <c r="AG492" s="6"/>
+    </row>
+    <row r="493" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D493" s="6"/>
       <c r="E493" s="6"/>
       <c r="F493" s="6"/>
@@ -17888,9 +17881,9 @@
       <c r="AD493" s="6"/>
       <c r="AE493" s="6"/>
       <c r="AF493" s="6"/>
-    </row>
-    <row r="494" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C494" s="6"/>
+      <c r="AG493" s="6"/>
+    </row>
+    <row r="494" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D494" s="6"/>
       <c r="E494" s="6"/>
       <c r="F494" s="6"/>
@@ -17920,9 +17913,9 @@
       <c r="AD494" s="6"/>
       <c r="AE494" s="6"/>
       <c r="AF494" s="6"/>
-    </row>
-    <row r="495" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C495" s="6"/>
+      <c r="AG494" s="6"/>
+    </row>
+    <row r="495" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D495" s="6"/>
       <c r="E495" s="6"/>
       <c r="F495" s="6"/>
@@ -17952,9 +17945,9 @@
       <c r="AD495" s="6"/>
       <c r="AE495" s="6"/>
       <c r="AF495" s="6"/>
-    </row>
-    <row r="496" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C496" s="6"/>
+      <c r="AG495" s="6"/>
+    </row>
+    <row r="496" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D496" s="6"/>
       <c r="E496" s="6"/>
       <c r="F496" s="6"/>
@@ -17984,9 +17977,9 @@
       <c r="AD496" s="6"/>
       <c r="AE496" s="6"/>
       <c r="AF496" s="6"/>
-    </row>
-    <row r="497" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C497" s="6"/>
+      <c r="AG496" s="6"/>
+    </row>
+    <row r="497" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D497" s="6"/>
       <c r="E497" s="6"/>
       <c r="F497" s="6"/>
@@ -18016,9 +18009,9 @@
       <c r="AD497" s="6"/>
       <c r="AE497" s="6"/>
       <c r="AF497" s="6"/>
-    </row>
-    <row r="498" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C498" s="6"/>
+      <c r="AG497" s="6"/>
+    </row>
+    <row r="498" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D498" s="6"/>
       <c r="E498" s="6"/>
       <c r="F498" s="6"/>
@@ -18048,9 +18041,9 @@
       <c r="AD498" s="6"/>
       <c r="AE498" s="6"/>
       <c r="AF498" s="6"/>
-    </row>
-    <row r="499" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C499" s="6"/>
+      <c r="AG498" s="6"/>
+    </row>
+    <row r="499" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D499" s="6"/>
       <c r="E499" s="6"/>
       <c r="F499" s="6"/>
@@ -18080,9 +18073,9 @@
       <c r="AD499" s="6"/>
       <c r="AE499" s="6"/>
       <c r="AF499" s="6"/>
-    </row>
-    <row r="500" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C500" s="6"/>
+      <c r="AG499" s="6"/>
+    </row>
+    <row r="500" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D500" s="6"/>
       <c r="E500" s="6"/>
       <c r="F500" s="6"/>
@@ -18112,9 +18105,9 @@
       <c r="AD500" s="6"/>
       <c r="AE500" s="6"/>
       <c r="AF500" s="6"/>
-    </row>
-    <row r="501" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C501" s="6"/>
+      <c r="AG500" s="6"/>
+    </row>
+    <row r="501" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D501" s="6"/>
       <c r="E501" s="6"/>
       <c r="F501" s="6"/>
@@ -18144,9 +18137,9 @@
       <c r="AD501" s="6"/>
       <c r="AE501" s="6"/>
       <c r="AF501" s="6"/>
-    </row>
-    <row r="502" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C502" s="6"/>
+      <c r="AG501" s="6"/>
+    </row>
+    <row r="502" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D502" s="6"/>
       <c r="E502" s="6"/>
       <c r="F502" s="6"/>
@@ -18176,9 +18169,9 @@
       <c r="AD502" s="6"/>
       <c r="AE502" s="6"/>
       <c r="AF502" s="6"/>
-    </row>
-    <row r="503" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C503" s="6"/>
+      <c r="AG502" s="6"/>
+    </row>
+    <row r="503" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D503" s="6"/>
       <c r="E503" s="6"/>
       <c r="F503" s="6"/>
@@ -18208,9 +18201,9 @@
       <c r="AD503" s="6"/>
       <c r="AE503" s="6"/>
       <c r="AF503" s="6"/>
-    </row>
-    <row r="504" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C504" s="6"/>
+      <c r="AG503" s="6"/>
+    </row>
+    <row r="504" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D504" s="6"/>
       <c r="E504" s="6"/>
       <c r="F504" s="6"/>
@@ -18240,9 +18233,9 @@
       <c r="AD504" s="6"/>
       <c r="AE504" s="6"/>
       <c r="AF504" s="6"/>
-    </row>
-    <row r="505" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C505" s="6"/>
+      <c r="AG504" s="6"/>
+    </row>
+    <row r="505" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D505" s="6"/>
       <c r="E505" s="6"/>
       <c r="F505" s="6"/>
@@ -18272,9 +18265,9 @@
       <c r="AD505" s="6"/>
       <c r="AE505" s="6"/>
       <c r="AF505" s="6"/>
-    </row>
-    <row r="506" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C506" s="6"/>
+      <c r="AG505" s="6"/>
+    </row>
+    <row r="506" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D506" s="6"/>
       <c r="E506" s="6"/>
       <c r="F506" s="6"/>
@@ -18304,9 +18297,9 @@
       <c r="AD506" s="6"/>
       <c r="AE506" s="6"/>
       <c r="AF506" s="6"/>
-    </row>
-    <row r="507" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C507" s="6"/>
+      <c r="AG506" s="6"/>
+    </row>
+    <row r="507" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D507" s="6"/>
       <c r="E507" s="6"/>
       <c r="F507" s="6"/>
@@ -18336,9 +18329,9 @@
       <c r="AD507" s="6"/>
       <c r="AE507" s="6"/>
       <c r="AF507" s="6"/>
-    </row>
-    <row r="508" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C508" s="6"/>
+      <c r="AG507" s="6"/>
+    </row>
+    <row r="508" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D508" s="6"/>
       <c r="E508" s="6"/>
       <c r="F508" s="6"/>
@@ -18368,9 +18361,9 @@
       <c r="AD508" s="6"/>
       <c r="AE508" s="6"/>
       <c r="AF508" s="6"/>
-    </row>
-    <row r="509" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C509" s="6"/>
+      <c r="AG508" s="6"/>
+    </row>
+    <row r="509" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D509" s="6"/>
       <c r="E509" s="6"/>
       <c r="F509" s="6"/>
@@ -18400,9 +18393,9 @@
       <c r="AD509" s="6"/>
       <c r="AE509" s="6"/>
       <c r="AF509" s="6"/>
-    </row>
-    <row r="510" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C510" s="6"/>
+      <c r="AG509" s="6"/>
+    </row>
+    <row r="510" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D510" s="6"/>
       <c r="E510" s="6"/>
       <c r="F510" s="6"/>
@@ -18432,9 +18425,9 @@
       <c r="AD510" s="6"/>
       <c r="AE510" s="6"/>
       <c r="AF510" s="6"/>
-    </row>
-    <row r="511" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C511" s="6"/>
+      <c r="AG510" s="6"/>
+    </row>
+    <row r="511" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D511" s="6"/>
       <c r="E511" s="6"/>
       <c r="F511" s="6"/>
@@ -18464,9 +18457,9 @@
       <c r="AD511" s="6"/>
       <c r="AE511" s="6"/>
       <c r="AF511" s="6"/>
-    </row>
-    <row r="512" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C512" s="6"/>
+      <c r="AG511" s="6"/>
+    </row>
+    <row r="512" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D512" s="6"/>
       <c r="E512" s="6"/>
       <c r="F512" s="6"/>
@@ -18496,9 +18489,9 @@
       <c r="AD512" s="6"/>
       <c r="AE512" s="6"/>
       <c r="AF512" s="6"/>
-    </row>
-    <row r="513" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C513" s="6"/>
+      <c r="AG512" s="6"/>
+    </row>
+    <row r="513" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D513" s="6"/>
       <c r="E513" s="6"/>
       <c r="F513" s="6"/>
@@ -18528,9 +18521,9 @@
       <c r="AD513" s="6"/>
       <c r="AE513" s="6"/>
       <c r="AF513" s="6"/>
-    </row>
-    <row r="514" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C514" s="6"/>
+      <c r="AG513" s="6"/>
+    </row>
+    <row r="514" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D514" s="6"/>
       <c r="E514" s="6"/>
       <c r="F514" s="6"/>
@@ -18560,9 +18553,9 @@
       <c r="AD514" s="6"/>
       <c r="AE514" s="6"/>
       <c r="AF514" s="6"/>
-    </row>
-    <row r="515" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C515" s="6"/>
+      <c r="AG514" s="6"/>
+    </row>
+    <row r="515" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D515" s="6"/>
       <c r="E515" s="6"/>
       <c r="F515" s="6"/>
@@ -18592,9 +18585,9 @@
       <c r="AD515" s="6"/>
       <c r="AE515" s="6"/>
       <c r="AF515" s="6"/>
-    </row>
-    <row r="516" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C516" s="6"/>
+      <c r="AG515" s="6"/>
+    </row>
+    <row r="516" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D516" s="6"/>
       <c r="E516" s="6"/>
       <c r="F516" s="6"/>
@@ -18624,9 +18617,9 @@
       <c r="AD516" s="6"/>
       <c r="AE516" s="6"/>
       <c r="AF516" s="6"/>
-    </row>
-    <row r="517" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C517" s="6"/>
+      <c r="AG516" s="6"/>
+    </row>
+    <row r="517" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D517" s="6"/>
       <c r="E517" s="6"/>
       <c r="F517" s="6"/>
@@ -18656,9 +18649,9 @@
       <c r="AD517" s="6"/>
       <c r="AE517" s="6"/>
       <c r="AF517" s="6"/>
-    </row>
-    <row r="518" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C518" s="6"/>
+      <c r="AG517" s="6"/>
+    </row>
+    <row r="518" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D518" s="6"/>
       <c r="E518" s="6"/>
       <c r="F518" s="6"/>
@@ -18688,9 +18681,9 @@
       <c r="AD518" s="6"/>
       <c r="AE518" s="6"/>
       <c r="AF518" s="6"/>
-    </row>
-    <row r="519" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C519" s="6"/>
+      <c r="AG518" s="6"/>
+    </row>
+    <row r="519" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D519" s="6"/>
       <c r="E519" s="6"/>
       <c r="F519" s="6"/>
@@ -18720,9 +18713,9 @@
       <c r="AD519" s="6"/>
       <c r="AE519" s="6"/>
       <c r="AF519" s="6"/>
-    </row>
-    <row r="520" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C520" s="6"/>
+      <c r="AG519" s="6"/>
+    </row>
+    <row r="520" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D520" s="6"/>
       <c r="E520" s="6"/>
       <c r="F520" s="6"/>
@@ -18752,9 +18745,9 @@
       <c r="AD520" s="6"/>
       <c r="AE520" s="6"/>
       <c r="AF520" s="6"/>
-    </row>
-    <row r="521" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C521" s="6"/>
+      <c r="AG520" s="6"/>
+    </row>
+    <row r="521" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D521" s="6"/>
       <c r="E521" s="6"/>
       <c r="F521" s="6"/>
@@ -18784,9 +18777,9 @@
       <c r="AD521" s="6"/>
       <c r="AE521" s="6"/>
       <c r="AF521" s="6"/>
-    </row>
-    <row r="522" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C522" s="6"/>
+      <c r="AG521" s="6"/>
+    </row>
+    <row r="522" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D522" s="6"/>
       <c r="E522" s="6"/>
       <c r="F522" s="6"/>
@@ -18816,9 +18809,9 @@
       <c r="AD522" s="6"/>
       <c r="AE522" s="6"/>
       <c r="AF522" s="6"/>
-    </row>
-    <row r="523" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C523" s="6"/>
+      <c r="AG522" s="6"/>
+    </row>
+    <row r="523" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D523" s="6"/>
       <c r="E523" s="6"/>
       <c r="F523" s="6"/>
@@ -18848,9 +18841,9 @@
       <c r="AD523" s="6"/>
       <c r="AE523" s="6"/>
       <c r="AF523" s="6"/>
-    </row>
-    <row r="524" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C524" s="6"/>
+      <c r="AG523" s="6"/>
+    </row>
+    <row r="524" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D524" s="6"/>
       <c r="E524" s="6"/>
       <c r="F524" s="6"/>
@@ -18880,9 +18873,9 @@
       <c r="AD524" s="6"/>
       <c r="AE524" s="6"/>
       <c r="AF524" s="6"/>
-    </row>
-    <row r="525" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C525" s="6"/>
+      <c r="AG524" s="6"/>
+    </row>
+    <row r="525" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D525" s="6"/>
       <c r="E525" s="6"/>
       <c r="F525" s="6"/>
@@ -18912,9 +18905,9 @@
       <c r="AD525" s="6"/>
       <c r="AE525" s="6"/>
       <c r="AF525" s="6"/>
-    </row>
-    <row r="526" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C526" s="6"/>
+      <c r="AG525" s="6"/>
+    </row>
+    <row r="526" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D526" s="6"/>
       <c r="E526" s="6"/>
       <c r="F526" s="6"/>
@@ -18944,9 +18937,9 @@
       <c r="AD526" s="6"/>
       <c r="AE526" s="6"/>
       <c r="AF526" s="6"/>
-    </row>
-    <row r="527" spans="3:32" x14ac:dyDescent="0.35">
-      <c r="C527" s="6"/>
+      <c r="AG526" s="6"/>
+    </row>
+    <row r="527" spans="4:33" x14ac:dyDescent="0.35">
       <c r="D527" s="6"/>
       <c r="E527" s="6"/>
       <c r="F527" s="6"/>
@@ -18976,21 +18969,22 @@
       <c r="AD527" s="6"/>
       <c r="AE527" s="6"/>
       <c r="AF527" s="6"/>
+      <c r="AG527" s="6"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1 AG154:AG1048576" xr:uid="{B429D7CB-CB95-4C32-BD15-7E643A869E91}">
-      <formula1 xml:space="preserve"> OR(AG2="", C2&lt;&gt;"")</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH1 AH154:AH1048576" xr:uid="{B429D7CB-CB95-4C32-BD15-7E643A869E91}">
+      <formula1 xml:space="preserve"> OR(AH2="", D2&lt;&gt;"")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH154:AH170" xr:uid="{46D8530A-B1A4-49FB-B1EC-1620AF9550BD}">
-      <formula1 xml:space="preserve"> OR(AG153 = "", $C153 &lt;&gt; "")</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI154:AI170" xr:uid="{46D8530A-B1A4-49FB-B1EC-1620AF9550BD}">
+      <formula1 xml:space="preserve"> OR(AH153 = "", $D153 &lt;&gt; "")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG101:BJ153" xr:uid="{38C270C2-497E-4FBC-A196-D0C510607023}">
-      <formula1>$C101&lt;&gt;""</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH101:BK153" xr:uid="{38C270C2-497E-4FBC-A196-D0C510607023}">
+      <formula1>$D101&lt;&gt;""</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Please enter borrower field data before co-borrower field" sqref="AG2:BJ100" xr:uid="{19EA5F48-595B-4E56-96E6-792CC96E0E23}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Please enter borrower field data before co-borrower field" sqref="AH2:BK100" xr:uid="{19EA5F48-595B-4E56-96E6-792CC96E0E23}">
       <formula1>INDIRECT(ADDRESS(ROW(), COLUMN()-30))&lt;&gt;""</formula1>
     </dataValidation>
   </dataValidations>
@@ -18999,14 +18993,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f55b03ab-a17e-45ae-bce8-30e2886d64f3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010036886560AE7D0346A967BB2F04832EDE" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1847e798d1e94f2c11a530a0a74dc730">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f55b03ab-a17e-45ae-bce8-30e2886d64f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bc1af3afbe156bc2be057a66c6dbf5dc" ns3:_="">
     <xsd:import namespace="f55b03ab-a17e-45ae-bce8-30e2886d64f3"/>
@@ -19188,7 +19174,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -19197,23 +19183,15 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49BEC817-B763-4B8D-BE16-B76A4BBC14A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f55b03ab-a17e-45ae-bce8-30e2886d64f3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f55b03ab-a17e-45ae-bce8-30e2886d64f3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABE8BC61-4CF1-4FE5-A634-CDA60DE3AD74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19231,10 +19209,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2688610-0CFD-4DBB-91CE-6FA05FF6834E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49BEC817-B763-4B8D-BE16-B76A4BBC14A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f55b03ab-a17e-45ae-bce8-30e2886d64f3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/test_Data/NewLoan.xlsx
+++ b/test_Data/NewLoan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagaSaiSriharshaKara\Desktop\PRMG\test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED71399E-6E98-4BA0-A634-299CB90FEAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD79457-A102-474A-84F4-F7A2721DB522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C1C90F5A-236F-411C-9C72-6F452735E766}"/>
   </bookViews>
@@ -1304,11 +1304,11 @@
   <dimension ref="A1:CM527"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E19" sqref="E19"/>
       <selection pane="topRight" activeCell="E19" sqref="E19"/>
       <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
-      <selection pane="bottomRight" activeCell="AH5" sqref="AH5"/>
+      <selection pane="bottomRight" activeCell="BI7" sqref="BI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18993,6 +18993,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f55b03ab-a17e-45ae-bce8-30e2886d64f3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010036886560AE7D0346A967BB2F04832EDE" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1847e798d1e94f2c11a530a0a74dc730">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f55b03ab-a17e-45ae-bce8-30e2886d64f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bc1af3afbe156bc2be057a66c6dbf5dc" ns3:_="">
     <xsd:import namespace="f55b03ab-a17e-45ae-bce8-30e2886d64f3"/>
@@ -19174,24 +19191,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49BEC817-B763-4B8D-BE16-B76A4BBC14A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f55b03ab-a17e-45ae-bce8-30e2886d64f3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f55b03ab-a17e-45ae-bce8-30e2886d64f3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2688610-0CFD-4DBB-91CE-6FA05FF6834E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABE8BC61-4CF1-4FE5-A634-CDA60DE3AD74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19207,28 +19231,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2688610-0CFD-4DBB-91CE-6FA05FF6834E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49BEC817-B763-4B8D-BE16-B76A4BBC14A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f55b03ab-a17e-45ae-bce8-30e2886d64f3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>